--- a/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,167 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>46300</v>
+        <v>57400</v>
       </c>
       <c r="E8" s="3">
-        <v>32400</v>
+        <v>48400</v>
       </c>
       <c r="F8" s="3">
-        <v>33000</v>
+        <v>45200</v>
       </c>
       <c r="G8" s="3">
-        <v>25000</v>
+        <v>31600</v>
       </c>
       <c r="H8" s="3">
-        <v>27700</v>
+        <v>32200</v>
       </c>
       <c r="I8" s="3">
+        <v>24400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K8" s="3">
         <v>19300</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>31100</v>
+        <v>40300</v>
       </c>
       <c r="E9" s="3">
-        <v>24800</v>
+        <v>35900</v>
       </c>
       <c r="F9" s="3">
-        <v>23200</v>
+        <v>30300</v>
       </c>
       <c r="G9" s="3">
-        <v>19200</v>
+        <v>24200</v>
       </c>
       <c r="H9" s="3">
-        <v>17600</v>
+        <v>22600</v>
       </c>
       <c r="I9" s="3">
+        <v>18700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K9" s="3">
         <v>13900</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>15200</v>
+        <v>17100</v>
       </c>
       <c r="E10" s="3">
-        <v>7600</v>
+        <v>12500</v>
       </c>
       <c r="F10" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G10" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J10" s="3">
         <v>9800</v>
       </c>
-      <c r="G10" s="3">
-        <v>5800</v>
-      </c>
-      <c r="H10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>5400</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +837,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8100</v>
+        <v>12500</v>
       </c>
       <c r="E12" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F12" s="3">
         <v>7900</v>
       </c>
-      <c r="F12" s="3">
-        <v>7300</v>
-      </c>
       <c r="G12" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="H12" s="3">
-        <v>5500</v>
+        <v>7100</v>
       </c>
       <c r="I12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K12" s="3">
         <v>6100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +903,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +938,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +973,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +989,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>58200</v>
+        <v>86000</v>
       </c>
       <c r="E17" s="3">
-        <v>43700</v>
+        <v>81300</v>
       </c>
       <c r="F17" s="3">
-        <v>40200</v>
+        <v>56800</v>
       </c>
       <c r="G17" s="3">
-        <v>37300</v>
+        <v>42700</v>
       </c>
       <c r="H17" s="3">
-        <v>32100</v>
+        <v>39200</v>
       </c>
       <c r="I17" s="3">
+        <v>36400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K17" s="3">
         <v>26700</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-11900</v>
+        <v>-28600</v>
       </c>
       <c r="E18" s="3">
-        <v>-11300</v>
+        <v>-32900</v>
       </c>
       <c r="F18" s="3">
-        <v>-7200</v>
+        <v>-11600</v>
       </c>
       <c r="G18" s="3">
-        <v>-12300</v>
+        <v>-11100</v>
       </c>
       <c r="H18" s="3">
-        <v>-4500</v>
+        <v>-7000</v>
       </c>
       <c r="I18" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-7500</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,45 +1074,53 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3100</v>
       </c>
-      <c r="H20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-31800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1055,20 +1128,26 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1175,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10800</v>
+        <v>-28400</v>
       </c>
       <c r="E23" s="3">
-        <v>-13100</v>
+        <v>-32200</v>
       </c>
       <c r="F23" s="3">
-        <v>-8000</v>
+        <v>-10500</v>
       </c>
       <c r="G23" s="3">
-        <v>-9200</v>
+        <v>-12800</v>
       </c>
       <c r="H23" s="3">
-        <v>-2700</v>
+        <v>-7800</v>
       </c>
       <c r="I23" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-8500</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>500</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1280,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10900</v>
+        <v>-28400</v>
       </c>
       <c r="E26" s="3">
-        <v>-13200</v>
+        <v>-32300</v>
       </c>
       <c r="F26" s="3">
-        <v>-8500</v>
+        <v>-10600</v>
       </c>
       <c r="G26" s="3">
-        <v>-9700</v>
+        <v>-12900</v>
       </c>
       <c r="H26" s="3">
-        <v>-2900</v>
+        <v>-8300</v>
       </c>
       <c r="I26" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-9000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-12600</v>
+        <v>-28800</v>
       </c>
       <c r="E27" s="3">
-        <v>-14600</v>
+        <v>-33900</v>
       </c>
       <c r="F27" s="3">
-        <v>-10100</v>
+        <v>-12300</v>
       </c>
       <c r="G27" s="3">
-        <v>-11000</v>
+        <v>-14300</v>
       </c>
       <c r="H27" s="3">
-        <v>-4300</v>
+        <v>-9800</v>
       </c>
       <c r="I27" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-8900</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1490,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-12600</v>
+        <v>-28800</v>
       </c>
       <c r="E33" s="3">
-        <v>-14600</v>
+        <v>-33900</v>
       </c>
       <c r="F33" s="3">
-        <v>-10100</v>
+        <v>-12300</v>
       </c>
       <c r="G33" s="3">
-        <v>-11000</v>
+        <v>-14300</v>
       </c>
       <c r="H33" s="3">
-        <v>-4300</v>
+        <v>-9800</v>
       </c>
       <c r="I33" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-8900</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1595,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-12600</v>
+        <v>-28800</v>
       </c>
       <c r="E35" s="3">
-        <v>-14600</v>
+        <v>-33900</v>
       </c>
       <c r="F35" s="3">
-        <v>-10100</v>
+        <v>-12300</v>
       </c>
       <c r="G35" s="3">
-        <v>-11000</v>
+        <v>-14300</v>
       </c>
       <c r="H35" s="3">
-        <v>-4300</v>
+        <v>-9800</v>
       </c>
       <c r="I35" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-8900</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,19 +1704,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7500</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>24300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7300</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1562,19 +1735,25 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35700</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>202500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F42" s="3">
+        <v>34800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1591,19 +1770,25 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>29200</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>30200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>25300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>28500</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1620,19 +1805,25 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4700</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>10200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4600</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1649,19 +1840,25 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10600</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>16900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>10400</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1678,19 +1875,25 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>87700</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>284100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>69800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>85500</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1707,8 +1910,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,19 +1945,25 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3300</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>6800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1765,8 +1980,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2015,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,19 +2085,25 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1881,8 +2120,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,19 +2155,25 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>91700</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>292000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>76100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>89500</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1939,8 +2190,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,19 +2224,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>8800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4900</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1994,19 +2255,25 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>126000</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>122900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>122900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>122900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2023,19 +2290,25 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>72300</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>114500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>85300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>70500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2052,19 +2325,25 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>203200</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>246100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>214800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>198200</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2081,8 +2360,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,37 +2395,49 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>1900</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,19 +2535,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>203400</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>250000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>216900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>198400</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2255,8 +2570,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,19 +2655,25 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>69100</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>69000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>67400</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2355,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,19 +2725,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-211000</v>
+        <v>-268500</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+      <c r="F72" s="3">
+        <v>-205800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2413,8 +2760,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,19 +2865,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-180800</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>42000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-209800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-176400</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2529,8 +2900,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2935,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-12600</v>
+        <v>-28800</v>
       </c>
       <c r="E81" s="3">
-        <v>-14600</v>
+        <v>-33900</v>
       </c>
       <c r="F81" s="3">
-        <v>-10100</v>
+        <v>-12300</v>
       </c>
       <c r="G81" s="3">
-        <v>-11000</v>
+        <v>-14300</v>
       </c>
       <c r="H81" s="3">
-        <v>-4300</v>
+        <v>-9800</v>
       </c>
       <c r="I81" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-8900</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3029,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3235,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-43900</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>19900</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3289,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3390,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3425,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3580,14 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3615,14 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3650,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3683,12 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>57400</v>
+        <v>78600</v>
       </c>
       <c r="E8" s="3">
-        <v>48400</v>
+        <v>59600</v>
       </c>
       <c r="F8" s="3">
-        <v>45200</v>
+        <v>50200</v>
       </c>
       <c r="G8" s="3">
-        <v>31600</v>
+        <v>46900</v>
       </c>
       <c r="H8" s="3">
-        <v>32200</v>
+        <v>32800</v>
       </c>
       <c r="I8" s="3">
-        <v>24400</v>
+        <v>33400</v>
       </c>
       <c r="J8" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K8" s="3">
         <v>27000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>40300</v>
+        <v>44400</v>
       </c>
       <c r="E9" s="3">
-        <v>35900</v>
+        <v>41800</v>
       </c>
       <c r="F9" s="3">
-        <v>30300</v>
+        <v>37300</v>
       </c>
       <c r="G9" s="3">
-        <v>24200</v>
+        <v>31500</v>
       </c>
       <c r="H9" s="3">
-        <v>22600</v>
+        <v>25100</v>
       </c>
       <c r="I9" s="3">
-        <v>18700</v>
+        <v>23500</v>
       </c>
       <c r="J9" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K9" s="3">
         <v>17200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>17100</v>
+        <v>34200</v>
       </c>
       <c r="E10" s="3">
-        <v>12500</v>
+        <v>17800</v>
       </c>
       <c r="F10" s="3">
-        <v>14800</v>
+        <v>13000</v>
       </c>
       <c r="G10" s="3">
-        <v>7400</v>
+        <v>15400</v>
       </c>
       <c r="H10" s="3">
-        <v>9600</v>
+        <v>7700</v>
       </c>
       <c r="I10" s="3">
-        <v>5700</v>
+        <v>9900</v>
       </c>
       <c r="J10" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K10" s="3">
         <v>9800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>12500</v>
+        <v>12200</v>
       </c>
       <c r="E12" s="3">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="F12" s="3">
-        <v>7900</v>
+        <v>10900</v>
       </c>
       <c r="G12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J12" s="3">
         <v>7700</v>
       </c>
-      <c r="H12" s="3">
-        <v>7100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>7400</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>86000</v>
+        <v>104200</v>
       </c>
       <c r="E17" s="3">
-        <v>81300</v>
+        <v>89200</v>
       </c>
       <c r="F17" s="3">
-        <v>56800</v>
+        <v>84300</v>
       </c>
       <c r="G17" s="3">
-        <v>42700</v>
+        <v>59000</v>
       </c>
       <c r="H17" s="3">
-        <v>39200</v>
+        <v>44300</v>
       </c>
       <c r="I17" s="3">
-        <v>36400</v>
+        <v>40700</v>
       </c>
       <c r="J17" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K17" s="3">
         <v>31300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-28600</v>
+        <v>-25600</v>
       </c>
       <c r="E18" s="3">
-        <v>-32900</v>
+        <v>-29600</v>
       </c>
       <c r="F18" s="3">
-        <v>-11600</v>
+        <v>-34100</v>
       </c>
       <c r="G18" s="3">
-        <v>-11100</v>
+        <v>-12100</v>
       </c>
       <c r="H18" s="3">
-        <v>-7000</v>
+        <v>-11500</v>
       </c>
       <c r="I18" s="3">
-        <v>-12000</v>
+        <v>-7300</v>
       </c>
       <c r="J18" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,54 +1109,58 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
-        <v>1100</v>
-      </c>
       <c r="G20" s="3">
-        <v>-1700</v>
+        <v>1200</v>
       </c>
       <c r="H20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
-        <v>3100</v>
-      </c>
       <c r="J20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-27900</v>
+        <v>-23800</v>
       </c>
       <c r="E21" s="3">
-        <v>-31800</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>-29000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-33000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1134,20 +1171,23 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,51 +1221,57 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-28400</v>
+        <v>-24300</v>
       </c>
       <c r="E23" s="3">
-        <v>-32200</v>
+        <v>-29500</v>
       </c>
       <c r="F23" s="3">
-        <v>-10500</v>
+        <v>-33400</v>
       </c>
       <c r="G23" s="3">
-        <v>-12800</v>
+        <v>-10900</v>
       </c>
       <c r="H23" s="3">
-        <v>-7800</v>
+        <v>-13200</v>
       </c>
       <c r="I23" s="3">
-        <v>-8900</v>
+        <v>-8100</v>
       </c>
       <c r="J23" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8500</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1234,25 +1280,28 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>500</v>
       </c>
       <c r="J24" s="3">
+        <v>500</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-28400</v>
+        <v>-24600</v>
       </c>
       <c r="E26" s="3">
-        <v>-32300</v>
+        <v>-29500</v>
       </c>
       <c r="F26" s="3">
-        <v>-10600</v>
+        <v>-33500</v>
       </c>
       <c r="G26" s="3">
-        <v>-12900</v>
+        <v>-11000</v>
       </c>
       <c r="H26" s="3">
-        <v>-8300</v>
+        <v>-13400</v>
       </c>
       <c r="I26" s="3">
-        <v>-9400</v>
+        <v>-8600</v>
       </c>
       <c r="J26" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-28800</v>
+        <v>-24600</v>
       </c>
       <c r="E27" s="3">
-        <v>-33900</v>
+        <v>-29900</v>
       </c>
       <c r="F27" s="3">
-        <v>-12300</v>
+        <v>-35200</v>
       </c>
       <c r="G27" s="3">
-        <v>-14300</v>
+        <v>-12700</v>
       </c>
       <c r="H27" s="3">
-        <v>-9800</v>
+        <v>-14800</v>
       </c>
       <c r="I27" s="3">
-        <v>-10800</v>
+        <v>-10200</v>
       </c>
       <c r="J27" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1100</v>
-      </c>
       <c r="G32" s="3">
-        <v>1700</v>
+        <v>-1200</v>
       </c>
       <c r="H32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
-        <v>-3100</v>
-      </c>
       <c r="J32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-28800</v>
+        <v>-24600</v>
       </c>
       <c r="E33" s="3">
-        <v>-33900</v>
+        <v>-29900</v>
       </c>
       <c r="F33" s="3">
-        <v>-12300</v>
+        <v>-35200</v>
       </c>
       <c r="G33" s="3">
-        <v>-14300</v>
+        <v>-12700</v>
       </c>
       <c r="H33" s="3">
-        <v>-9800</v>
+        <v>-14800</v>
       </c>
       <c r="I33" s="3">
-        <v>-10800</v>
+        <v>-10200</v>
       </c>
       <c r="J33" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-28800</v>
+        <v>-24600</v>
       </c>
       <c r="E35" s="3">
-        <v>-33900</v>
+        <v>-29900</v>
       </c>
       <c r="F35" s="3">
-        <v>-12300</v>
+        <v>-35200</v>
       </c>
       <c r="G35" s="3">
-        <v>-14300</v>
+        <v>-12700</v>
       </c>
       <c r="H35" s="3">
-        <v>-9800</v>
+        <v>-14800</v>
       </c>
       <c r="I35" s="3">
-        <v>-10800</v>
+        <v>-10200</v>
       </c>
       <c r="J35" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,22 +1792,23 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24300</v>
+        <v>18600</v>
       </c>
       <c r="E41" s="3">
-        <v>7700</v>
+        <v>25200</v>
       </c>
       <c r="F41" s="3">
-        <v>7300</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>8000</v>
+      </c>
+      <c r="G41" s="3">
+        <v>7600</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1741,22 +1828,25 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>202500</v>
+        <v>224900</v>
       </c>
       <c r="E42" s="3">
-        <v>14800</v>
+        <v>210100</v>
       </c>
       <c r="F42" s="3">
-        <v>34800</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>15300</v>
+      </c>
+      <c r="G42" s="3">
+        <v>36100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1776,22 +1866,25 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30200</v>
+        <v>34200</v>
       </c>
       <c r="E43" s="3">
-        <v>25300</v>
+        <v>31300</v>
       </c>
       <c r="F43" s="3">
-        <v>28500</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>26200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>29600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1904,25 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="E44" s="3">
-        <v>7400</v>
+        <v>10600</v>
       </c>
       <c r="F44" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>7700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4700</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1846,22 +1942,25 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16900</v>
+        <v>17200</v>
       </c>
       <c r="E45" s="3">
-        <v>14700</v>
+        <v>17600</v>
       </c>
       <c r="F45" s="3">
-        <v>10400</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>15300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>10800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1881,22 +1980,25 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>284100</v>
+        <v>304500</v>
       </c>
       <c r="E46" s="3">
-        <v>69800</v>
+        <v>294800</v>
       </c>
       <c r="F46" s="3">
-        <v>85500</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>72400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>88800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1916,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,22 +2056,25 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="E48" s="3">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="F48" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>5700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,22 +2208,25 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="E52" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>800</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,22 +2284,25 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>292000</v>
+        <v>313400</v>
       </c>
       <c r="E54" s="3">
-        <v>76100</v>
+        <v>303000</v>
       </c>
       <c r="F54" s="3">
-        <v>89500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>79000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>92900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,22 +2356,23 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8800</v>
+        <v>13800</v>
       </c>
       <c r="E57" s="3">
-        <v>6600</v>
+        <v>9100</v>
       </c>
       <c r="F57" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>6800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2261,22 +2392,25 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>122900</v>
+        <v>127500</v>
       </c>
       <c r="E58" s="3">
-        <v>122900</v>
+        <v>127500</v>
       </c>
       <c r="F58" s="3">
-        <v>122900</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>127500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>127500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2296,22 +2430,25 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>114500</v>
+        <v>145600</v>
       </c>
       <c r="E59" s="3">
-        <v>85300</v>
+        <v>118800</v>
       </c>
       <c r="F59" s="3">
-        <v>70500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>88500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>73100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2331,22 +2468,25 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>246100</v>
+        <v>286900</v>
       </c>
       <c r="E60" s="3">
-        <v>214800</v>
+        <v>255400</v>
       </c>
       <c r="F60" s="3">
-        <v>198200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>222900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>205700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2366,8 +2506,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,8 +2544,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2410,10 +2556,10 @@
         <v>3700</v>
       </c>
       <c r="E62" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>3900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2427,8 +2573,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,22 +2696,25 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>250000</v>
+        <v>290700</v>
       </c>
       <c r="E66" s="3">
-        <v>216900</v>
+        <v>259400</v>
       </c>
       <c r="F66" s="3">
-        <v>198400</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>225100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>205900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2670,13 +2838,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>69000</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>67400</v>
+        <v>71600</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,22 +2902,25 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-268500</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-205800</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-278600</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-213600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,22 +3054,25 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42000</v>
+        <v>22700</v>
       </c>
       <c r="E76" s="3">
-        <v>-209800</v>
+        <v>43600</v>
       </c>
       <c r="F76" s="3">
-        <v>-176400</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-217700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-183000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-28800</v>
+        <v>-24600</v>
       </c>
       <c r="E81" s="3">
-        <v>-33900</v>
+        <v>-29900</v>
       </c>
       <c r="F81" s="3">
-        <v>-12300</v>
+        <v>-35200</v>
       </c>
       <c r="G81" s="3">
-        <v>-14300</v>
+        <v>-12700</v>
       </c>
       <c r="H81" s="3">
-        <v>-9800</v>
+        <v>-14800</v>
       </c>
       <c r="I81" s="3">
-        <v>-10800</v>
+        <v>-10200</v>
       </c>
       <c r="J81" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,20 +3229,21 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
-        <v>400</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3256,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3066,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,19 +3455,22 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-43900</v>
+        <v>7200</v>
       </c>
       <c r="E89" s="3">
-        <v>19900</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-45500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>20600</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -3267,8 +3484,8 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3276,8 +3493,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,19 +3511,20 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>-600</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3317,8 +3538,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3326,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3431,8 +3661,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +3829,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3621,8 +3867,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,8 +3905,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3689,6 +3941,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,206 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>78600</v>
+        <v>136300</v>
       </c>
       <c r="E8" s="3">
-        <v>59600</v>
+        <v>94800</v>
       </c>
       <c r="F8" s="3">
-        <v>50200</v>
+        <v>82400</v>
       </c>
       <c r="G8" s="3">
-        <v>46900</v>
+        <v>62400</v>
       </c>
       <c r="H8" s="3">
-        <v>32800</v>
+        <v>52600</v>
       </c>
       <c r="I8" s="3">
+        <v>49100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K8" s="3">
         <v>33400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>25300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>27000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>19300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>44400</v>
+        <v>73700</v>
       </c>
       <c r="E9" s="3">
-        <v>41800</v>
+        <v>52000</v>
       </c>
       <c r="F9" s="3">
-        <v>37300</v>
+        <v>46500</v>
       </c>
       <c r="G9" s="3">
-        <v>31500</v>
+        <v>43800</v>
       </c>
       <c r="H9" s="3">
-        <v>25100</v>
+        <v>39000</v>
       </c>
       <c r="I9" s="3">
+        <v>33000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K9" s="3">
         <v>23500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>19400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>17200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>13900</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>34200</v>
+        <v>62600</v>
       </c>
       <c r="E10" s="3">
-        <v>17800</v>
+        <v>42800</v>
       </c>
       <c r="F10" s="3">
-        <v>13000</v>
+        <v>35900</v>
       </c>
       <c r="G10" s="3">
-        <v>15400</v>
+        <v>18600</v>
       </c>
       <c r="H10" s="3">
-        <v>7700</v>
+        <v>13600</v>
       </c>
       <c r="I10" s="3">
+        <v>16100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K10" s="3">
         <v>9900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>9800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>12200</v>
+        <v>18400</v>
       </c>
       <c r="E12" s="3">
-        <v>13000</v>
+        <v>13900</v>
       </c>
       <c r="F12" s="3">
-        <v>10900</v>
+        <v>12800</v>
       </c>
       <c r="G12" s="3">
-        <v>8200</v>
+        <v>13600</v>
       </c>
       <c r="H12" s="3">
-        <v>8000</v>
+        <v>11400</v>
       </c>
       <c r="I12" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K12" s="3">
         <v>7300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>5400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>6100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>104200</v>
+        <v>272300</v>
       </c>
       <c r="E17" s="3">
-        <v>89200</v>
+        <v>137900</v>
       </c>
       <c r="F17" s="3">
-        <v>84300</v>
+        <v>109100</v>
       </c>
       <c r="G17" s="3">
-        <v>59000</v>
+        <v>93500</v>
       </c>
       <c r="H17" s="3">
-        <v>44300</v>
+        <v>88300</v>
       </c>
       <c r="I17" s="3">
+        <v>61700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K17" s="3">
         <v>40700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>37800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>31300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>26700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-25600</v>
+        <v>-136000</v>
       </c>
       <c r="E18" s="3">
-        <v>-29600</v>
+        <v>-43100</v>
       </c>
       <c r="F18" s="3">
-        <v>-34100</v>
+        <v>-26800</v>
       </c>
       <c r="G18" s="3">
-        <v>-12100</v>
+        <v>-31000</v>
       </c>
       <c r="H18" s="3">
-        <v>-11500</v>
+        <v>-35700</v>
       </c>
       <c r="I18" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-7300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-12400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-7500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,63 +1176,71 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-23800</v>
+        <v>-132900</v>
       </c>
       <c r="E21" s="3">
-        <v>-29000</v>
+        <v>-38700</v>
       </c>
       <c r="F21" s="3">
-        <v>-33000</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-24900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-34500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1174,20 +1248,26 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,84 +1304,102 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-24300</v>
+        <v>-133500</v>
       </c>
       <c r="E23" s="3">
-        <v>-29500</v>
+        <v>-39200</v>
       </c>
       <c r="F23" s="3">
-        <v>-33400</v>
+        <v>-25400</v>
       </c>
       <c r="G23" s="3">
-        <v>-10900</v>
+        <v>-30900</v>
       </c>
       <c r="H23" s="3">
-        <v>-13200</v>
+        <v>-35000</v>
       </c>
       <c r="I23" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-8100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-9300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-8500</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>200</v>
       </c>
       <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
+        <v>500</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-24600</v>
+        <v>-133600</v>
       </c>
       <c r="E26" s="3">
-        <v>-29500</v>
+        <v>-39200</v>
       </c>
       <c r="F26" s="3">
-        <v>-33500</v>
+        <v>-25800</v>
       </c>
       <c r="G26" s="3">
-        <v>-11000</v>
+        <v>-30900</v>
       </c>
       <c r="H26" s="3">
-        <v>-13400</v>
+        <v>-35100</v>
       </c>
       <c r="I26" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-8600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-9000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-24600</v>
+        <v>-133500</v>
       </c>
       <c r="E27" s="3">
-        <v>-29900</v>
+        <v>-39200</v>
       </c>
       <c r="F27" s="3">
-        <v>-35200</v>
+        <v>-25800</v>
       </c>
       <c r="G27" s="3">
-        <v>-12700</v>
+        <v>-31300</v>
       </c>
       <c r="H27" s="3">
-        <v>-14800</v>
+        <v>-36800</v>
       </c>
       <c r="I27" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-10200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-11200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-8900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-24600</v>
+        <v>-133500</v>
       </c>
       <c r="E33" s="3">
-        <v>-29900</v>
+        <v>-39200</v>
       </c>
       <c r="F33" s="3">
-        <v>-35200</v>
+        <v>-25800</v>
       </c>
       <c r="G33" s="3">
-        <v>-12700</v>
+        <v>-31300</v>
       </c>
       <c r="H33" s="3">
-        <v>-14800</v>
+        <v>-36800</v>
       </c>
       <c r="I33" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-10200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-11200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-8900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-24600</v>
+        <v>-133500</v>
       </c>
       <c r="E35" s="3">
-        <v>-29900</v>
+        <v>-39200</v>
       </c>
       <c r="F35" s="3">
-        <v>-35200</v>
+        <v>-25800</v>
       </c>
       <c r="G35" s="3">
-        <v>-12700</v>
+        <v>-31300</v>
       </c>
       <c r="H35" s="3">
-        <v>-14800</v>
+        <v>-36800</v>
       </c>
       <c r="I35" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-10200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-11200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-8900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1965,31 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18600</v>
+        <v>11900</v>
       </c>
       <c r="E41" s="3">
-        <v>25200</v>
+        <v>19100</v>
       </c>
       <c r="F41" s="3">
+        <v>19500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>26400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I41" s="3">
         <v>8000</v>
       </c>
-      <c r="G41" s="3">
-        <v>7600</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,28 +2005,34 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>224900</v>
+        <v>160500</v>
       </c>
       <c r="E42" s="3">
-        <v>210100</v>
+        <v>253300</v>
       </c>
       <c r="F42" s="3">
-        <v>15300</v>
+        <v>235600</v>
       </c>
       <c r="G42" s="3">
-        <v>36100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>220100</v>
+      </c>
+      <c r="H42" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>37800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1869,28 +2049,34 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>34200</v>
+        <v>51700</v>
       </c>
       <c r="E43" s="3">
-        <v>31300</v>
+        <v>36000</v>
       </c>
       <c r="F43" s="3">
-        <v>26200</v>
+        <v>35800</v>
       </c>
       <c r="G43" s="3">
-        <v>29600</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>32800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>27400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>31000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1907,28 +2093,34 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9600</v>
+        <v>14000</v>
       </c>
       <c r="E44" s="3">
-        <v>10600</v>
+        <v>14100</v>
       </c>
       <c r="F44" s="3">
-        <v>7700</v>
+        <v>10000</v>
       </c>
       <c r="G44" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+        <v>11100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>5000</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1945,28 +2137,34 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17200</v>
+        <v>30500</v>
       </c>
       <c r="E45" s="3">
-        <v>17600</v>
+        <v>18100</v>
       </c>
       <c r="F45" s="3">
-        <v>15300</v>
+        <v>18000</v>
       </c>
       <c r="G45" s="3">
-        <v>10800</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>18400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>11300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1983,28 +2181,34 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>304500</v>
+        <v>268600</v>
       </c>
       <c r="E46" s="3">
-        <v>294800</v>
+        <v>340600</v>
       </c>
       <c r="F46" s="3">
-        <v>72400</v>
+        <v>318900</v>
       </c>
       <c r="G46" s="3">
-        <v>88800</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>308800</v>
+      </c>
+      <c r="H46" s="3">
+        <v>75900</v>
+      </c>
+      <c r="I46" s="3">
+        <v>93000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2021,8 +2225,14 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,28 +2269,34 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7000</v>
+        <v>18700</v>
       </c>
       <c r="E48" s="3">
-        <v>7000</v>
+        <v>12300</v>
       </c>
       <c r="F48" s="3">
-        <v>5700</v>
+        <v>7300</v>
       </c>
       <c r="G48" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>7400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2097,8 +2313,14 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,29 +2445,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1900</v>
+        <v>4100</v>
       </c>
       <c r="E52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2489,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,28 +2533,34 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>313400</v>
+        <v>291300</v>
       </c>
       <c r="E54" s="3">
-        <v>303000</v>
+        <v>356200</v>
       </c>
       <c r="F54" s="3">
-        <v>79000</v>
+        <v>328300</v>
       </c>
       <c r="G54" s="3">
-        <v>92900</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>317400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>82700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>97300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2325,8 +2577,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,28 +2617,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13800</v>
+        <v>18100</v>
       </c>
       <c r="E57" s="3">
-        <v>9100</v>
+        <v>15700</v>
       </c>
       <c r="F57" s="3">
-        <v>6800</v>
+        <v>14400</v>
       </c>
       <c r="G57" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>9500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2395,28 +2657,34 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>127500</v>
+        <v>133600</v>
       </c>
       <c r="E58" s="3">
-        <v>127500</v>
+        <v>133600</v>
       </c>
       <c r="F58" s="3">
-        <v>127500</v>
+        <v>133600</v>
       </c>
       <c r="G58" s="3">
-        <v>127500</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>133600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>133600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>133600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2433,28 +2701,34 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>145600</v>
+        <v>276800</v>
       </c>
       <c r="E59" s="3">
-        <v>118800</v>
+        <v>211300</v>
       </c>
       <c r="F59" s="3">
-        <v>88500</v>
+        <v>152500</v>
       </c>
       <c r="G59" s="3">
-        <v>73100</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>124400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>92700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>76600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2471,28 +2745,34 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>286900</v>
+        <v>428500</v>
       </c>
       <c r="E60" s="3">
-        <v>255400</v>
+        <v>360500</v>
       </c>
       <c r="F60" s="3">
-        <v>222900</v>
+        <v>300500</v>
       </c>
       <c r="G60" s="3">
-        <v>205700</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>267500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>233400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>215500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2509,8 +2789,14 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,25 +2833,31 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3700</v>
+        <v>10600</v>
       </c>
       <c r="E62" s="3">
-        <v>3900</v>
+        <v>6600</v>
       </c>
       <c r="F62" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>3800</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2576,17 +2868,23 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,28 +3009,34 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>290700</v>
+        <v>439300</v>
       </c>
       <c r="E66" s="3">
-        <v>259400</v>
+        <v>367300</v>
       </c>
       <c r="F66" s="3">
-        <v>225100</v>
+        <v>304500</v>
       </c>
       <c r="G66" s="3">
-        <v>205900</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>271700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>235800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>215700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2737,8 +3053,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2841,16 +3177,16 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>71600</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>73300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2867,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,28 +3247,34 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="3">
-        <v>-278600</v>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G72" s="3">
-        <v>-213600</v>
+        <v>-291800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>-223700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2943,8 +3291,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,28 +3423,34 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22700</v>
+        <v>-147900</v>
       </c>
       <c r="E76" s="3">
-        <v>43600</v>
+        <v>-11100</v>
       </c>
       <c r="F76" s="3">
-        <v>-217700</v>
+        <v>23800</v>
       </c>
       <c r="G76" s="3">
-        <v>-183000</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>45600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-228000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-191700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3095,8 +3467,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-24600</v>
+        <v>-133500</v>
       </c>
       <c r="E81" s="3">
-        <v>-29900</v>
+        <v>-39200</v>
       </c>
       <c r="F81" s="3">
-        <v>-35200</v>
+        <v>-25800</v>
       </c>
       <c r="G81" s="3">
-        <v>-12700</v>
+        <v>-31300</v>
       </c>
       <c r="H81" s="3">
-        <v>-14800</v>
+        <v>-36800</v>
       </c>
       <c r="I81" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-10200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-11200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-8900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,26 +3626,28 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
       </c>
       <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>500</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3259,17 +3657,23 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,25 +3886,31 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7200</v>
+        <v>90300</v>
       </c>
       <c r="E89" s="3">
-        <v>-45500</v>
+        <v>21700</v>
       </c>
       <c r="F89" s="3">
-        <v>20600</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>21600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3487,17 +3921,23 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,25 +3952,27 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-700</v>
+        <v>-1800</v>
       </c>
       <c r="E91" s="3">
         <v>-600</v>
       </c>
       <c r="F91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-700</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3541,17 +3983,23 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3870,8 +4362,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4406,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3944,6 +4448,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>136300</v>
+        <v>169100</v>
       </c>
       <c r="E8" s="3">
-        <v>94800</v>
+        <v>136900</v>
       </c>
       <c r="F8" s="3">
-        <v>82400</v>
+        <v>95200</v>
       </c>
       <c r="G8" s="3">
-        <v>62400</v>
+        <v>82700</v>
       </c>
       <c r="H8" s="3">
-        <v>52600</v>
+        <v>62700</v>
       </c>
       <c r="I8" s="3">
-        <v>49100</v>
+        <v>52800</v>
       </c>
       <c r="J8" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K8" s="3">
         <v>34300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>25300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19300</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>73700</v>
+        <v>88800</v>
       </c>
       <c r="E9" s="3">
-        <v>52000</v>
+        <v>74000</v>
       </c>
       <c r="F9" s="3">
-        <v>46500</v>
+        <v>52200</v>
       </c>
       <c r="G9" s="3">
-        <v>43800</v>
+        <v>46700</v>
       </c>
       <c r="H9" s="3">
-        <v>39000</v>
+        <v>44000</v>
       </c>
       <c r="I9" s="3">
-        <v>33000</v>
+        <v>39200</v>
       </c>
       <c r="J9" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K9" s="3">
         <v>26300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>62600</v>
+        <v>80300</v>
       </c>
       <c r="E10" s="3">
-        <v>42800</v>
+        <v>62900</v>
       </c>
       <c r="F10" s="3">
-        <v>35900</v>
+        <v>43000</v>
       </c>
       <c r="G10" s="3">
-        <v>18600</v>
+        <v>36000</v>
       </c>
       <c r="H10" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I10" s="3">
         <v>13600</v>
       </c>
-      <c r="I10" s="3">
-        <v>16100</v>
-      </c>
       <c r="J10" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K10" s="3">
         <v>8000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>18400</v>
+        <v>19600</v>
       </c>
       <c r="E12" s="3">
-        <v>13900</v>
+        <v>18500</v>
       </c>
       <c r="F12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G12" s="3">
         <v>12800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6100</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>272300</v>
+        <v>238300</v>
       </c>
       <c r="E17" s="3">
-        <v>137900</v>
+        <v>273500</v>
       </c>
       <c r="F17" s="3">
-        <v>109100</v>
+        <v>138500</v>
       </c>
       <c r="G17" s="3">
-        <v>93500</v>
+        <v>109600</v>
       </c>
       <c r="H17" s="3">
-        <v>88300</v>
+        <v>93900</v>
       </c>
       <c r="I17" s="3">
-        <v>61700</v>
+        <v>88700</v>
       </c>
       <c r="J17" s="3">
+        <v>62000</v>
+      </c>
+      <c r="K17" s="3">
         <v>46400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>40700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>37800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>31300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-136000</v>
+        <v>-69200</v>
       </c>
       <c r="E18" s="3">
-        <v>-43100</v>
+        <v>-136600</v>
       </c>
       <c r="F18" s="3">
-        <v>-26800</v>
+        <v>-43200</v>
       </c>
       <c r="G18" s="3">
-        <v>-31000</v>
+        <v>-26900</v>
       </c>
       <c r="H18" s="3">
-        <v>-35700</v>
+        <v>-31200</v>
       </c>
       <c r="I18" s="3">
-        <v>-12600</v>
+        <v>-35900</v>
       </c>
       <c r="J18" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-12000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,72 +1210,76 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-132900</v>
+        <v>-67600</v>
       </c>
       <c r="E21" s="3">
-        <v>-38700</v>
+        <v>-133500</v>
       </c>
       <c r="F21" s="3">
-        <v>-24900</v>
+        <v>-38800</v>
       </c>
       <c r="G21" s="3">
-        <v>-30400</v>
+        <v>-25000</v>
       </c>
       <c r="H21" s="3">
-        <v>-34500</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-30500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-34700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1254,20 +1290,23 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,69 +1349,75 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-133500</v>
+        <v>-68400</v>
       </c>
       <c r="E23" s="3">
-        <v>-39200</v>
+        <v>-134100</v>
       </c>
       <c r="F23" s="3">
-        <v>-25400</v>
+        <v>-39400</v>
       </c>
       <c r="G23" s="3">
-        <v>-30900</v>
+        <v>-25600</v>
       </c>
       <c r="H23" s="3">
-        <v>-35000</v>
+        <v>-31000</v>
       </c>
       <c r="I23" s="3">
-        <v>-11400</v>
+        <v>-35100</v>
       </c>
       <c r="J23" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-13900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8500</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
@@ -1381,25 +1426,28 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>500</v>
       </c>
       <c r="M24" s="3">
+        <v>500</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-133600</v>
+        <v>-68400</v>
       </c>
       <c r="E26" s="3">
-        <v>-39200</v>
+        <v>-134200</v>
       </c>
       <c r="F26" s="3">
-        <v>-25800</v>
+        <v>-39400</v>
       </c>
       <c r="G26" s="3">
-        <v>-30900</v>
+        <v>-25900</v>
       </c>
       <c r="H26" s="3">
-        <v>-35100</v>
+        <v>-31000</v>
       </c>
       <c r="I26" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-11600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-133500</v>
+        <v>-68400</v>
       </c>
       <c r="E27" s="3">
-        <v>-39200</v>
+        <v>-134100</v>
       </c>
       <c r="F27" s="3">
-        <v>-25800</v>
+        <v>-39400</v>
       </c>
       <c r="G27" s="3">
-        <v>-31300</v>
+        <v>-25900</v>
       </c>
       <c r="H27" s="3">
-        <v>-36800</v>
+        <v>-31400</v>
       </c>
       <c r="I27" s="3">
-        <v>-13300</v>
+        <v>-37000</v>
       </c>
       <c r="J27" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-15500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8900</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-133500</v>
+        <v>-68400</v>
       </c>
       <c r="E33" s="3">
-        <v>-39200</v>
+        <v>-134100</v>
       </c>
       <c r="F33" s="3">
-        <v>-25800</v>
+        <v>-39400</v>
       </c>
       <c r="G33" s="3">
-        <v>-31300</v>
+        <v>-25900</v>
       </c>
       <c r="H33" s="3">
-        <v>-36800</v>
+        <v>-31400</v>
       </c>
       <c r="I33" s="3">
-        <v>-13300</v>
+        <v>-37000</v>
       </c>
       <c r="J33" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-15500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-133500</v>
+        <v>-68400</v>
       </c>
       <c r="E35" s="3">
-        <v>-39200</v>
+        <v>-134100</v>
       </c>
       <c r="F35" s="3">
-        <v>-25800</v>
+        <v>-39400</v>
       </c>
       <c r="G35" s="3">
-        <v>-31300</v>
+        <v>-25900</v>
       </c>
       <c r="H35" s="3">
-        <v>-36800</v>
+        <v>-31400</v>
       </c>
       <c r="I35" s="3">
-        <v>-13300</v>
+        <v>-37000</v>
       </c>
       <c r="J35" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-15500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,32 +2052,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>93100</v>
+      </c>
+      <c r="E41" s="3">
         <v>11900</v>
       </c>
-      <c r="E41" s="3">
-        <v>19100</v>
-      </c>
       <c r="F41" s="3">
-        <v>19500</v>
+        <v>19200</v>
       </c>
       <c r="G41" s="3">
-        <v>26400</v>
+        <v>19600</v>
       </c>
       <c r="H41" s="3">
-        <v>8300</v>
+        <v>26500</v>
       </c>
       <c r="I41" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J41" s="3">
         <v>8000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,31 +2097,34 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>160500</v>
+        <v>89400</v>
       </c>
       <c r="E42" s="3">
-        <v>253300</v>
+        <v>161200</v>
       </c>
       <c r="F42" s="3">
-        <v>235600</v>
+        <v>254400</v>
       </c>
       <c r="G42" s="3">
-        <v>220100</v>
+        <v>236600</v>
       </c>
       <c r="H42" s="3">
-        <v>16000</v>
+        <v>221100</v>
       </c>
       <c r="I42" s="3">
-        <v>37800</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>16100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>38000</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -2055,31 +2144,34 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>51700</v>
+        <v>41700</v>
       </c>
       <c r="E43" s="3">
-        <v>36000</v>
+        <v>52000</v>
       </c>
       <c r="F43" s="3">
-        <v>35800</v>
+        <v>36200</v>
       </c>
       <c r="G43" s="3">
-        <v>32800</v>
+        <v>35900</v>
       </c>
       <c r="H43" s="3">
-        <v>27400</v>
+        <v>32900</v>
       </c>
       <c r="I43" s="3">
-        <v>31000</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>27600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>31100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2099,32 +2191,35 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E44" s="3">
         <v>14000</v>
       </c>
-      <c r="E44" s="3">
-        <v>14100</v>
-      </c>
       <c r="F44" s="3">
-        <v>10000</v>
+        <v>14200</v>
       </c>
       <c r="G44" s="3">
-        <v>11100</v>
+        <v>10100</v>
       </c>
       <c r="H44" s="3">
-        <v>8000</v>
+        <v>11200</v>
       </c>
       <c r="I44" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J44" s="3">
         <v>5000</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2143,32 +2238,35 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30500</v>
+        <v>36000</v>
       </c>
       <c r="E45" s="3">
+        <v>30600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>18200</v>
+      </c>
+      <c r="G45" s="3">
         <v>18100</v>
       </c>
-      <c r="F45" s="3">
-        <v>18000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>18400</v>
-      </c>
       <c r="H45" s="3">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="I45" s="3">
+        <v>16100</v>
+      </c>
+      <c r="J45" s="3">
         <v>11300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,31 +2285,34 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>268600</v>
+        <v>282900</v>
       </c>
       <c r="E46" s="3">
-        <v>340600</v>
+        <v>269700</v>
       </c>
       <c r="F46" s="3">
-        <v>318900</v>
+        <v>342100</v>
       </c>
       <c r="G46" s="3">
-        <v>308800</v>
+        <v>320300</v>
       </c>
       <c r="H46" s="3">
-        <v>75900</v>
+        <v>310100</v>
       </c>
       <c r="I46" s="3">
-        <v>93000</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>76200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>93400</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,32 +2379,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18700</v>
+        <v>23100</v>
       </c>
       <c r="E48" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F48" s="3">
         <v>12300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>7300</v>
       </c>
       <c r="G48" s="3">
         <v>7400</v>
       </c>
       <c r="H48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I48" s="3">
         <v>6000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,31 +2567,34 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E52" s="3">
         <v>4100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>800</v>
       </c>
       <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>800</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,31 +2661,34 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>291300</v>
+        <v>316300</v>
       </c>
       <c r="E54" s="3">
-        <v>356200</v>
+        <v>292600</v>
       </c>
       <c r="F54" s="3">
-        <v>328300</v>
+        <v>357800</v>
       </c>
       <c r="G54" s="3">
-        <v>317400</v>
+        <v>329700</v>
       </c>
       <c r="H54" s="3">
-        <v>82700</v>
+        <v>318800</v>
       </c>
       <c r="I54" s="3">
-        <v>97300</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>83100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>97700</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,32 +2748,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18100</v>
+        <v>21600</v>
       </c>
       <c r="E57" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F57" s="3">
         <v>15700</v>
       </c>
-      <c r="F57" s="3">
-        <v>14400</v>
-      </c>
       <c r="G57" s="3">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="H57" s="3">
-        <v>7100</v>
+        <v>9600</v>
       </c>
       <c r="I57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J57" s="3">
         <v>5300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,31 +2793,34 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>133600</v>
+        <v>134100</v>
       </c>
       <c r="E58" s="3">
-        <v>133600</v>
+        <v>134100</v>
       </c>
       <c r="F58" s="3">
-        <v>133600</v>
+        <v>134100</v>
       </c>
       <c r="G58" s="3">
-        <v>133600</v>
+        <v>134100</v>
       </c>
       <c r="H58" s="3">
-        <v>133600</v>
+        <v>134100</v>
       </c>
       <c r="I58" s="3">
-        <v>133600</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>134100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>134100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2707,31 +2840,34 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>276800</v>
+        <v>362700</v>
       </c>
       <c r="E59" s="3">
-        <v>211300</v>
+        <v>278000</v>
       </c>
       <c r="F59" s="3">
-        <v>152500</v>
+        <v>212200</v>
       </c>
       <c r="G59" s="3">
-        <v>124400</v>
+        <v>153200</v>
       </c>
       <c r="H59" s="3">
-        <v>92700</v>
+        <v>125000</v>
       </c>
       <c r="I59" s="3">
-        <v>76600</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>93100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>76900</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2751,31 +2887,34 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>428500</v>
+        <v>518500</v>
       </c>
       <c r="E60" s="3">
-        <v>360500</v>
+        <v>430400</v>
       </c>
       <c r="F60" s="3">
-        <v>300500</v>
+        <v>362100</v>
       </c>
       <c r="G60" s="3">
-        <v>267500</v>
+        <v>301800</v>
       </c>
       <c r="H60" s="3">
-        <v>233400</v>
+        <v>268700</v>
       </c>
       <c r="I60" s="3">
-        <v>215500</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>234400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>216400</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2795,8 +2934,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,29 +2981,32 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E62" s="3">
         <v>10600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2874,8 +3019,8 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,31 +3169,34 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>439300</v>
+        <v>531400</v>
       </c>
       <c r="E66" s="3">
-        <v>367300</v>
+        <v>441200</v>
       </c>
       <c r="F66" s="3">
-        <v>304500</v>
+        <v>368900</v>
       </c>
       <c r="G66" s="3">
-        <v>271700</v>
+        <v>305800</v>
       </c>
       <c r="H66" s="3">
-        <v>235800</v>
+        <v>272900</v>
       </c>
       <c r="I66" s="3">
-        <v>215700</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>236800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>216600</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3183,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>73300</v>
+        <v>75300</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>73600</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3423,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3267,17 +3440,17 @@
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="3">
-        <v>-291800</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-223700</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-293100</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-224700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,31 +3611,34 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-147900</v>
+        <v>-215100</v>
       </c>
       <c r="E76" s="3">
+        <v>-148600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-11100</v>
       </c>
-      <c r="F76" s="3">
-        <v>23800</v>
-      </c>
       <c r="G76" s="3">
-        <v>45600</v>
+        <v>23900</v>
       </c>
       <c r="H76" s="3">
-        <v>-228000</v>
+        <v>45800</v>
       </c>
       <c r="I76" s="3">
-        <v>-191700</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-229000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-192500</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-133500</v>
+        <v>-68400</v>
       </c>
       <c r="E81" s="3">
-        <v>-39200</v>
+        <v>-134100</v>
       </c>
       <c r="F81" s="3">
-        <v>-25800</v>
+        <v>-39400</v>
       </c>
       <c r="G81" s="3">
-        <v>-31300</v>
+        <v>-25900</v>
       </c>
       <c r="H81" s="3">
-        <v>-36800</v>
+        <v>-31400</v>
       </c>
       <c r="I81" s="3">
-        <v>-13300</v>
+        <v>-37000</v>
       </c>
       <c r="J81" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-15500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,20 +3835,20 @@
         <v>700</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
       </c>
       <c r="H83" s="3">
+        <v>500</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3861,8 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,29 +4105,32 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>90300</v>
+        <v>19700</v>
       </c>
       <c r="E89" s="3">
+        <v>90700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>21800</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="I89" s="3">
         <v>21700</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-47700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>21600</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3927,8 +4143,8 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,19 +4173,20 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-700</v>
       </c>
       <c r="G91" s="3">
         <v>-700</v>
@@ -3974,8 +4194,8 @@
       <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-700</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3989,8 +4209,8 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>169100</v>
+        <v>209000</v>
       </c>
       <c r="E8" s="3">
-        <v>136900</v>
+        <v>172700</v>
       </c>
       <c r="F8" s="3">
-        <v>95200</v>
+        <v>139800</v>
       </c>
       <c r="G8" s="3">
-        <v>82700</v>
+        <v>97200</v>
       </c>
       <c r="H8" s="3">
-        <v>62700</v>
+        <v>84500</v>
       </c>
       <c r="I8" s="3">
-        <v>52800</v>
+        <v>64000</v>
       </c>
       <c r="J8" s="3">
+        <v>54000</v>
+      </c>
+      <c r="K8" s="3">
         <v>49300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19300</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>88800</v>
+        <v>89300</v>
       </c>
       <c r="E9" s="3">
-        <v>74000</v>
+        <v>90700</v>
       </c>
       <c r="F9" s="3">
-        <v>52200</v>
+        <v>75600</v>
       </c>
       <c r="G9" s="3">
-        <v>46700</v>
+        <v>53300</v>
       </c>
       <c r="H9" s="3">
-        <v>44000</v>
+        <v>47700</v>
       </c>
       <c r="I9" s="3">
-        <v>39200</v>
+        <v>44900</v>
       </c>
       <c r="J9" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K9" s="3">
         <v>33100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13900</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>80300</v>
+        <v>119700</v>
       </c>
       <c r="E10" s="3">
-        <v>62900</v>
+        <v>82000</v>
       </c>
       <c r="F10" s="3">
-        <v>43000</v>
+        <v>64200</v>
       </c>
       <c r="G10" s="3">
-        <v>36000</v>
+        <v>43900</v>
       </c>
       <c r="H10" s="3">
-        <v>18700</v>
+        <v>36800</v>
       </c>
       <c r="I10" s="3">
-        <v>13600</v>
+        <v>19100</v>
       </c>
       <c r="J10" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K10" s="3">
         <v>16200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>19600</v>
+        <v>24200</v>
       </c>
       <c r="E12" s="3">
-        <v>18500</v>
+        <v>20000</v>
       </c>
       <c r="F12" s="3">
-        <v>14000</v>
+        <v>18900</v>
       </c>
       <c r="G12" s="3">
-        <v>12800</v>
+        <v>14300</v>
       </c>
       <c r="H12" s="3">
-        <v>13600</v>
+        <v>13100</v>
       </c>
       <c r="I12" s="3">
-        <v>11400</v>
+        <v>13900</v>
       </c>
       <c r="J12" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K12" s="3">
         <v>8600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6100</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>238300</v>
+        <v>259100</v>
       </c>
       <c r="E17" s="3">
-        <v>273500</v>
+        <v>243300</v>
       </c>
       <c r="F17" s="3">
-        <v>138500</v>
+        <v>279300</v>
       </c>
       <c r="G17" s="3">
-        <v>109600</v>
+        <v>141400</v>
       </c>
       <c r="H17" s="3">
-        <v>93900</v>
+        <v>111900</v>
       </c>
       <c r="I17" s="3">
-        <v>88700</v>
+        <v>95900</v>
       </c>
       <c r="J17" s="3">
+        <v>90600</v>
+      </c>
+      <c r="K17" s="3">
         <v>62000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>46400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>40700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>31300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-69200</v>
+        <v>-50100</v>
       </c>
       <c r="E18" s="3">
-        <v>-136600</v>
+        <v>-70600</v>
       </c>
       <c r="F18" s="3">
-        <v>-43200</v>
+        <v>-139500</v>
       </c>
       <c r="G18" s="3">
-        <v>-26900</v>
+        <v>-44200</v>
       </c>
       <c r="H18" s="3">
-        <v>-31200</v>
+        <v>-27500</v>
       </c>
       <c r="I18" s="3">
-        <v>-35900</v>
+        <v>-31800</v>
       </c>
       <c r="J18" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-12700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,78 +1244,82 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
-        <v>3800</v>
-      </c>
       <c r="G20" s="3">
-        <v>1300</v>
+        <v>3900</v>
       </c>
       <c r="H20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>700</v>
-      </c>
       <c r="J20" s="3">
+        <v>800</v>
+      </c>
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-67600</v>
+        <v>-48700</v>
       </c>
       <c r="E21" s="3">
-        <v>-133500</v>
+        <v>-69100</v>
       </c>
       <c r="F21" s="3">
-        <v>-38800</v>
+        <v>-136300</v>
       </c>
       <c r="G21" s="3">
-        <v>-25000</v>
+        <v>-39700</v>
       </c>
       <c r="H21" s="3">
-        <v>-30500</v>
+        <v>-25600</v>
       </c>
       <c r="I21" s="3">
-        <v>-34700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-31200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-35400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1293,43 +1330,46 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1352,75 +1392,81 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-68400</v>
+        <v>-50700</v>
       </c>
       <c r="E23" s="3">
-        <v>-134100</v>
+        <v>-69800</v>
       </c>
       <c r="F23" s="3">
-        <v>-39400</v>
+        <v>-137000</v>
       </c>
       <c r="G23" s="3">
-        <v>-25600</v>
+        <v>-40200</v>
       </c>
       <c r="H23" s="3">
-        <v>-31000</v>
+        <v>-26100</v>
       </c>
       <c r="I23" s="3">
-        <v>-35100</v>
+        <v>-31700</v>
       </c>
       <c r="J23" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-11500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8500</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -1429,25 +1475,28 @@
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>500</v>
       </c>
       <c r="N24" s="3">
+        <v>500</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-68400</v>
+        <v>-51000</v>
       </c>
       <c r="E26" s="3">
-        <v>-134200</v>
+        <v>-69900</v>
       </c>
       <c r="F26" s="3">
-        <v>-39400</v>
+        <v>-137000</v>
       </c>
       <c r="G26" s="3">
-        <v>-25900</v>
+        <v>-40200</v>
       </c>
       <c r="H26" s="3">
-        <v>-31000</v>
+        <v>-26400</v>
       </c>
       <c r="I26" s="3">
-        <v>-35200</v>
+        <v>-31700</v>
       </c>
       <c r="J26" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-11600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-68400</v>
+        <v>-50800</v>
       </c>
       <c r="E27" s="3">
-        <v>-134100</v>
+        <v>-69900</v>
       </c>
       <c r="F27" s="3">
-        <v>-39400</v>
+        <v>-136900</v>
       </c>
       <c r="G27" s="3">
-        <v>-25900</v>
+        <v>-40200</v>
       </c>
       <c r="H27" s="3">
-        <v>-31400</v>
+        <v>-26400</v>
       </c>
       <c r="I27" s="3">
-        <v>-37000</v>
+        <v>-32100</v>
       </c>
       <c r="J27" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8900</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
-        <v>-3800</v>
-      </c>
       <c r="G32" s="3">
-        <v>-1300</v>
+        <v>-3900</v>
       </c>
       <c r="H32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>-700</v>
-      </c>
       <c r="J32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-68400</v>
+        <v>-50800</v>
       </c>
       <c r="E33" s="3">
-        <v>-134100</v>
+        <v>-69900</v>
       </c>
       <c r="F33" s="3">
-        <v>-39400</v>
+        <v>-136900</v>
       </c>
       <c r="G33" s="3">
-        <v>-25900</v>
+        <v>-40200</v>
       </c>
       <c r="H33" s="3">
-        <v>-31400</v>
+        <v>-26400</v>
       </c>
       <c r="I33" s="3">
-        <v>-37000</v>
+        <v>-32100</v>
       </c>
       <c r="J33" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-68400</v>
+        <v>-50800</v>
       </c>
       <c r="E35" s="3">
-        <v>-134100</v>
+        <v>-69900</v>
       </c>
       <c r="F35" s="3">
-        <v>-39400</v>
+        <v>-136900</v>
       </c>
       <c r="G35" s="3">
-        <v>-25900</v>
+        <v>-40200</v>
       </c>
       <c r="H35" s="3">
-        <v>-31400</v>
+        <v>-26400</v>
       </c>
       <c r="I35" s="3">
-        <v>-37000</v>
+        <v>-32100</v>
       </c>
       <c r="J35" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,35 +2139,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>93100</v>
+        <v>288400</v>
       </c>
       <c r="E41" s="3">
-        <v>11900</v>
+        <v>95000</v>
       </c>
       <c r="F41" s="3">
-        <v>19200</v>
+        <v>12200</v>
       </c>
       <c r="G41" s="3">
         <v>19600</v>
       </c>
       <c r="H41" s="3">
-        <v>26500</v>
+        <v>20000</v>
       </c>
       <c r="I41" s="3">
-        <v>8400</v>
+        <v>27000</v>
       </c>
       <c r="J41" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K41" s="3">
         <v>8000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,35 +2187,38 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>89400</v>
+        <v>52700</v>
       </c>
       <c r="E42" s="3">
-        <v>161200</v>
+        <v>91300</v>
       </c>
       <c r="F42" s="3">
-        <v>254400</v>
+        <v>164600</v>
       </c>
       <c r="G42" s="3">
-        <v>236600</v>
+        <v>259800</v>
       </c>
       <c r="H42" s="3">
-        <v>221100</v>
+        <v>241600</v>
       </c>
       <c r="I42" s="3">
-        <v>16100</v>
+        <v>225700</v>
       </c>
       <c r="J42" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K42" s="3">
         <v>38000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2147,35 +2237,38 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>41700</v>
+        <v>39300</v>
       </c>
       <c r="E43" s="3">
-        <v>52000</v>
+        <v>42600</v>
       </c>
       <c r="F43" s="3">
-        <v>36200</v>
+        <v>53100</v>
       </c>
       <c r="G43" s="3">
-        <v>35900</v>
+        <v>36900</v>
       </c>
       <c r="H43" s="3">
-        <v>32900</v>
+        <v>36700</v>
       </c>
       <c r="I43" s="3">
-        <v>27600</v>
+        <v>33600</v>
       </c>
       <c r="J43" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K43" s="3">
         <v>31100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,35 +2287,38 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22700</v>
+        <v>41900</v>
       </c>
       <c r="E44" s="3">
-        <v>14000</v>
+        <v>23200</v>
       </c>
       <c r="F44" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="G44" s="3">
-        <v>10100</v>
+        <v>14500</v>
       </c>
       <c r="H44" s="3">
-        <v>11200</v>
+        <v>10300</v>
       </c>
       <c r="I44" s="3">
-        <v>8100</v>
+        <v>11400</v>
       </c>
       <c r="J44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K44" s="3">
         <v>5000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,35 +2337,38 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36000</v>
+        <v>30900</v>
       </c>
       <c r="E45" s="3">
-        <v>30600</v>
+        <v>36700</v>
       </c>
       <c r="F45" s="3">
-        <v>18200</v>
+        <v>31300</v>
       </c>
       <c r="G45" s="3">
-        <v>18100</v>
+        <v>18600</v>
       </c>
       <c r="H45" s="3">
         <v>18500</v>
       </c>
       <c r="I45" s="3">
-        <v>16100</v>
+        <v>18900</v>
       </c>
       <c r="J45" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K45" s="3">
         <v>11300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,35 +2387,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>282900</v>
+        <v>453200</v>
       </c>
       <c r="E46" s="3">
-        <v>269700</v>
+        <v>288900</v>
       </c>
       <c r="F46" s="3">
-        <v>342100</v>
+        <v>275400</v>
       </c>
       <c r="G46" s="3">
-        <v>320300</v>
+        <v>349300</v>
       </c>
       <c r="H46" s="3">
-        <v>310100</v>
+        <v>327100</v>
       </c>
       <c r="I46" s="3">
-        <v>76200</v>
+        <v>316700</v>
       </c>
       <c r="J46" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K46" s="3">
         <v>93400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,31 +2437,34 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>6600</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2382,35 +2487,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23100</v>
+        <v>23500</v>
       </c>
       <c r="E48" s="3">
-        <v>18800</v>
+        <v>23600</v>
       </c>
       <c r="F48" s="3">
-        <v>12300</v>
+        <v>19200</v>
       </c>
       <c r="G48" s="3">
-        <v>7400</v>
+        <v>12600</v>
       </c>
       <c r="H48" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="I48" s="3">
-        <v>6000</v>
+        <v>7600</v>
       </c>
       <c r="J48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,35 +2687,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10300</v>
+        <v>12300</v>
       </c>
       <c r="E52" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G52" s="3">
         <v>3400</v>
       </c>
-      <c r="G52" s="3">
-        <v>2000</v>
-      </c>
       <c r="H52" s="3">
-        <v>1200</v>
+        <v>2100</v>
       </c>
       <c r="I52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>900</v>
+      </c>
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
-        <v>800</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,35 +2787,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>316300</v>
+        <v>489000</v>
       </c>
       <c r="E54" s="3">
-        <v>292600</v>
+        <v>323000</v>
       </c>
       <c r="F54" s="3">
-        <v>357800</v>
+        <v>298800</v>
       </c>
       <c r="G54" s="3">
-        <v>329700</v>
+        <v>365300</v>
       </c>
       <c r="H54" s="3">
-        <v>318800</v>
+        <v>336700</v>
       </c>
       <c r="I54" s="3">
-        <v>83100</v>
+        <v>325500</v>
       </c>
       <c r="J54" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K54" s="3">
         <v>97700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,35 +2879,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21600</v>
+        <v>19600</v>
       </c>
       <c r="E57" s="3">
-        <v>18200</v>
+        <v>22000</v>
       </c>
       <c r="F57" s="3">
-        <v>15700</v>
+        <v>18600</v>
       </c>
       <c r="G57" s="3">
-        <v>14500</v>
+        <v>16100</v>
       </c>
       <c r="H57" s="3">
-        <v>9600</v>
+        <v>14800</v>
       </c>
       <c r="I57" s="3">
-        <v>7200</v>
+        <v>9800</v>
       </c>
       <c r="J57" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K57" s="3">
         <v>5300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,35 +2927,38 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>137000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>137000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>137000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>137000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>137000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>137000</v>
+      </c>
+      <c r="K58" s="3">
         <v>134100</v>
       </c>
-      <c r="E58" s="3">
-        <v>134100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>134100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>134100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>134100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>134100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>134100</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,35 +2977,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>362700</v>
+        <v>350300</v>
       </c>
       <c r="E59" s="3">
-        <v>278000</v>
+        <v>370400</v>
       </c>
       <c r="F59" s="3">
-        <v>212200</v>
+        <v>283900</v>
       </c>
       <c r="G59" s="3">
-        <v>153200</v>
+        <v>216700</v>
       </c>
       <c r="H59" s="3">
-        <v>125000</v>
+        <v>156400</v>
       </c>
       <c r="I59" s="3">
-        <v>93100</v>
+        <v>127600</v>
       </c>
       <c r="J59" s="3">
+        <v>95100</v>
+      </c>
+      <c r="K59" s="3">
         <v>76900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,35 +3027,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>518500</v>
+        <v>506800</v>
       </c>
       <c r="E60" s="3">
-        <v>430400</v>
+        <v>529400</v>
       </c>
       <c r="F60" s="3">
-        <v>362100</v>
+        <v>439500</v>
       </c>
       <c r="G60" s="3">
-        <v>301800</v>
+        <v>369700</v>
       </c>
       <c r="H60" s="3">
-        <v>268700</v>
+        <v>308200</v>
       </c>
       <c r="I60" s="3">
-        <v>234400</v>
+        <v>274400</v>
       </c>
       <c r="J60" s="3">
+        <v>239400</v>
+      </c>
+      <c r="K60" s="3">
         <v>216400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,32 +3127,35 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="E62" s="3">
-        <v>10600</v>
+        <v>13100</v>
       </c>
       <c r="F62" s="3">
-        <v>6600</v>
+        <v>10900</v>
       </c>
       <c r="G62" s="3">
-        <v>3800</v>
+        <v>6700</v>
       </c>
       <c r="H62" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="I62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3022,8 +3168,8 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,35 +3327,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>531400</v>
+        <v>519000</v>
       </c>
       <c r="E66" s="3">
-        <v>441200</v>
+        <v>542700</v>
       </c>
       <c r="F66" s="3">
-        <v>368900</v>
+        <v>450500</v>
       </c>
       <c r="G66" s="3">
-        <v>305800</v>
+        <v>376700</v>
       </c>
       <c r="H66" s="3">
-        <v>272900</v>
+        <v>312300</v>
       </c>
       <c r="I66" s="3">
-        <v>236800</v>
+        <v>278700</v>
       </c>
       <c r="J66" s="3">
+        <v>241800</v>
+      </c>
+      <c r="K66" s="3">
         <v>216600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3353,14 +3521,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>75300</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>76900</v>
+      </c>
+      <c r="K70" s="3">
         <v>73600</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,16 +3597,19 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+      <c r="E72" s="3">
+        <v>-572700</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -3443,18 +3617,18 @@
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H72" s="3">
-        <v>-293100</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-299300</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>-224700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,35 +3797,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-215100</v>
+        <v>-30000</v>
       </c>
       <c r="E76" s="3">
-        <v>-148600</v>
+        <v>-219700</v>
       </c>
       <c r="F76" s="3">
-        <v>-11100</v>
+        <v>-151700</v>
       </c>
       <c r="G76" s="3">
-        <v>23900</v>
+        <v>-11400</v>
       </c>
       <c r="H76" s="3">
-        <v>45800</v>
+        <v>24400</v>
       </c>
       <c r="I76" s="3">
-        <v>-229000</v>
+        <v>46800</v>
       </c>
       <c r="J76" s="3">
+        <v>-233800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-192500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-68400</v>
+        <v>-50800</v>
       </c>
       <c r="E81" s="3">
-        <v>-134100</v>
+        <v>-69900</v>
       </c>
       <c r="F81" s="3">
-        <v>-39400</v>
+        <v>-136900</v>
       </c>
       <c r="G81" s="3">
-        <v>-25900</v>
+        <v>-40200</v>
       </c>
       <c r="H81" s="3">
-        <v>-31400</v>
+        <v>-26400</v>
       </c>
       <c r="I81" s="3">
-        <v>-37000</v>
+        <v>-32100</v>
       </c>
       <c r="J81" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,32 +4024,33 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E83" s="3">
         <v>700</v>
       </c>
       <c r="F83" s="3">
+        <v>700</v>
+      </c>
+      <c r="G83" s="3">
         <v>600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
       </c>
       <c r="I83" s="3">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3864,8 +4063,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,31 +4322,34 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19700</v>
+        <v>80800</v>
       </c>
       <c r="E89" s="3">
-        <v>90700</v>
+        <v>-165000</v>
       </c>
       <c r="F89" s="3">
-        <v>21800</v>
+        <v>92600</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>22300</v>
       </c>
       <c r="H89" s="3">
-        <v>-47900</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>21700</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-48900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>22200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -4146,8 +4363,8 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,19 +4394,20 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2400</v>
+        <v>-1800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1800</v>
+        <v>-2500</v>
       </c>
       <c r="F91" s="3">
-        <v>-600</v>
+        <v>-1900</v>
       </c>
       <c r="G91" s="3">
         <v>-700</v>
@@ -4197,8 +4418,8 @@
       <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>-700</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -4212,8 +4433,8 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>209000</v>
+        <v>206300</v>
       </c>
       <c r="E8" s="3">
-        <v>172700</v>
+        <v>170400</v>
       </c>
       <c r="F8" s="3">
-        <v>139800</v>
+        <v>138000</v>
       </c>
       <c r="G8" s="3">
-        <v>97200</v>
+        <v>96000</v>
       </c>
       <c r="H8" s="3">
-        <v>84500</v>
+        <v>83400</v>
       </c>
       <c r="I8" s="3">
-        <v>64000</v>
+        <v>63200</v>
       </c>
       <c r="J8" s="3">
-        <v>54000</v>
+        <v>53300</v>
       </c>
       <c r="K8" s="3">
         <v>49300</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>89300</v>
+        <v>88100</v>
       </c>
       <c r="E9" s="3">
-        <v>90700</v>
+        <v>89500</v>
       </c>
       <c r="F9" s="3">
-        <v>75600</v>
+        <v>74600</v>
       </c>
       <c r="G9" s="3">
-        <v>53300</v>
+        <v>52600</v>
       </c>
       <c r="H9" s="3">
-        <v>47700</v>
+        <v>47100</v>
       </c>
       <c r="I9" s="3">
-        <v>44900</v>
+        <v>44300</v>
       </c>
       <c r="J9" s="3">
-        <v>40000</v>
+        <v>39500</v>
       </c>
       <c r="K9" s="3">
         <v>33100</v>
@@ -844,25 +844,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>119700</v>
+        <v>118200</v>
       </c>
       <c r="E10" s="3">
-        <v>82000</v>
+        <v>80900</v>
       </c>
       <c r="F10" s="3">
-        <v>64200</v>
+        <v>63400</v>
       </c>
       <c r="G10" s="3">
-        <v>43900</v>
+        <v>43400</v>
       </c>
       <c r="H10" s="3">
-        <v>36800</v>
+        <v>36300</v>
       </c>
       <c r="I10" s="3">
-        <v>19100</v>
+        <v>18800</v>
       </c>
       <c r="J10" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="K10" s="3">
         <v>16200</v>
@@ -914,25 +914,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>24200</v>
+        <v>23900</v>
       </c>
       <c r="E12" s="3">
-        <v>20000</v>
+        <v>19700</v>
       </c>
       <c r="F12" s="3">
-        <v>18900</v>
+        <v>18600</v>
       </c>
       <c r="G12" s="3">
-        <v>14300</v>
+        <v>14100</v>
       </c>
       <c r="H12" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="I12" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="J12" s="3">
-        <v>11700</v>
+        <v>11500</v>
       </c>
       <c r="K12" s="3">
         <v>8600</v>
@@ -1131,25 +1131,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>259100</v>
+        <v>255700</v>
       </c>
       <c r="E17" s="3">
-        <v>243300</v>
+        <v>240100</v>
       </c>
       <c r="F17" s="3">
-        <v>279300</v>
+        <v>275600</v>
       </c>
       <c r="G17" s="3">
-        <v>141400</v>
+        <v>139600</v>
       </c>
       <c r="H17" s="3">
-        <v>111900</v>
+        <v>110500</v>
       </c>
       <c r="I17" s="3">
-        <v>95900</v>
+        <v>94600</v>
       </c>
       <c r="J17" s="3">
-        <v>90600</v>
+        <v>89400</v>
       </c>
       <c r="K17" s="3">
         <v>62000</v>
@@ -1181,25 +1181,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-50100</v>
+        <v>-49400</v>
       </c>
       <c r="E18" s="3">
-        <v>-70600</v>
+        <v>-69700</v>
       </c>
       <c r="F18" s="3">
-        <v>-139500</v>
+        <v>-137700</v>
       </c>
       <c r="G18" s="3">
-        <v>-44200</v>
+        <v>-43600</v>
       </c>
       <c r="H18" s="3">
-        <v>-27500</v>
+        <v>-27100</v>
       </c>
       <c r="I18" s="3">
-        <v>-31800</v>
+        <v>-31400</v>
       </c>
       <c r="J18" s="3">
-        <v>-36600</v>
+        <v>-36100</v>
       </c>
       <c r="K18" s="3">
         <v>-12700</v>
@@ -1263,7 +1263,7 @@
         <v>3900</v>
       </c>
       <c r="H20" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
@@ -1301,25 +1301,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-48700</v>
+        <v>-48000</v>
       </c>
       <c r="E21" s="3">
-        <v>-69100</v>
+        <v>-68200</v>
       </c>
       <c r="F21" s="3">
-        <v>-136300</v>
+        <v>-134500</v>
       </c>
       <c r="G21" s="3">
-        <v>-39700</v>
+        <v>-39100</v>
       </c>
       <c r="H21" s="3">
-        <v>-25600</v>
+        <v>-25200</v>
       </c>
       <c r="I21" s="3">
-        <v>-31200</v>
+        <v>-30700</v>
       </c>
       <c r="J21" s="3">
-        <v>-35400</v>
+        <v>-35000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1401,25 +1401,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-50700</v>
+        <v>-50100</v>
       </c>
       <c r="E23" s="3">
-        <v>-69800</v>
+        <v>-68900</v>
       </c>
       <c r="F23" s="3">
-        <v>-137000</v>
+        <v>-135200</v>
       </c>
       <c r="G23" s="3">
-        <v>-40200</v>
+        <v>-39700</v>
       </c>
       <c r="H23" s="3">
-        <v>-26100</v>
+        <v>-25800</v>
       </c>
       <c r="I23" s="3">
-        <v>-31700</v>
+        <v>-31200</v>
       </c>
       <c r="J23" s="3">
-        <v>-35900</v>
+        <v>-35400</v>
       </c>
       <c r="K23" s="3">
         <v>-11500</v>
@@ -1451,7 +1451,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1551,25 +1551,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-51000</v>
+        <v>-50300</v>
       </c>
       <c r="E26" s="3">
-        <v>-69900</v>
+        <v>-69000</v>
       </c>
       <c r="F26" s="3">
-        <v>-137000</v>
+        <v>-135200</v>
       </c>
       <c r="G26" s="3">
-        <v>-40200</v>
+        <v>-39700</v>
       </c>
       <c r="H26" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="I26" s="3">
-        <v>-31700</v>
+        <v>-31200</v>
       </c>
       <c r="J26" s="3">
-        <v>-36000</v>
+        <v>-35500</v>
       </c>
       <c r="K26" s="3">
         <v>-11600</v>
@@ -1601,25 +1601,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-50800</v>
+        <v>-50200</v>
       </c>
       <c r="E27" s="3">
-        <v>-69900</v>
+        <v>-68900</v>
       </c>
       <c r="F27" s="3">
-        <v>-136900</v>
+        <v>-135200</v>
       </c>
       <c r="G27" s="3">
-        <v>-40200</v>
+        <v>-39700</v>
       </c>
       <c r="H27" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="I27" s="3">
-        <v>-32100</v>
+        <v>-31700</v>
       </c>
       <c r="J27" s="3">
-        <v>-37800</v>
+        <v>-37300</v>
       </c>
       <c r="K27" s="3">
         <v>-13400</v>
@@ -1863,7 +1863,7 @@
         <v>-3900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
@@ -1901,25 +1901,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-50800</v>
+        <v>-50200</v>
       </c>
       <c r="E33" s="3">
-        <v>-69900</v>
+        <v>-68900</v>
       </c>
       <c r="F33" s="3">
-        <v>-136900</v>
+        <v>-135200</v>
       </c>
       <c r="G33" s="3">
-        <v>-40200</v>
+        <v>-39700</v>
       </c>
       <c r="H33" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="I33" s="3">
-        <v>-32100</v>
+        <v>-31700</v>
       </c>
       <c r="J33" s="3">
-        <v>-37800</v>
+        <v>-37300</v>
       </c>
       <c r="K33" s="3">
         <v>-13400</v>
@@ -2001,25 +2001,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-50800</v>
+        <v>-50200</v>
       </c>
       <c r="E35" s="3">
-        <v>-69900</v>
+        <v>-68900</v>
       </c>
       <c r="F35" s="3">
-        <v>-136900</v>
+        <v>-135200</v>
       </c>
       <c r="G35" s="3">
-        <v>-40200</v>
+        <v>-39700</v>
       </c>
       <c r="H35" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="I35" s="3">
-        <v>-32100</v>
+        <v>-31700</v>
       </c>
       <c r="J35" s="3">
-        <v>-37800</v>
+        <v>-37300</v>
       </c>
       <c r="K35" s="3">
         <v>-13400</v>
@@ -2146,25 +2146,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>288400</v>
+        <v>284700</v>
       </c>
       <c r="E41" s="3">
-        <v>95000</v>
+        <v>93800</v>
       </c>
       <c r="F41" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="G41" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="H41" s="3">
-        <v>20000</v>
+        <v>19800</v>
       </c>
       <c r="I41" s="3">
-        <v>27000</v>
+        <v>26700</v>
       </c>
       <c r="J41" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="K41" s="3">
         <v>8000</v>
@@ -2196,25 +2196,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>52700</v>
+        <v>52000</v>
       </c>
       <c r="E42" s="3">
-        <v>91300</v>
+        <v>90100</v>
       </c>
       <c r="F42" s="3">
-        <v>164600</v>
+        <v>162400</v>
       </c>
       <c r="G42" s="3">
-        <v>259800</v>
+        <v>256400</v>
       </c>
       <c r="H42" s="3">
-        <v>241600</v>
+        <v>238400</v>
       </c>
       <c r="I42" s="3">
-        <v>225700</v>
+        <v>222800</v>
       </c>
       <c r="J42" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="K42" s="3">
         <v>38000</v>
@@ -2246,25 +2246,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>39300</v>
+        <v>38800</v>
       </c>
       <c r="E43" s="3">
-        <v>42600</v>
+        <v>42000</v>
       </c>
       <c r="F43" s="3">
-        <v>53100</v>
+        <v>52400</v>
       </c>
       <c r="G43" s="3">
-        <v>36900</v>
+        <v>36400</v>
       </c>
       <c r="H43" s="3">
-        <v>36700</v>
+        <v>36200</v>
       </c>
       <c r="I43" s="3">
-        <v>33600</v>
+        <v>33200</v>
       </c>
       <c r="J43" s="3">
-        <v>28100</v>
+        <v>27800</v>
       </c>
       <c r="K43" s="3">
         <v>31100</v>
@@ -2296,25 +2296,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>41900</v>
+        <v>41300</v>
       </c>
       <c r="E44" s="3">
-        <v>23200</v>
+        <v>22900</v>
       </c>
       <c r="F44" s="3">
+        <v>14200</v>
+      </c>
+      <c r="G44" s="3">
         <v>14300</v>
       </c>
-      <c r="G44" s="3">
-        <v>14500</v>
-      </c>
       <c r="H44" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="I44" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="J44" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="K44" s="3">
         <v>5000</v>
@@ -2346,25 +2346,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>36300</v>
+      </c>
+      <c r="F45" s="3">
         <v>30900</v>
       </c>
-      <c r="E45" s="3">
-        <v>36700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>31300</v>
-      </c>
       <c r="G45" s="3">
+        <v>18300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>18300</v>
+      </c>
+      <c r="I45" s="3">
         <v>18600</v>
       </c>
-      <c r="H45" s="3">
-        <v>18500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>18900</v>
-      </c>
       <c r="J45" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="K45" s="3">
         <v>11300</v>
@@ -2396,25 +2396,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>453200</v>
+        <v>447300</v>
       </c>
       <c r="E46" s="3">
-        <v>288900</v>
+        <v>285100</v>
       </c>
       <c r="F46" s="3">
-        <v>275400</v>
+        <v>271800</v>
       </c>
       <c r="G46" s="3">
-        <v>349300</v>
+        <v>344800</v>
       </c>
       <c r="H46" s="3">
-        <v>327100</v>
+        <v>322800</v>
       </c>
       <c r="I46" s="3">
-        <v>316700</v>
+        <v>312600</v>
       </c>
       <c r="J46" s="3">
-        <v>77800</v>
+        <v>76800</v>
       </c>
       <c r="K46" s="3">
         <v>93400</v>
@@ -2449,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -2496,25 +2496,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23500</v>
+        <v>23200</v>
       </c>
       <c r="E48" s="3">
-        <v>23600</v>
+        <v>23300</v>
       </c>
       <c r="F48" s="3">
-        <v>19200</v>
+        <v>18900</v>
       </c>
       <c r="G48" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="H48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I48" s="3">
         <v>7500</v>
       </c>
-      <c r="I48" s="3">
-        <v>7600</v>
-      </c>
       <c r="J48" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="K48" s="3">
         <v>3500</v>
@@ -2696,25 +2696,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="E52" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F52" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="G52" s="3">
         <v>3400</v>
       </c>
       <c r="H52" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I52" s="3">
         <v>1300</v>
       </c>
       <c r="J52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K52" s="3">
         <v>800</v>
@@ -2796,25 +2796,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>489000</v>
+        <v>482700</v>
       </c>
       <c r="E54" s="3">
-        <v>323000</v>
+        <v>318800</v>
       </c>
       <c r="F54" s="3">
-        <v>298800</v>
+        <v>294900</v>
       </c>
       <c r="G54" s="3">
-        <v>365300</v>
+        <v>360600</v>
       </c>
       <c r="H54" s="3">
-        <v>336700</v>
+        <v>332300</v>
       </c>
       <c r="I54" s="3">
-        <v>325500</v>
+        <v>321300</v>
       </c>
       <c r="J54" s="3">
-        <v>84800</v>
+        <v>83700</v>
       </c>
       <c r="K54" s="3">
         <v>97700</v>
@@ -2886,25 +2886,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="E57" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="F57" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="G57" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="H57" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="I57" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="J57" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="K57" s="3">
         <v>5300</v>
@@ -2936,25 +2936,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>137000</v>
+        <v>135200</v>
       </c>
       <c r="E58" s="3">
-        <v>137000</v>
+        <v>135200</v>
       </c>
       <c r="F58" s="3">
-        <v>137000</v>
+        <v>135200</v>
       </c>
       <c r="G58" s="3">
-        <v>137000</v>
+        <v>135200</v>
       </c>
       <c r="H58" s="3">
-        <v>137000</v>
+        <v>135200</v>
       </c>
       <c r="I58" s="3">
-        <v>137000</v>
+        <v>135200</v>
       </c>
       <c r="J58" s="3">
-        <v>137000</v>
+        <v>135200</v>
       </c>
       <c r="K58" s="3">
         <v>134100</v>
@@ -2986,25 +2986,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>350300</v>
+        <v>345700</v>
       </c>
       <c r="E59" s="3">
-        <v>370400</v>
+        <v>365600</v>
       </c>
       <c r="F59" s="3">
-        <v>283900</v>
+        <v>280200</v>
       </c>
       <c r="G59" s="3">
-        <v>216700</v>
+        <v>213900</v>
       </c>
       <c r="H59" s="3">
-        <v>156400</v>
+        <v>154400</v>
       </c>
       <c r="I59" s="3">
-        <v>127600</v>
+        <v>126000</v>
       </c>
       <c r="J59" s="3">
-        <v>95100</v>
+        <v>93900</v>
       </c>
       <c r="K59" s="3">
         <v>76900</v>
@@ -3036,25 +3036,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>506800</v>
+        <v>500200</v>
       </c>
       <c r="E60" s="3">
-        <v>529400</v>
+        <v>522500</v>
       </c>
       <c r="F60" s="3">
-        <v>439500</v>
+        <v>433700</v>
       </c>
       <c r="G60" s="3">
-        <v>369700</v>
+        <v>364900</v>
       </c>
       <c r="H60" s="3">
-        <v>308200</v>
+        <v>304200</v>
       </c>
       <c r="I60" s="3">
-        <v>274400</v>
+        <v>270800</v>
       </c>
       <c r="J60" s="3">
-        <v>239400</v>
+        <v>236300</v>
       </c>
       <c r="K60" s="3">
         <v>216400</v>
@@ -3136,22 +3136,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="E62" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="F62" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="G62" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="H62" s="3">
         <v>3900</v>
       </c>
       <c r="I62" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="J62" s="3">
         <v>2100</v>
@@ -3336,25 +3336,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>519000</v>
+        <v>512300</v>
       </c>
       <c r="E66" s="3">
-        <v>542700</v>
+        <v>535600</v>
       </c>
       <c r="F66" s="3">
-        <v>450500</v>
+        <v>444700</v>
       </c>
       <c r="G66" s="3">
-        <v>376700</v>
+        <v>371800</v>
       </c>
       <c r="H66" s="3">
-        <v>312300</v>
+        <v>308200</v>
       </c>
       <c r="I66" s="3">
-        <v>278700</v>
+        <v>275100</v>
       </c>
       <c r="J66" s="3">
-        <v>241800</v>
+        <v>238600</v>
       </c>
       <c r="K66" s="3">
         <v>216600</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>76900</v>
+        <v>75900</v>
       </c>
       <c r="K70" s="3">
         <v>73600</v>
@@ -3609,7 +3609,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>-572700</v>
+        <v>-565300</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -3621,7 +3621,7 @@
         <v>3</v>
       </c>
       <c r="I72" s="3">
-        <v>-299300</v>
+        <v>-295400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3806,25 +3806,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-30000</v>
+        <v>-29600</v>
       </c>
       <c r="E76" s="3">
-        <v>-219700</v>
+        <v>-216800</v>
       </c>
       <c r="F76" s="3">
-        <v>-151700</v>
+        <v>-149800</v>
       </c>
       <c r="G76" s="3">
-        <v>-11400</v>
+        <v>-11200</v>
       </c>
       <c r="H76" s="3">
-        <v>24400</v>
+        <v>24100</v>
       </c>
       <c r="I76" s="3">
-        <v>46800</v>
+        <v>46200</v>
       </c>
       <c r="J76" s="3">
-        <v>-233800</v>
+        <v>-230800</v>
       </c>
       <c r="K76" s="3">
         <v>-192500</v>
@@ -3961,25 +3961,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-50800</v>
+        <v>-50200</v>
       </c>
       <c r="E81" s="3">
-        <v>-69900</v>
+        <v>-68900</v>
       </c>
       <c r="F81" s="3">
-        <v>-136900</v>
+        <v>-135200</v>
       </c>
       <c r="G81" s="3">
-        <v>-40200</v>
+        <v>-39700</v>
       </c>
       <c r="H81" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="I81" s="3">
-        <v>-32100</v>
+        <v>-31700</v>
       </c>
       <c r="J81" s="3">
-        <v>-37800</v>
+        <v>-37300</v>
       </c>
       <c r="K81" s="3">
         <v>-13400</v>
@@ -4331,25 +4331,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>80800</v>
+        <v>79700</v>
       </c>
       <c r="E89" s="3">
-        <v>-165000</v>
+        <v>-162900</v>
       </c>
       <c r="F89" s="3">
-        <v>92600</v>
+        <v>91400</v>
       </c>
       <c r="G89" s="3">
-        <v>22300</v>
+        <v>22000</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-48900</v>
+        <v>-48300</v>
       </c>
       <c r="J89" s="3">
-        <v>22200</v>
+        <v>21900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -4404,13 +4404,13 @@
         <v>-1800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="F91" s="3">
         <v>-1900</v>
       </c>
       <c r="G91" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="H91" s="3">
         <v>-700</v>

--- a/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>206300</v>
+        <v>217200</v>
       </c>
       <c r="E8" s="3">
-        <v>170400</v>
+        <v>202500</v>
       </c>
       <c r="F8" s="3">
-        <v>138000</v>
+        <v>209800</v>
       </c>
       <c r="G8" s="3">
-        <v>96000</v>
+        <v>173300</v>
       </c>
       <c r="H8" s="3">
-        <v>83400</v>
+        <v>140300</v>
       </c>
       <c r="I8" s="3">
+        <v>97600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K8" s="3">
         <v>63200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>53300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>49300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>34300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>33400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>25300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>27000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>19300</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>88100</v>
+        <v>94200</v>
       </c>
       <c r="E9" s="3">
-        <v>89500</v>
+        <v>96500</v>
       </c>
       <c r="F9" s="3">
-        <v>74600</v>
+        <v>89600</v>
       </c>
       <c r="G9" s="3">
-        <v>52600</v>
+        <v>91000</v>
       </c>
       <c r="H9" s="3">
-        <v>47100</v>
+        <v>75900</v>
       </c>
       <c r="I9" s="3">
+        <v>53500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K9" s="3">
         <v>44300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>39500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>33100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>26300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>23500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>19400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>17200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>13900</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>118200</v>
+        <v>123000</v>
       </c>
       <c r="E10" s="3">
-        <v>80900</v>
+        <v>106000</v>
       </c>
       <c r="F10" s="3">
-        <v>63400</v>
+        <v>120200</v>
       </c>
       <c r="G10" s="3">
-        <v>43400</v>
+        <v>82300</v>
       </c>
       <c r="H10" s="3">
-        <v>36300</v>
+        <v>64400</v>
       </c>
       <c r="I10" s="3">
+        <v>44100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>36900</v>
+      </c>
+      <c r="K10" s="3">
         <v>18800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>13700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>16200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>8000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>9900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>9800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>5400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +934,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>23900</v>
+        <v>30300</v>
       </c>
       <c r="E12" s="3">
-        <v>19700</v>
+        <v>28200</v>
       </c>
       <c r="F12" s="3">
-        <v>18600</v>
+        <v>24300</v>
       </c>
       <c r="G12" s="3">
-        <v>14100</v>
+        <v>20100</v>
       </c>
       <c r="H12" s="3">
-        <v>12900</v>
+        <v>18900</v>
       </c>
       <c r="I12" s="3">
+        <v>14300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K12" s="3">
         <v>13700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>11500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>8600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>8300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>7300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>5400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>6100</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>255700</v>
+        <v>237400</v>
       </c>
       <c r="E17" s="3">
-        <v>240100</v>
+        <v>287700</v>
       </c>
       <c r="F17" s="3">
-        <v>275600</v>
+        <v>260000</v>
       </c>
       <c r="G17" s="3">
-        <v>139600</v>
+        <v>244200</v>
       </c>
       <c r="H17" s="3">
-        <v>110500</v>
+        <v>280200</v>
       </c>
       <c r="I17" s="3">
+        <v>141900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>112300</v>
+      </c>
+      <c r="K17" s="3">
         <v>94600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>89400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>62000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>46400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>40700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>37800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>31300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>26700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-49400</v>
+        <v>-20200</v>
       </c>
       <c r="E18" s="3">
-        <v>-69700</v>
+        <v>-85200</v>
       </c>
       <c r="F18" s="3">
-        <v>-137700</v>
+        <v>-50200</v>
       </c>
       <c r="G18" s="3">
-        <v>-43600</v>
+        <v>-70900</v>
       </c>
       <c r="H18" s="3">
-        <v>-27100</v>
+        <v>-140000</v>
       </c>
       <c r="I18" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-31400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-36100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-12700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-12000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-7300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-12400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-4400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,119 +1311,133 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3900</v>
       </c>
-      <c r="H20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>3200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-48000</v>
+        <v>-18000</v>
       </c>
       <c r="E21" s="3">
-        <v>-68200</v>
+        <v>-79600</v>
       </c>
       <c r="F21" s="3">
-        <v>-134500</v>
+        <v>-48900</v>
       </c>
       <c r="G21" s="3">
-        <v>-39100</v>
+        <v>-69300</v>
       </c>
       <c r="H21" s="3">
-        <v>-25200</v>
+        <v>-136800</v>
       </c>
       <c r="I21" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-30700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-35000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1200</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1371,11 +1451,11 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1395,108 +1475,126 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-50100</v>
+        <v>-20400</v>
       </c>
       <c r="E23" s="3">
-        <v>-68900</v>
+        <v>-81700</v>
       </c>
       <c r="F23" s="3">
-        <v>-135200</v>
+        <v>-50900</v>
       </c>
       <c r="G23" s="3">
-        <v>-39700</v>
+        <v>-70100</v>
       </c>
       <c r="H23" s="3">
-        <v>-25800</v>
+        <v>-137400</v>
       </c>
       <c r="I23" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-31200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-35400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-11500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-13900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-8100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-9300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
-      </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>200</v>
+      </c>
+      <c r="R24" s="3">
+        <v>500</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-50300</v>
+        <v>-20800</v>
       </c>
       <c r="E26" s="3">
-        <v>-69000</v>
+        <v>-82200</v>
       </c>
       <c r="F26" s="3">
-        <v>-135200</v>
+        <v>-51100</v>
       </c>
       <c r="G26" s="3">
-        <v>-39700</v>
+        <v>-70100</v>
       </c>
       <c r="H26" s="3">
-        <v>-26100</v>
+        <v>-137500</v>
       </c>
       <c r="I26" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-31200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-35500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-11600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-14000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-8600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-9800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-50200</v>
+        <v>-20200</v>
       </c>
       <c r="E27" s="3">
-        <v>-68900</v>
+        <v>-82100</v>
       </c>
       <c r="F27" s="3">
-        <v>-135200</v>
+        <v>-51000</v>
       </c>
       <c r="G27" s="3">
-        <v>-39700</v>
+        <v>-70100</v>
       </c>
       <c r="H27" s="3">
-        <v>-26100</v>
+        <v>-137400</v>
       </c>
       <c r="I27" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-31700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-37300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-13400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-15500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-10200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-11200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3900</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-3200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-50200</v>
+        <v>-20200</v>
       </c>
       <c r="E33" s="3">
-        <v>-68900</v>
+        <v>-82100</v>
       </c>
       <c r="F33" s="3">
-        <v>-135200</v>
+        <v>-51000</v>
       </c>
       <c r="G33" s="3">
-        <v>-39700</v>
+        <v>-70100</v>
       </c>
       <c r="H33" s="3">
-        <v>-26100</v>
+        <v>-137400</v>
       </c>
       <c r="I33" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-31700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-37300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-13400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-15500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-10200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-11200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-50200</v>
+        <v>-20200</v>
       </c>
       <c r="E35" s="3">
-        <v>-68900</v>
+        <v>-82100</v>
       </c>
       <c r="F35" s="3">
-        <v>-135200</v>
+        <v>-51000</v>
       </c>
       <c r="G35" s="3">
-        <v>-39700</v>
+        <v>-70100</v>
       </c>
       <c r="H35" s="3">
-        <v>-26100</v>
+        <v>-137400</v>
       </c>
       <c r="I35" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-31700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-37300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-13400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-15500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-10200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-11200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2312,43 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>284700</v>
+        <v>77300</v>
       </c>
       <c r="E41" s="3">
-        <v>93800</v>
+        <v>129900</v>
       </c>
       <c r="F41" s="3">
-        <v>12000</v>
+        <v>289400</v>
       </c>
       <c r="G41" s="3">
-        <v>19300</v>
+        <v>95400</v>
       </c>
       <c r="H41" s="3">
-        <v>19800</v>
+        <v>12200</v>
       </c>
       <c r="I41" s="3">
+        <v>19700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K41" s="3">
         <v>26700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,41 +2364,47 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>52000</v>
+        <v>64200</v>
       </c>
       <c r="E42" s="3">
-        <v>90100</v>
+        <v>161300</v>
       </c>
       <c r="F42" s="3">
-        <v>162400</v>
+        <v>52900</v>
       </c>
       <c r="G42" s="3">
-        <v>256400</v>
+        <v>91600</v>
       </c>
       <c r="H42" s="3">
-        <v>238400</v>
+        <v>165200</v>
       </c>
       <c r="I42" s="3">
+        <v>260700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>242400</v>
+      </c>
+      <c r="K42" s="3">
         <v>222800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>16200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>38000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,41 +2420,47 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>38800</v>
+        <v>38900</v>
       </c>
       <c r="E43" s="3">
-        <v>42000</v>
+        <v>48800</v>
       </c>
       <c r="F43" s="3">
-        <v>52400</v>
+        <v>39400</v>
       </c>
       <c r="G43" s="3">
-        <v>36400</v>
+        <v>42700</v>
       </c>
       <c r="H43" s="3">
-        <v>36200</v>
+        <v>53200</v>
       </c>
       <c r="I43" s="3">
+        <v>37100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K43" s="3">
         <v>33200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>27800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>31100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,41 +2476,47 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>41300</v>
+        <v>41900</v>
       </c>
       <c r="E44" s="3">
-        <v>22900</v>
+        <v>42500</v>
       </c>
       <c r="F44" s="3">
-        <v>14200</v>
+        <v>42000</v>
       </c>
       <c r="G44" s="3">
-        <v>14300</v>
+        <v>23300</v>
       </c>
       <c r="H44" s="3">
-        <v>10200</v>
+        <v>14400</v>
       </c>
       <c r="I44" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K44" s="3">
         <v>11300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>8100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>5000</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2340,41 +2532,47 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30500</v>
+        <v>94000</v>
       </c>
       <c r="E45" s="3">
-        <v>36300</v>
+        <v>36400</v>
       </c>
       <c r="F45" s="3">
-        <v>30900</v>
+        <v>31000</v>
       </c>
       <c r="G45" s="3">
-        <v>18300</v>
+        <v>36900</v>
       </c>
       <c r="H45" s="3">
-        <v>18300</v>
+        <v>31400</v>
       </c>
       <c r="I45" s="3">
         <v>18600</v>
       </c>
       <c r="J45" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K45" s="3">
+        <v>18600</v>
+      </c>
+      <c r="L45" s="3">
         <v>16200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>11300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,41 +2588,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>447300</v>
+        <v>316300</v>
       </c>
       <c r="E46" s="3">
-        <v>285100</v>
+        <v>418900</v>
       </c>
       <c r="F46" s="3">
-        <v>271800</v>
+        <v>454800</v>
       </c>
       <c r="G46" s="3">
-        <v>344800</v>
+        <v>289900</v>
       </c>
       <c r="H46" s="3">
-        <v>322800</v>
+        <v>276400</v>
       </c>
       <c r="I46" s="3">
+        <v>350600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>328200</v>
+      </c>
+      <c r="K46" s="3">
         <v>312600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>76800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>93400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,22 +2644,28 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>6500</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>6700</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2466,11 +2676,11 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2490,41 +2700,47 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23200</v>
+        <v>34600</v>
       </c>
       <c r="E48" s="3">
-        <v>23300</v>
+        <v>31500</v>
       </c>
       <c r="F48" s="3">
-        <v>18900</v>
+        <v>23600</v>
       </c>
       <c r="G48" s="3">
-        <v>12400</v>
+        <v>23700</v>
       </c>
       <c r="H48" s="3">
-        <v>7400</v>
+        <v>19200</v>
       </c>
       <c r="I48" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K48" s="3">
         <v>7500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,8 +2756,14 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,41 +2924,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12200</v>
+        <v>33000</v>
       </c>
       <c r="E52" s="3">
-        <v>3800</v>
+        <v>16100</v>
       </c>
       <c r="F52" s="3">
-        <v>4100</v>
+        <v>12400</v>
       </c>
       <c r="G52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I52" s="3">
         <v>3400</v>
       </c>
-      <c r="H52" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2980,14 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +3036,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>482700</v>
+        <v>383900</v>
       </c>
       <c r="E54" s="3">
-        <v>318800</v>
+        <v>466500</v>
       </c>
       <c r="F54" s="3">
-        <v>294900</v>
+        <v>490800</v>
       </c>
       <c r="G54" s="3">
-        <v>360600</v>
+        <v>324100</v>
       </c>
       <c r="H54" s="3">
-        <v>332300</v>
+        <v>299800</v>
       </c>
       <c r="I54" s="3">
+        <v>366600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>337900</v>
+      </c>
+      <c r="K54" s="3">
         <v>321300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>83700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>97700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +3092,14 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3140,43 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19300</v>
+        <v>18300</v>
       </c>
       <c r="E57" s="3">
-        <v>21800</v>
+        <v>11700</v>
       </c>
       <c r="F57" s="3">
-        <v>18400</v>
+        <v>19600</v>
       </c>
       <c r="G57" s="3">
-        <v>15900</v>
+        <v>22100</v>
       </c>
       <c r="H57" s="3">
-        <v>14600</v>
+        <v>18700</v>
       </c>
       <c r="I57" s="3">
+        <v>16100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K57" s="3">
         <v>9700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,41 +3192,47 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>137500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>137500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>137500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>137500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>137500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>137500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>137500</v>
+      </c>
+      <c r="K58" s="3">
         <v>135200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="L58" s="3">
         <v>135200</v>
       </c>
-      <c r="F58" s="3">
-        <v>135200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>135200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>135200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>135200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>135200</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>134100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2980,41 +3248,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>345700</v>
+        <v>323300</v>
       </c>
       <c r="E59" s="3">
-        <v>365600</v>
+        <v>413800</v>
       </c>
       <c r="F59" s="3">
-        <v>280200</v>
+        <v>351500</v>
       </c>
       <c r="G59" s="3">
-        <v>213900</v>
+        <v>371700</v>
       </c>
       <c r="H59" s="3">
-        <v>154400</v>
+        <v>284900</v>
       </c>
       <c r="I59" s="3">
+        <v>217500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>157000</v>
+      </c>
+      <c r="K59" s="3">
         <v>126000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>93900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>76900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,41 +3304,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500200</v>
+        <v>479100</v>
       </c>
       <c r="E60" s="3">
-        <v>522500</v>
+        <v>562900</v>
       </c>
       <c r="F60" s="3">
-        <v>433700</v>
+        <v>508600</v>
       </c>
       <c r="G60" s="3">
-        <v>364900</v>
+        <v>531300</v>
       </c>
       <c r="H60" s="3">
-        <v>304200</v>
+        <v>441000</v>
       </c>
       <c r="I60" s="3">
+        <v>371000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>309300</v>
+      </c>
+      <c r="K60" s="3">
         <v>270800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>236300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>216400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,8 +3360,14 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,38 +3416,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12000</v>
+        <v>16700</v>
       </c>
       <c r="E62" s="3">
-        <v>12900</v>
+        <v>15200</v>
       </c>
       <c r="F62" s="3">
-        <v>10700</v>
+        <v>12200</v>
       </c>
       <c r="G62" s="3">
-        <v>6600</v>
+        <v>13100</v>
       </c>
       <c r="H62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J62" s="3">
         <v>3900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,17 +3463,23 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3640,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>512300</v>
+        <v>511700</v>
       </c>
       <c r="E66" s="3">
-        <v>535600</v>
+        <v>578000</v>
       </c>
       <c r="F66" s="3">
-        <v>444700</v>
+        <v>520800</v>
       </c>
       <c r="G66" s="3">
-        <v>371800</v>
+        <v>544600</v>
       </c>
       <c r="H66" s="3">
-        <v>308200</v>
+        <v>452100</v>
       </c>
       <c r="I66" s="3">
+        <v>378000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>313400</v>
+      </c>
+      <c r="K66" s="3">
         <v>275100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>238600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>216600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3696,14 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3524,17 +3860,17 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>75900</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>73600</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,41 +3942,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="3">
-        <v>-565300</v>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3">
+        <v>-574700</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>-295400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
         <v>-224700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3998,14 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +4166,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-29600</v>
+        <v>-127800</v>
       </c>
       <c r="E76" s="3">
-        <v>-216800</v>
+        <v>-111500</v>
       </c>
       <c r="F76" s="3">
-        <v>-149800</v>
+        <v>-30100</v>
       </c>
       <c r="G76" s="3">
-        <v>-11200</v>
+        <v>-220500</v>
       </c>
       <c r="H76" s="3">
-        <v>24100</v>
+        <v>-152300</v>
       </c>
       <c r="I76" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K76" s="3">
         <v>46200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-230800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-192500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4222,14 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-50200</v>
+        <v>-20200</v>
       </c>
       <c r="E81" s="3">
-        <v>-68900</v>
+        <v>-82100</v>
       </c>
       <c r="F81" s="3">
-        <v>-135200</v>
+        <v>-51000</v>
       </c>
       <c r="G81" s="3">
-        <v>-39700</v>
+        <v>-70100</v>
       </c>
       <c r="H81" s="3">
-        <v>-26100</v>
+        <v>-137400</v>
       </c>
       <c r="I81" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-31700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-37300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-13400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-15500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-10200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-11200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,38 +4421,40 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>900</v>
+      </c>
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4066,17 +4464,23 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,38 +4753,44 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>79700</v>
+        <v>98400</v>
       </c>
       <c r="E89" s="3">
-        <v>-162900</v>
+        <v>39000</v>
       </c>
       <c r="F89" s="3">
-        <v>91400</v>
+        <v>81100</v>
       </c>
       <c r="G89" s="3">
-        <v>22000</v>
+        <v>-165600</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>92900</v>
       </c>
       <c r="I89" s="3">
+        <v>22300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-48300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>21900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4366,17 +4800,23 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,25 +4835,27 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-700</v>
       </c>
       <c r="I91" s="3">
         <v>-700</v>
@@ -4421,11 +4863,11 @@
       <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-700</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -4436,17 +4878,23 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +5055,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5301,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5357,14 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5413,14 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>217200</v>
+        <v>165500</v>
       </c>
       <c r="E8" s="3">
-        <v>202500</v>
+        <v>468100</v>
       </c>
       <c r="F8" s="3">
-        <v>209800</v>
+        <v>204000</v>
       </c>
       <c r="G8" s="3">
-        <v>173300</v>
+        <v>211400</v>
       </c>
       <c r="H8" s="3">
-        <v>140300</v>
+        <v>134900</v>
       </c>
       <c r="I8" s="3">
-        <v>97600</v>
+        <v>263700</v>
       </c>
       <c r="J8" s="3">
+        <v>98300</v>
+      </c>
+      <c r="K8" s="3">
         <v>84800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>63200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>53300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>49300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>25300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>27000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19300</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>94200</v>
+        <v>95200</v>
       </c>
       <c r="E9" s="3">
-        <v>96500</v>
+        <v>224600</v>
       </c>
       <c r="F9" s="3">
-        <v>89600</v>
+        <v>97300</v>
       </c>
       <c r="G9" s="3">
-        <v>91000</v>
+        <v>90300</v>
       </c>
       <c r="H9" s="3">
-        <v>75900</v>
+        <v>163600</v>
       </c>
       <c r="I9" s="3">
-        <v>53500</v>
+        <v>152000</v>
       </c>
       <c r="J9" s="3">
+        <v>53900</v>
+      </c>
+      <c r="K9" s="3">
         <v>47900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>33100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>26300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>23500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>17200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13900</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>123000</v>
+        <v>70200</v>
       </c>
       <c r="E10" s="3">
-        <v>106000</v>
+        <v>243500</v>
       </c>
       <c r="F10" s="3">
-        <v>120200</v>
+        <v>106800</v>
       </c>
       <c r="G10" s="3">
-        <v>82300</v>
+        <v>121100</v>
       </c>
       <c r="H10" s="3">
-        <v>64400</v>
+        <v>-28700</v>
       </c>
       <c r="I10" s="3">
-        <v>44100</v>
+        <v>111700</v>
       </c>
       <c r="J10" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K10" s="3">
         <v>36900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5400</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>30300</v>
+        <v>26900</v>
       </c>
       <c r="E12" s="3">
-        <v>28200</v>
+        <v>69000</v>
       </c>
       <c r="F12" s="3">
-        <v>24300</v>
+        <v>28400</v>
       </c>
       <c r="G12" s="3">
-        <v>20100</v>
+        <v>24500</v>
       </c>
       <c r="H12" s="3">
-        <v>18900</v>
+        <v>17200</v>
       </c>
       <c r="I12" s="3">
-        <v>14300</v>
+        <v>41500</v>
       </c>
       <c r="J12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K12" s="3">
         <v>13200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6100</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,31 +1064,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>237400</v>
+        <v>204600</v>
       </c>
       <c r="E17" s="3">
-        <v>287700</v>
+        <v>577700</v>
       </c>
       <c r="F17" s="3">
-        <v>260000</v>
+        <v>289900</v>
       </c>
       <c r="G17" s="3">
-        <v>244200</v>
+        <v>262000</v>
       </c>
       <c r="H17" s="3">
-        <v>280200</v>
+        <v>175400</v>
       </c>
       <c r="I17" s="3">
-        <v>141900</v>
+        <v>357600</v>
       </c>
       <c r="J17" s="3">
+        <v>143000</v>
+      </c>
+      <c r="K17" s="3">
         <v>112300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>94600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>89400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>62000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>46400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>40700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>37800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>31300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26700</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-20200</v>
+        <v>-39200</v>
       </c>
       <c r="E18" s="3">
-        <v>-85200</v>
+        <v>-109600</v>
       </c>
       <c r="F18" s="3">
-        <v>-50200</v>
+        <v>-85900</v>
       </c>
       <c r="G18" s="3">
-        <v>-70900</v>
+        <v>-50600</v>
       </c>
       <c r="H18" s="3">
-        <v>-140000</v>
+        <v>-40400</v>
       </c>
       <c r="I18" s="3">
-        <v>-44300</v>
+        <v>-93900</v>
       </c>
       <c r="J18" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-27600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-31400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-36100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,97 +1345,101 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="E20" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F20" s="3">
         <v>4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>3900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>800</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-18000</v>
+        <v>-35000</v>
       </c>
       <c r="E21" s="3">
-        <v>-79600</v>
+        <v>-100300</v>
       </c>
       <c r="F21" s="3">
-        <v>-48900</v>
+        <v>-80200</v>
       </c>
       <c r="G21" s="3">
-        <v>-69300</v>
+        <v>-49200</v>
       </c>
       <c r="H21" s="3">
-        <v>-136800</v>
+        <v>-37600</v>
       </c>
       <c r="I21" s="3">
-        <v>-39800</v>
+        <v>-80500</v>
       </c>
       <c r="J21" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-25600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-30700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-35000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,40 +1449,43 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="3">
-        <v>1200</v>
+        <v>3700</v>
       </c>
       <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3700</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1457,8 +1496,8 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1481,93 +1520,99 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-20400</v>
+        <v>-38100</v>
       </c>
       <c r="E23" s="3">
-        <v>-81700</v>
+        <v>-107000</v>
       </c>
       <c r="F23" s="3">
-        <v>-50900</v>
+        <v>-82400</v>
       </c>
       <c r="G23" s="3">
-        <v>-70100</v>
+        <v>-51300</v>
       </c>
       <c r="H23" s="3">
-        <v>-137400</v>
+        <v>-39600</v>
       </c>
       <c r="I23" s="3">
-        <v>-40400</v>
+        <v>-86000</v>
       </c>
       <c r="J23" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-26200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-35400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8500</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
-        <v>500</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
@@ -1576,25 +1621,28 @@
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>500</v>
       </c>
       <c r="Q24" s="3">
+        <v>500</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20800</v>
+        <v>-38000</v>
       </c>
       <c r="E26" s="3">
-        <v>-82200</v>
+        <v>-108100</v>
       </c>
       <c r="F26" s="3">
-        <v>-51100</v>
+        <v>-82800</v>
       </c>
       <c r="G26" s="3">
-        <v>-70100</v>
+        <v>-51500</v>
       </c>
       <c r="H26" s="3">
-        <v>-137500</v>
+        <v>-39700</v>
       </c>
       <c r="I26" s="3">
-        <v>-40400</v>
+        <v>-86400</v>
       </c>
       <c r="J26" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-26500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-31200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-35500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-20200</v>
+        <v>-34100</v>
       </c>
       <c r="E27" s="3">
-        <v>-82100</v>
+        <v>-107200</v>
       </c>
       <c r="F27" s="3">
-        <v>-51000</v>
+        <v>-82700</v>
       </c>
       <c r="G27" s="3">
-        <v>-70100</v>
+        <v>-51400</v>
       </c>
       <c r="H27" s="3">
-        <v>-137400</v>
+        <v>-39600</v>
       </c>
       <c r="I27" s="3">
-        <v>-40400</v>
+        <v>-86300</v>
       </c>
       <c r="J27" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-26500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-37300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8900</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,31 +1874,34 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>31400</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-47300</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-31000</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-119500</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1000</v>
+        <v>-2400</v>
       </c>
       <c r="E32" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20200</v>
+        <v>-2600</v>
       </c>
       <c r="E33" s="3">
-        <v>-82100</v>
+        <v>-154500</v>
       </c>
       <c r="F33" s="3">
-        <v>-51000</v>
+        <v>-82700</v>
       </c>
       <c r="G33" s="3">
-        <v>-70100</v>
+        <v>-51400</v>
       </c>
       <c r="H33" s="3">
-        <v>-137400</v>
+        <v>-70600</v>
       </c>
       <c r="I33" s="3">
-        <v>-40400</v>
+        <v>-205900</v>
       </c>
       <c r="J33" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-26500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-37300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8900</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20200</v>
+        <v>-2600</v>
       </c>
       <c r="E35" s="3">
-        <v>-82100</v>
+        <v>-154500</v>
       </c>
       <c r="F35" s="3">
-        <v>-51000</v>
+        <v>-82700</v>
       </c>
       <c r="G35" s="3">
-        <v>-70100</v>
+        <v>-51400</v>
       </c>
       <c r="H35" s="3">
-        <v>-137400</v>
+        <v>-70600</v>
       </c>
       <c r="I35" s="3">
-        <v>-40400</v>
+        <v>-205900</v>
       </c>
       <c r="J35" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-26500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-37300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8900</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,44 +2399,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>77300</v>
+        <v>50900</v>
       </c>
       <c r="E41" s="3">
-        <v>129900</v>
+        <v>77900</v>
       </c>
       <c r="F41" s="3">
-        <v>289400</v>
+        <v>130900</v>
       </c>
       <c r="G41" s="3">
-        <v>95400</v>
+        <v>291700</v>
       </c>
       <c r="H41" s="3">
-        <v>12200</v>
+        <v>96100</v>
       </c>
       <c r="I41" s="3">
-        <v>19700</v>
+        <v>12300</v>
       </c>
       <c r="J41" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K41" s="3">
         <v>20100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,44 +2456,47 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>64200</v>
+        <v>79500</v>
       </c>
       <c r="E42" s="3">
-        <v>161300</v>
+        <v>64600</v>
       </c>
       <c r="F42" s="3">
-        <v>52900</v>
+        <v>162500</v>
       </c>
       <c r="G42" s="3">
-        <v>91600</v>
+        <v>53300</v>
       </c>
       <c r="H42" s="3">
-        <v>165200</v>
+        <v>92300</v>
       </c>
       <c r="I42" s="3">
-        <v>260700</v>
+        <v>166400</v>
       </c>
       <c r="J42" s="3">
+        <v>262700</v>
+      </c>
+      <c r="K42" s="3">
         <v>242400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>222800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>38000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2426,44 +2515,47 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>38900</v>
+        <v>40200</v>
       </c>
       <c r="E43" s="3">
-        <v>48800</v>
+        <v>39200</v>
       </c>
       <c r="F43" s="3">
-        <v>39400</v>
+        <v>49100</v>
       </c>
       <c r="G43" s="3">
-        <v>42700</v>
+        <v>39700</v>
       </c>
       <c r="H43" s="3">
-        <v>53200</v>
+        <v>43100</v>
       </c>
       <c r="I43" s="3">
-        <v>37100</v>
+        <v>53600</v>
       </c>
       <c r="J43" s="3">
+        <v>37300</v>
+      </c>
+      <c r="K43" s="3">
         <v>36800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>31100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,44 +2574,47 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>41900</v>
+        <v>40300</v>
       </c>
       <c r="E44" s="3">
-        <v>42500</v>
+        <v>42200</v>
       </c>
       <c r="F44" s="3">
-        <v>42000</v>
+        <v>42900</v>
       </c>
       <c r="G44" s="3">
-        <v>23300</v>
+        <v>42400</v>
       </c>
       <c r="H44" s="3">
-        <v>14400</v>
+        <v>23500</v>
       </c>
       <c r="I44" s="3">
         <v>14500</v>
       </c>
       <c r="J44" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K44" s="3">
         <v>10300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,44 +2633,47 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>94000</v>
+        <v>147200</v>
       </c>
       <c r="E45" s="3">
-        <v>36400</v>
+        <v>94800</v>
       </c>
       <c r="F45" s="3">
-        <v>31000</v>
+        <v>36700</v>
       </c>
       <c r="G45" s="3">
-        <v>36900</v>
+        <v>31200</v>
       </c>
       <c r="H45" s="3">
-        <v>31400</v>
+        <v>37100</v>
       </c>
       <c r="I45" s="3">
-        <v>18600</v>
+        <v>31600</v>
       </c>
       <c r="J45" s="3">
-        <v>18600</v>
+        <v>18800</v>
       </c>
       <c r="K45" s="3">
         <v>18600</v>
       </c>
       <c r="L45" s="3">
+        <v>18600</v>
+      </c>
+      <c r="M45" s="3">
         <v>16200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,44 +2692,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>316300</v>
+        <v>358100</v>
       </c>
       <c r="E46" s="3">
-        <v>418900</v>
+        <v>318700</v>
       </c>
       <c r="F46" s="3">
-        <v>454800</v>
+        <v>422100</v>
       </c>
       <c r="G46" s="3">
-        <v>289900</v>
+        <v>458300</v>
       </c>
       <c r="H46" s="3">
-        <v>276400</v>
+        <v>292100</v>
       </c>
       <c r="I46" s="3">
-        <v>350600</v>
+        <v>278500</v>
       </c>
       <c r="J46" s="3">
+        <v>353200</v>
+      </c>
+      <c r="K46" s="3">
         <v>328200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>312600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>76800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>93400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2751,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2664,12 +2768,12 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>6700</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2682,8 +2786,8 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2706,44 +2810,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34600</v>
+        <v>31300</v>
       </c>
       <c r="E48" s="3">
-        <v>31500</v>
+        <v>34900</v>
       </c>
       <c r="F48" s="3">
-        <v>23600</v>
+        <v>31700</v>
       </c>
       <c r="G48" s="3">
-        <v>23700</v>
+        <v>23800</v>
       </c>
       <c r="H48" s="3">
-        <v>19200</v>
+        <v>23900</v>
       </c>
       <c r="I48" s="3">
-        <v>12600</v>
+        <v>19400</v>
       </c>
       <c r="J48" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K48" s="3">
         <v>7600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,43 +3046,46 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33000</v>
+        <v>26200</v>
       </c>
       <c r="E52" s="3">
-        <v>16100</v>
+        <v>33300</v>
       </c>
       <c r="F52" s="3">
-        <v>12400</v>
+        <v>16300</v>
       </c>
       <c r="G52" s="3">
+        <v>12500</v>
+      </c>
+      <c r="H52" s="3">
         <v>3900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4200</v>
       </c>
-      <c r="I52" s="3">
-        <v>3400</v>
-      </c>
       <c r="J52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K52" s="3">
         <v>2100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>800</v>
       </c>
       <c r="M52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>800</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,44 +3164,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>383900</v>
+        <v>415600</v>
       </c>
       <c r="E54" s="3">
-        <v>466500</v>
+        <v>386900</v>
       </c>
       <c r="F54" s="3">
-        <v>490800</v>
+        <v>470100</v>
       </c>
       <c r="G54" s="3">
-        <v>324100</v>
+        <v>494500</v>
       </c>
       <c r="H54" s="3">
-        <v>299800</v>
+        <v>326600</v>
       </c>
       <c r="I54" s="3">
-        <v>366600</v>
+        <v>302100</v>
       </c>
       <c r="J54" s="3">
+        <v>369400</v>
+      </c>
+      <c r="K54" s="3">
         <v>337900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>321300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>83700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>97700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,44 +3271,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18300</v>
+        <v>25400</v>
       </c>
       <c r="E57" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F57" s="3">
         <v>11700</v>
       </c>
-      <c r="F57" s="3">
-        <v>19600</v>
-      </c>
       <c r="G57" s="3">
-        <v>22100</v>
+        <v>19800</v>
       </c>
       <c r="H57" s="3">
-        <v>18700</v>
+        <v>22300</v>
       </c>
       <c r="I57" s="3">
-        <v>16100</v>
+        <v>18800</v>
       </c>
       <c r="J57" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K57" s="3">
         <v>14900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,44 +3328,47 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>138500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>138500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>138500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>138500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>138500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>138500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K58" s="3">
         <v>137500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>137500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>137500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>137500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>137500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>137500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>137500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>135200</v>
       </c>
       <c r="L58" s="3">
         <v>135200</v>
       </c>
       <c r="M58" s="3">
+        <v>135200</v>
+      </c>
+      <c r="N58" s="3">
         <v>134100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3254,44 +3387,47 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>323300</v>
+        <v>314700</v>
       </c>
       <c r="E59" s="3">
-        <v>413800</v>
+        <v>325800</v>
       </c>
       <c r="F59" s="3">
-        <v>351500</v>
+        <v>417000</v>
       </c>
       <c r="G59" s="3">
-        <v>371700</v>
+        <v>354200</v>
       </c>
       <c r="H59" s="3">
-        <v>284900</v>
+        <v>374600</v>
       </c>
       <c r="I59" s="3">
-        <v>217500</v>
+        <v>287100</v>
       </c>
       <c r="J59" s="3">
+        <v>219100</v>
+      </c>
+      <c r="K59" s="3">
         <v>157000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>126000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>93900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>76900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,44 +3446,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>479100</v>
+        <v>478600</v>
       </c>
       <c r="E60" s="3">
-        <v>562900</v>
+        <v>482800</v>
       </c>
       <c r="F60" s="3">
-        <v>508600</v>
+        <v>567300</v>
       </c>
       <c r="G60" s="3">
-        <v>531300</v>
+        <v>512500</v>
       </c>
       <c r="H60" s="3">
-        <v>441000</v>
+        <v>535400</v>
       </c>
       <c r="I60" s="3">
-        <v>371000</v>
+        <v>444400</v>
       </c>
       <c r="J60" s="3">
+        <v>373900</v>
+      </c>
+      <c r="K60" s="3">
         <v>309300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>270800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>236300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>216400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,8 +3505,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,41 +3564,44 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16700</v>
+        <v>52100</v>
       </c>
       <c r="E62" s="3">
-        <v>15200</v>
+        <v>16800</v>
       </c>
       <c r="F62" s="3">
-        <v>12200</v>
+        <v>15300</v>
       </c>
       <c r="G62" s="3">
-        <v>13100</v>
+        <v>12300</v>
       </c>
       <c r="H62" s="3">
-        <v>10900</v>
+        <v>13200</v>
       </c>
       <c r="I62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J62" s="3">
         <v>6800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,8 +3614,8 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,44 +3800,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>511700</v>
+        <v>542900</v>
       </c>
       <c r="E66" s="3">
-        <v>578000</v>
+        <v>515600</v>
       </c>
       <c r="F66" s="3">
-        <v>520800</v>
+        <v>582500</v>
       </c>
       <c r="G66" s="3">
-        <v>544600</v>
+        <v>524800</v>
       </c>
       <c r="H66" s="3">
-        <v>452100</v>
+        <v>548700</v>
       </c>
       <c r="I66" s="3">
-        <v>378000</v>
+        <v>455600</v>
       </c>
       <c r="J66" s="3">
+        <v>380900</v>
+      </c>
+      <c r="K66" s="3">
         <v>313400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>275100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>238600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>216600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3866,14 +4033,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>75900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>73600</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4118,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3962,11 +4135,11 @@
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="3">
-        <v>-574700</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-579200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -3974,18 +4147,18 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
         <v>-295400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3">
         <v>-224700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,44 +4354,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-127800</v>
+        <v>-127300</v>
       </c>
       <c r="E76" s="3">
-        <v>-111500</v>
+        <v>-128800</v>
       </c>
       <c r="F76" s="3">
-        <v>-30100</v>
+        <v>-112300</v>
       </c>
       <c r="G76" s="3">
-        <v>-220500</v>
+        <v>-30300</v>
       </c>
       <c r="H76" s="3">
-        <v>-152300</v>
+        <v>-222100</v>
       </c>
       <c r="I76" s="3">
-        <v>-11400</v>
+        <v>-153400</v>
       </c>
       <c r="J76" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="K76" s="3">
         <v>24500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>46200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-230800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-192500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20200</v>
+        <v>-2600</v>
       </c>
       <c r="E81" s="3">
-        <v>-82100</v>
+        <v>-154500</v>
       </c>
       <c r="F81" s="3">
-        <v>-51000</v>
+        <v>-82700</v>
       </c>
       <c r="G81" s="3">
-        <v>-70100</v>
+        <v>-51400</v>
       </c>
       <c r="H81" s="3">
-        <v>-137400</v>
+        <v>-70600</v>
       </c>
       <c r="I81" s="3">
-        <v>-40400</v>
+        <v>-205900</v>
       </c>
       <c r="J81" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-26500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-37300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8900</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,41 +4620,42 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="E83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
-        <v>800</v>
-      </c>
       <c r="G83" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="H83" s="3">
         <v>700</v>
       </c>
       <c r="I83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J83" s="3">
         <v>600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
       </c>
       <c r="L83" s="3">
+        <v>500</v>
+      </c>
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4470,8 +4668,8 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,41 +4972,44 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>98400</v>
+        <v>-121800</v>
       </c>
       <c r="E89" s="3">
-        <v>39000</v>
+        <v>220200</v>
       </c>
       <c r="F89" s="3">
-        <v>81100</v>
+        <v>39300</v>
       </c>
       <c r="G89" s="3">
-        <v>-165600</v>
+        <v>81700</v>
       </c>
       <c r="H89" s="3">
-        <v>92900</v>
+        <v>-166900</v>
       </c>
       <c r="I89" s="3">
-        <v>22300</v>
+        <v>116100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>22500</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-48300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4806,8 +5022,8 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,28 +5056,29 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3500</v>
+        <v>-2900</v>
       </c>
       <c r="E91" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1900</v>
-      </c>
       <c r="I91" s="3">
-        <v>-700</v>
+        <v>-3300</v>
       </c>
       <c r="J91" s="3">
         <v>-700</v>
@@ -4869,8 +5089,8 @@
       <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>-700</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4884,8 +5104,8 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -755,25 +755,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>165500</v>
+        <v>591800</v>
       </c>
       <c r="E8" s="3">
-        <v>468100</v>
+        <v>204400</v>
       </c>
       <c r="F8" s="3">
-        <v>204000</v>
+        <v>190600</v>
       </c>
       <c r="G8" s="3">
-        <v>211400</v>
+        <v>197400</v>
       </c>
       <c r="H8" s="3">
-        <v>134900</v>
+        <v>68700</v>
       </c>
       <c r="I8" s="3">
-        <v>263700</v>
+        <v>132000</v>
       </c>
       <c r="J8" s="3">
-        <v>98300</v>
+        <v>91800</v>
       </c>
       <c r="K8" s="3">
         <v>84800</v>
@@ -814,25 +814,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>95200</v>
+        <v>298700</v>
       </c>
       <c r="E9" s="3">
-        <v>224600</v>
+        <v>88700</v>
       </c>
       <c r="F9" s="3">
-        <v>97300</v>
+        <v>90900</v>
       </c>
       <c r="G9" s="3">
-        <v>90300</v>
+        <v>84400</v>
       </c>
       <c r="H9" s="3">
-        <v>163600</v>
+        <v>128000</v>
       </c>
       <c r="I9" s="3">
-        <v>152000</v>
+        <v>71400</v>
       </c>
       <c r="J9" s="3">
-        <v>53900</v>
+        <v>50400</v>
       </c>
       <c r="K9" s="3">
         <v>47900</v>
@@ -873,25 +873,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>70200</v>
+        <v>293100</v>
       </c>
       <c r="E10" s="3">
-        <v>243500</v>
+        <v>115800</v>
       </c>
       <c r="F10" s="3">
-        <v>106800</v>
+        <v>99700</v>
       </c>
       <c r="G10" s="3">
-        <v>121100</v>
+        <v>113100</v>
       </c>
       <c r="H10" s="3">
-        <v>-28700</v>
+        <v>-59300</v>
       </c>
       <c r="I10" s="3">
-        <v>111700</v>
+        <v>60600</v>
       </c>
       <c r="J10" s="3">
-        <v>44400</v>
+        <v>41500</v>
       </c>
       <c r="K10" s="3">
         <v>36900</v>
@@ -955,25 +955,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>26900</v>
+        <v>89500</v>
       </c>
       <c r="E12" s="3">
-        <v>69000</v>
+        <v>28500</v>
       </c>
       <c r="F12" s="3">
-        <v>28400</v>
+        <v>26500</v>
       </c>
       <c r="G12" s="3">
-        <v>24500</v>
+        <v>22900</v>
       </c>
       <c r="H12" s="3">
-        <v>17200</v>
+        <v>11200</v>
       </c>
       <c r="I12" s="3">
-        <v>41500</v>
+        <v>17800</v>
       </c>
       <c r="J12" s="3">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="K12" s="3">
         <v>13200</v>
@@ -1073,10 +1073,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+        <v>8400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1211,25 +1211,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>204600</v>
+        <v>730800</v>
       </c>
       <c r="E17" s="3">
-        <v>577700</v>
+        <v>223500</v>
       </c>
       <c r="F17" s="3">
-        <v>289900</v>
+        <v>270800</v>
       </c>
       <c r="G17" s="3">
-        <v>262000</v>
+        <v>244700</v>
       </c>
       <c r="H17" s="3">
-        <v>175400</v>
+        <v>-5200</v>
       </c>
       <c r="I17" s="3">
-        <v>357600</v>
+        <v>263800</v>
       </c>
       <c r="J17" s="3">
-        <v>143000</v>
+        <v>133600</v>
       </c>
       <c r="K17" s="3">
         <v>112300</v>
@@ -1270,25 +1270,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-39200</v>
+        <v>-139000</v>
       </c>
       <c r="E18" s="3">
-        <v>-109600</v>
+        <v>-19100</v>
       </c>
       <c r="F18" s="3">
-        <v>-85900</v>
+        <v>-80200</v>
       </c>
       <c r="G18" s="3">
-        <v>-50600</v>
+        <v>-47300</v>
       </c>
       <c r="H18" s="3">
-        <v>-40400</v>
+        <v>73900</v>
       </c>
       <c r="I18" s="3">
-        <v>-93900</v>
+        <v>-131700</v>
       </c>
       <c r="J18" s="3">
-        <v>-44600</v>
+        <v>-41700</v>
       </c>
       <c r="K18" s="3">
         <v>-27600</v>
@@ -1352,25 +1352,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2400</v>
+        <v>8200</v>
       </c>
       <c r="E20" s="3">
-        <v>6300</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="G20" s="3">
         <v>500</v>
       </c>
       <c r="H20" s="3">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="I20" s="3">
-        <v>11600</v>
+        <v>2400</v>
       </c>
       <c r="J20" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="K20" s="3">
         <v>1400</v>
@@ -1411,25 +1411,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-35000</v>
+        <v>-126400</v>
       </c>
       <c r="E21" s="3">
-        <v>-100300</v>
+        <v>-17000</v>
       </c>
       <c r="F21" s="3">
-        <v>-80200</v>
+        <v>-74900</v>
       </c>
       <c r="G21" s="3">
-        <v>-49200</v>
+        <v>-46000</v>
       </c>
       <c r="H21" s="3">
-        <v>-37600</v>
+        <v>75400</v>
       </c>
       <c r="I21" s="3">
-        <v>-80500</v>
+        <v>-128700</v>
       </c>
       <c r="J21" s="3">
-        <v>-40100</v>
+        <v>-37500</v>
       </c>
       <c r="K21" s="3">
         <v>-25600</v>
@@ -1470,22 +1470,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1300</v>
+        <v>4700</v>
       </c>
       <c r="E22" s="3">
-        <v>3700</v>
+        <v>1200</v>
       </c>
       <c r="F22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G22" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3700</v>
+        <v>1100</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1529,25 +1529,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-38100</v>
+        <v>-135500</v>
       </c>
       <c r="E23" s="3">
-        <v>-107000</v>
+        <v>-19200</v>
       </c>
       <c r="F23" s="3">
-        <v>-82400</v>
+        <v>-76900</v>
       </c>
       <c r="G23" s="3">
-        <v>-51300</v>
+        <v>-47900</v>
       </c>
       <c r="H23" s="3">
-        <v>-39600</v>
+        <v>74700</v>
       </c>
       <c r="I23" s="3">
-        <v>-86000</v>
+        <v>-129400</v>
       </c>
       <c r="J23" s="3">
-        <v>-40700</v>
+        <v>-38000</v>
       </c>
       <c r="K23" s="3">
         <v>-26200</v>
@@ -1588,22 +1588,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-100</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="F24" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1706,25 +1706,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-136500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-77400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>74600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-129400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-38000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-108100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-82800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-51500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-39700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-86400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-40700</v>
       </c>
       <c r="K26" s="3">
         <v>-26500</v>
@@ -1765,25 +1765,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-34100</v>
+        <v>-131900</v>
       </c>
       <c r="E27" s="3">
-        <v>-107200</v>
+        <v>-19000</v>
       </c>
       <c r="F27" s="3">
-        <v>-82700</v>
+        <v>-77300</v>
       </c>
       <c r="G27" s="3">
-        <v>-51400</v>
+        <v>-48000</v>
       </c>
       <c r="H27" s="3">
-        <v>-39600</v>
+        <v>74600</v>
       </c>
       <c r="I27" s="3">
-        <v>-86300</v>
+        <v>-129400</v>
       </c>
       <c r="J27" s="3">
-        <v>-40700</v>
+        <v>-38000</v>
       </c>
       <c r="K27" s="3">
         <v>-26500</v>
@@ -1883,10 +1883,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>31400</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-47300</v>
+        <v>-14800</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
@@ -1895,10 +1895,10 @@
         <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>-31000</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-119500</v>
+        <v>-140600</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
@@ -2060,25 +2060,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2400</v>
+        <v>-8200</v>
       </c>
       <c r="E32" s="3">
-        <v>-6300</v>
+        <v>-1000</v>
       </c>
       <c r="F32" s="3">
-        <v>-4700</v>
+        <v>-4400</v>
       </c>
       <c r="G32" s="3">
         <v>-500</v>
       </c>
       <c r="H32" s="3">
-        <v>-2100</v>
+        <v>-800</v>
       </c>
       <c r="I32" s="3">
-        <v>-11600</v>
+        <v>-2400</v>
       </c>
       <c r="J32" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="K32" s="3">
         <v>-1400</v>
@@ -2119,25 +2119,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2600</v>
+        <v>-146700</v>
       </c>
       <c r="E33" s="3">
-        <v>-154500</v>
+        <v>-19000</v>
       </c>
       <c r="F33" s="3">
-        <v>-82700</v>
+        <v>-77300</v>
       </c>
       <c r="G33" s="3">
-        <v>-51400</v>
+        <v>-48000</v>
       </c>
       <c r="H33" s="3">
-        <v>-70600</v>
+        <v>-66000</v>
       </c>
       <c r="I33" s="3">
-        <v>-205900</v>
+        <v>-129400</v>
       </c>
       <c r="J33" s="3">
-        <v>-40700</v>
+        <v>-38000</v>
       </c>
       <c r="K33" s="3">
         <v>-26500</v>
@@ -2237,25 +2237,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2600</v>
+        <v>-146700</v>
       </c>
       <c r="E35" s="3">
-        <v>-154500</v>
+        <v>-19000</v>
       </c>
       <c r="F35" s="3">
-        <v>-82700</v>
+        <v>-77300</v>
       </c>
       <c r="G35" s="3">
-        <v>-51400</v>
+        <v>-48000</v>
       </c>
       <c r="H35" s="3">
-        <v>-70600</v>
+        <v>-66000</v>
       </c>
       <c r="I35" s="3">
-        <v>-205900</v>
+        <v>-129400</v>
       </c>
       <c r="J35" s="3">
-        <v>-40700</v>
+        <v>-38000</v>
       </c>
       <c r="K35" s="3">
         <v>-26500</v>
@@ -2406,25 +2406,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50900</v>
+        <v>47600</v>
       </c>
       <c r="E41" s="3">
-        <v>77900</v>
+        <v>72800</v>
       </c>
       <c r="F41" s="3">
-        <v>130900</v>
+        <v>122300</v>
       </c>
       <c r="G41" s="3">
-        <v>291700</v>
+        <v>272400</v>
       </c>
       <c r="H41" s="3">
-        <v>96100</v>
+        <v>89800</v>
       </c>
       <c r="I41" s="3">
-        <v>12300</v>
+        <v>11500</v>
       </c>
       <c r="J41" s="3">
-        <v>19800</v>
+        <v>18500</v>
       </c>
       <c r="K41" s="3">
         <v>20100</v>
@@ -2465,25 +2465,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>79500</v>
+        <v>74300</v>
       </c>
       <c r="E42" s="3">
-        <v>64600</v>
+        <v>60400</v>
       </c>
       <c r="F42" s="3">
-        <v>162500</v>
+        <v>151800</v>
       </c>
       <c r="G42" s="3">
-        <v>53300</v>
+        <v>49800</v>
       </c>
       <c r="H42" s="3">
-        <v>92300</v>
+        <v>86200</v>
       </c>
       <c r="I42" s="3">
-        <v>166400</v>
+        <v>155400</v>
       </c>
       <c r="J42" s="3">
-        <v>262700</v>
+        <v>245400</v>
       </c>
       <c r="K42" s="3">
         <v>242400</v>
@@ -2524,25 +2524,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>45900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>37100</v>
+      </c>
+      <c r="H43" s="3">
         <v>40200</v>
       </c>
-      <c r="E43" s="3">
-        <v>39200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>49100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>39700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>43100</v>
-      </c>
       <c r="I43" s="3">
-        <v>53600</v>
+        <v>50100</v>
       </c>
       <c r="J43" s="3">
-        <v>37300</v>
+        <v>34900</v>
       </c>
       <c r="K43" s="3">
         <v>36800</v>
@@ -2583,25 +2583,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>40300</v>
+        <v>37600</v>
       </c>
       <c r="E44" s="3">
-        <v>42200</v>
+        <v>39400</v>
       </c>
       <c r="F44" s="3">
-        <v>42900</v>
+        <v>40000</v>
       </c>
       <c r="G44" s="3">
-        <v>42400</v>
+        <v>39600</v>
       </c>
       <c r="H44" s="3">
-        <v>23500</v>
+        <v>21900</v>
       </c>
       <c r="I44" s="3">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="J44" s="3">
-        <v>14600</v>
+        <v>13700</v>
       </c>
       <c r="K44" s="3">
         <v>10300</v>
@@ -2642,25 +2642,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>147200</v>
+        <v>137500</v>
       </c>
       <c r="E45" s="3">
-        <v>94800</v>
+        <v>88500</v>
       </c>
       <c r="F45" s="3">
-        <v>36700</v>
+        <v>34300</v>
       </c>
       <c r="G45" s="3">
-        <v>31200</v>
+        <v>29200</v>
       </c>
       <c r="H45" s="3">
-        <v>37100</v>
+        <v>34700</v>
       </c>
       <c r="I45" s="3">
-        <v>31600</v>
+        <v>29600</v>
       </c>
       <c r="J45" s="3">
-        <v>18800</v>
+        <v>17500</v>
       </c>
       <c r="K45" s="3">
         <v>18600</v>
@@ -2701,25 +2701,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>358100</v>
+        <v>334500</v>
       </c>
       <c r="E46" s="3">
-        <v>318700</v>
+        <v>297700</v>
       </c>
       <c r="F46" s="3">
-        <v>422100</v>
+        <v>394300</v>
       </c>
       <c r="G46" s="3">
-        <v>458300</v>
+        <v>428100</v>
       </c>
       <c r="H46" s="3">
-        <v>292100</v>
+        <v>272800</v>
       </c>
       <c r="I46" s="3">
-        <v>278500</v>
+        <v>260200</v>
       </c>
       <c r="J46" s="3">
-        <v>353200</v>
+        <v>330000</v>
       </c>
       <c r="K46" s="3">
         <v>328200</v>
@@ -2759,8 +2759,8 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>4800</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -2772,7 +2772,7 @@
         <v>3</v>
       </c>
       <c r="H47" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2819,25 +2819,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31300</v>
+        <v>29200</v>
       </c>
       <c r="E48" s="3">
-        <v>34900</v>
+        <v>32600</v>
       </c>
       <c r="F48" s="3">
-        <v>31700</v>
+        <v>29600</v>
       </c>
       <c r="G48" s="3">
-        <v>23800</v>
+        <v>22200</v>
       </c>
       <c r="H48" s="3">
-        <v>23900</v>
+        <v>22300</v>
       </c>
       <c r="I48" s="3">
-        <v>19400</v>
+        <v>18100</v>
       </c>
       <c r="J48" s="3">
-        <v>12700</v>
+        <v>11900</v>
       </c>
       <c r="K48" s="3">
         <v>7600</v>
@@ -2878,25 +2878,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>16200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3055,25 +3055,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26200</v>
+        <v>3500</v>
       </c>
       <c r="E52" s="3">
-        <v>33300</v>
+        <v>31100</v>
       </c>
       <c r="F52" s="3">
-        <v>16300</v>
+        <v>15200</v>
       </c>
       <c r="G52" s="3">
-        <v>12500</v>
+        <v>11600</v>
       </c>
       <c r="H52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I52" s="3">
         <v>3900</v>
       </c>
-      <c r="I52" s="3">
-        <v>4200</v>
-      </c>
       <c r="J52" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="K52" s="3">
         <v>2100</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>415600</v>
+        <v>388200</v>
       </c>
       <c r="E54" s="3">
-        <v>386900</v>
+        <v>361400</v>
       </c>
       <c r="F54" s="3">
-        <v>470100</v>
+        <v>439100</v>
       </c>
       <c r="G54" s="3">
-        <v>494500</v>
+        <v>461900</v>
       </c>
       <c r="H54" s="3">
-        <v>326600</v>
+        <v>305100</v>
       </c>
       <c r="I54" s="3">
-        <v>302100</v>
+        <v>282200</v>
       </c>
       <c r="J54" s="3">
-        <v>369400</v>
+        <v>345100</v>
       </c>
       <c r="K54" s="3">
         <v>337900</v>
@@ -3278,25 +3278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25400</v>
+        <v>23700</v>
       </c>
       <c r="E57" s="3">
-        <v>18400</v>
+        <v>17200</v>
       </c>
       <c r="F57" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="G57" s="3">
-        <v>19800</v>
+        <v>18500</v>
       </c>
       <c r="H57" s="3">
-        <v>22300</v>
+        <v>20800</v>
       </c>
       <c r="I57" s="3">
-        <v>18800</v>
+        <v>17600</v>
       </c>
       <c r="J57" s="3">
-        <v>16200</v>
+        <v>15200</v>
       </c>
       <c r="K57" s="3">
         <v>14900</v>
@@ -3337,25 +3337,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>138500</v>
+        <v>129400</v>
       </c>
       <c r="E58" s="3">
-        <v>138500</v>
+        <v>129400</v>
       </c>
       <c r="F58" s="3">
-        <v>138500</v>
+        <v>129400</v>
       </c>
       <c r="G58" s="3">
-        <v>138500</v>
+        <v>129400</v>
       </c>
       <c r="H58" s="3">
-        <v>138500</v>
+        <v>129400</v>
       </c>
       <c r="I58" s="3">
-        <v>138500</v>
+        <v>129400</v>
       </c>
       <c r="J58" s="3">
-        <v>138500</v>
+        <v>129400</v>
       </c>
       <c r="K58" s="3">
         <v>137500</v>
@@ -3396,25 +3396,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>314700</v>
+        <v>294000</v>
       </c>
       <c r="E59" s="3">
-        <v>325800</v>
+        <v>304300</v>
       </c>
       <c r="F59" s="3">
-        <v>417000</v>
+        <v>389500</v>
       </c>
       <c r="G59" s="3">
-        <v>354200</v>
+        <v>330800</v>
       </c>
       <c r="H59" s="3">
-        <v>374600</v>
+        <v>349900</v>
       </c>
       <c r="I59" s="3">
-        <v>287100</v>
+        <v>268200</v>
       </c>
       <c r="J59" s="3">
-        <v>219100</v>
+        <v>204700</v>
       </c>
       <c r="K59" s="3">
         <v>157000</v>
@@ -3455,25 +3455,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>478600</v>
+        <v>447100</v>
       </c>
       <c r="E60" s="3">
-        <v>482800</v>
+        <v>451000</v>
       </c>
       <c r="F60" s="3">
-        <v>567300</v>
+        <v>529900</v>
       </c>
       <c r="G60" s="3">
-        <v>512500</v>
+        <v>478700</v>
       </c>
       <c r="H60" s="3">
-        <v>535400</v>
+        <v>500100</v>
       </c>
       <c r="I60" s="3">
-        <v>444400</v>
+        <v>415100</v>
       </c>
       <c r="J60" s="3">
-        <v>373900</v>
+        <v>349200</v>
       </c>
       <c r="K60" s="3">
         <v>309300</v>
@@ -3514,7 +3514,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>37600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3573,25 +3573,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>52100</v>
+        <v>11100</v>
       </c>
       <c r="E62" s="3">
-        <v>16800</v>
+        <v>15700</v>
       </c>
       <c r="F62" s="3">
-        <v>15300</v>
+        <v>14300</v>
       </c>
       <c r="G62" s="3">
+        <v>11500</v>
+      </c>
+      <c r="H62" s="3">
         <v>12300</v>
       </c>
-      <c r="H62" s="3">
-        <v>13200</v>
-      </c>
       <c r="I62" s="3">
-        <v>11000</v>
+        <v>10300</v>
       </c>
       <c r="J62" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="K62" s="3">
         <v>3900</v>
@@ -3809,25 +3809,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>542900</v>
+        <v>507100</v>
       </c>
       <c r="E66" s="3">
-        <v>515600</v>
+        <v>481600</v>
       </c>
       <c r="F66" s="3">
-        <v>582500</v>
+        <v>544100</v>
       </c>
       <c r="G66" s="3">
-        <v>524800</v>
+        <v>490200</v>
       </c>
       <c r="H66" s="3">
-        <v>548700</v>
+        <v>512600</v>
       </c>
       <c r="I66" s="3">
-        <v>455600</v>
+        <v>425500</v>
       </c>
       <c r="J66" s="3">
-        <v>380900</v>
+        <v>355800</v>
       </c>
       <c r="K66" s="3">
         <v>313400</v>
@@ -4139,7 +4139,7 @@
         <v>3</v>
       </c>
       <c r="H72" s="3">
-        <v>-579200</v>
+        <v>-541000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -4363,25 +4363,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-127300</v>
+        <v>-118900</v>
       </c>
       <c r="E76" s="3">
-        <v>-128800</v>
+        <v>-120300</v>
       </c>
       <c r="F76" s="3">
-        <v>-112300</v>
+        <v>-104900</v>
       </c>
       <c r="G76" s="3">
-        <v>-30300</v>
+        <v>-28300</v>
       </c>
       <c r="H76" s="3">
-        <v>-222100</v>
+        <v>-207500</v>
       </c>
       <c r="I76" s="3">
-        <v>-153400</v>
+        <v>-143300</v>
       </c>
       <c r="J76" s="3">
-        <v>-11500</v>
+        <v>-10700</v>
       </c>
       <c r="K76" s="3">
         <v>24500</v>
@@ -4545,25 +4545,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2600</v>
+        <v>-146700</v>
       </c>
       <c r="E81" s="3">
-        <v>-154500</v>
+        <v>-19000</v>
       </c>
       <c r="F81" s="3">
-        <v>-82700</v>
+        <v>-77300</v>
       </c>
       <c r="G81" s="3">
-        <v>-51400</v>
+        <v>-48000</v>
       </c>
       <c r="H81" s="3">
-        <v>-70600</v>
+        <v>-66000</v>
       </c>
       <c r="I81" s="3">
-        <v>-205900</v>
+        <v>-129400</v>
       </c>
       <c r="J81" s="3">
-        <v>-40700</v>
+        <v>-38000</v>
       </c>
       <c r="K81" s="3">
         <v>-26500</v>
@@ -4627,25 +4627,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1800</v>
+        <v>4400</v>
       </c>
       <c r="E83" s="3">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="F83" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G83" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H83" s="3">
         <v>700</v>
       </c>
       <c r="I83" s="3">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="J83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
@@ -4981,25 +4981,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-121800</v>
+        <v>-198400</v>
       </c>
       <c r="E89" s="3">
-        <v>220200</v>
+        <v>92600</v>
       </c>
       <c r="F89" s="3">
-        <v>39300</v>
+        <v>36700</v>
       </c>
       <c r="G89" s="3">
-        <v>81700</v>
+        <v>76300</v>
       </c>
       <c r="H89" s="3">
-        <v>-166900</v>
+        <v>-155900</v>
       </c>
       <c r="I89" s="3">
-        <v>116100</v>
+        <v>87400</v>
       </c>
       <c r="J89" s="3">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -5063,25 +5063,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2900</v>
+        <v>-9400</v>
       </c>
       <c r="E91" s="3">
-        <v>-7200</v>
+        <v>-3300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="G91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-3300</v>
-      </c>
       <c r="J91" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="K91" s="3">
         <v>-700</v>

--- a/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,295 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>591800</v>
+        <v>139600</v>
       </c>
       <c r="E8" s="3">
-        <v>204400</v>
+        <v>175300</v>
       </c>
       <c r="F8" s="3">
-        <v>190600</v>
+        <v>586400</v>
       </c>
       <c r="G8" s="3">
-        <v>197400</v>
+        <v>202600</v>
       </c>
       <c r="H8" s="3">
-        <v>68700</v>
+        <v>143100</v>
       </c>
       <c r="I8" s="3">
+        <v>138400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K8" s="3">
         <v>132000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>91800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>84800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>63200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>53300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>49300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>34300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>33400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>25300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>27000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>19300</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>298700</v>
+        <v>79800</v>
       </c>
       <c r="E9" s="3">
-        <v>88700</v>
+        <v>81600</v>
       </c>
       <c r="F9" s="3">
-        <v>90900</v>
+        <v>296000</v>
       </c>
       <c r="G9" s="3">
-        <v>84400</v>
+        <v>87900</v>
       </c>
       <c r="H9" s="3">
-        <v>128000</v>
+        <v>70100</v>
       </c>
       <c r="I9" s="3">
+        <v>65900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K9" s="3">
         <v>71400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>50400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>47900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>44300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>39500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>33100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>26300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>23500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>19400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>17200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>13900</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>293100</v>
+        <v>59800</v>
       </c>
       <c r="E10" s="3">
-        <v>115800</v>
+        <v>93700</v>
       </c>
       <c r="F10" s="3">
-        <v>99700</v>
+        <v>290400</v>
       </c>
       <c r="G10" s="3">
-        <v>113100</v>
+        <v>114700</v>
       </c>
       <c r="H10" s="3">
-        <v>-59300</v>
+        <v>73000</v>
       </c>
       <c r="I10" s="3">
+        <v>72500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-58800</v>
+      </c>
+      <c r="K10" s="3">
         <v>60600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>41500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>36900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>18800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>13700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>16200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>8000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>9900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>5900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>9800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>5400</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +975,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>89500</v>
+        <v>30400</v>
       </c>
       <c r="E12" s="3">
-        <v>28500</v>
+        <v>29600</v>
       </c>
       <c r="F12" s="3">
-        <v>26500</v>
+        <v>88700</v>
       </c>
       <c r="G12" s="3">
-        <v>22900</v>
+        <v>28200</v>
       </c>
       <c r="H12" s="3">
-        <v>11200</v>
+        <v>21300</v>
       </c>
       <c r="I12" s="3">
+        <v>18600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K12" s="3">
         <v>17800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>13500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>13200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>13700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>11500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>8600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>8300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>7300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>7700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>5400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>6100</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,19 +1101,25 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>8400</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>8300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1093,11 +1133,11 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1126,8 +1166,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>730800</v>
+        <v>206100</v>
       </c>
       <c r="E17" s="3">
-        <v>223500</v>
+        <v>193600</v>
       </c>
       <c r="F17" s="3">
-        <v>270800</v>
+        <v>724200</v>
       </c>
       <c r="G17" s="3">
-        <v>244700</v>
+        <v>221500</v>
       </c>
       <c r="H17" s="3">
+        <v>180300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>169700</v>
+      </c>
+      <c r="J17" s="3">
         <v>-5200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>263800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>133600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>112300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>94600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>89400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>62000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>46400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>40700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>37800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>31300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>26700</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-139000</v>
+        <v>-66500</v>
       </c>
       <c r="E18" s="3">
-        <v>-19100</v>
+        <v>-18300</v>
       </c>
       <c r="F18" s="3">
-        <v>-80200</v>
+        <v>-137700</v>
       </c>
       <c r="G18" s="3">
-        <v>-47300</v>
+        <v>-18900</v>
       </c>
       <c r="H18" s="3">
-        <v>73900</v>
+        <v>-37200</v>
       </c>
       <c r="I18" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>73200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-131700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-41700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-27600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-31400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-36100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-12700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-12000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-12400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-4400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-7500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,146 +1412,160 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8200</v>
+        <v>800</v>
       </c>
       <c r="E20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-126400</v>
+        <v>-64100</v>
       </c>
       <c r="E21" s="3">
-        <v>-17000</v>
+        <v>-11500</v>
       </c>
       <c r="F21" s="3">
-        <v>-74900</v>
+        <v>-125200</v>
       </c>
       <c r="G21" s="3">
-        <v>-46000</v>
+        <v>-16800</v>
       </c>
       <c r="H21" s="3">
-        <v>75400</v>
+        <v>-32000</v>
       </c>
       <c r="I21" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>74700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-128700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-37500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-25600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-30700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-35000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>-2300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4700</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F22" s="3">
-        <v>1100</v>
+        <v>4600</v>
       </c>
       <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1499,11 +1579,11 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1523,126 +1603,144 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-135500</v>
+        <v>-67200</v>
       </c>
       <c r="E23" s="3">
-        <v>-19200</v>
+        <v>-14000</v>
       </c>
       <c r="F23" s="3">
-        <v>-76900</v>
+        <v>-134300</v>
       </c>
       <c r="G23" s="3">
-        <v>-47900</v>
+        <v>-19100</v>
       </c>
       <c r="H23" s="3">
-        <v>74700</v>
+        <v>-34000</v>
       </c>
       <c r="I23" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-129400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-38000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-26200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-31200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-35400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-11500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-13900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-9300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-8500</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
-      </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
         <v>500</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>500</v>
-      </c>
-      <c r="R24" s="3">
-        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>200</v>
+      </c>
+      <c r="U24" s="3">
+        <v>500</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-136500</v>
+        <v>-67300</v>
       </c>
       <c r="E26" s="3">
-        <v>-19600</v>
+        <v>-14000</v>
       </c>
       <c r="F26" s="3">
-        <v>-77400</v>
+        <v>-135200</v>
       </c>
       <c r="G26" s="3">
-        <v>-48100</v>
+        <v>-19400</v>
       </c>
       <c r="H26" s="3">
-        <v>74600</v>
+        <v>-34400</v>
       </c>
       <c r="I26" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-129400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-38000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-26500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-31200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-35500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-11600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-14000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-9800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-9000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-131900</v>
+        <v>-66300</v>
       </c>
       <c r="E27" s="3">
-        <v>-19000</v>
+        <v>-13900</v>
       </c>
       <c r="F27" s="3">
-        <v>-77300</v>
+        <v>-130800</v>
       </c>
       <c r="G27" s="3">
-        <v>-48000</v>
+        <v>-18800</v>
       </c>
       <c r="H27" s="3">
-        <v>74600</v>
+        <v>-34300</v>
       </c>
       <c r="I27" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-129400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-38000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-26500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-31700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-37300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-13400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-15500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-11200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-8900</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,37 +1993,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-14600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>-140600</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+        <v>-42300</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-139400</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2188,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8200</v>
+        <v>-800</v>
       </c>
       <c r="E32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-4400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-146700</v>
+        <v>-66300</v>
       </c>
       <c r="E33" s="3">
-        <v>-19000</v>
+        <v>-14800</v>
       </c>
       <c r="F33" s="3">
-        <v>-77300</v>
+        <v>-145400</v>
       </c>
       <c r="G33" s="3">
-        <v>-48000</v>
+        <v>-18800</v>
       </c>
       <c r="H33" s="3">
-        <v>-66000</v>
+        <v>-76600</v>
       </c>
       <c r="I33" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-129400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-38000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-26500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-31700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-37300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-13400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-15500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-11200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-8900</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-146700</v>
+        <v>-66300</v>
       </c>
       <c r="E35" s="3">
-        <v>-19000</v>
+        <v>-14800</v>
       </c>
       <c r="F35" s="3">
-        <v>-77300</v>
+        <v>-145400</v>
       </c>
       <c r="G35" s="3">
-        <v>-48000</v>
+        <v>-18800</v>
       </c>
       <c r="H35" s="3">
-        <v>-66000</v>
+        <v>-76600</v>
       </c>
       <c r="I35" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-129400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-38000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-26500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-31700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-37300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-13400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-15500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-11200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-8900</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,50 +2572,52 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47600</v>
+        <v>100400</v>
       </c>
       <c r="E41" s="3">
-        <v>72800</v>
+        <v>60600</v>
       </c>
       <c r="F41" s="3">
-        <v>122300</v>
+        <v>47100</v>
       </c>
       <c r="G41" s="3">
-        <v>272400</v>
+        <v>72100</v>
       </c>
       <c r="H41" s="3">
-        <v>89800</v>
+        <v>121200</v>
       </c>
       <c r="I41" s="3">
+        <v>270000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>89000</v>
+      </c>
+      <c r="K41" s="3">
         <v>11500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>18500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>20100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>26700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,50 +2633,56 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>74300</v>
+        <v>3100</v>
       </c>
       <c r="E42" s="3">
-        <v>60400</v>
+        <v>900</v>
       </c>
       <c r="F42" s="3">
-        <v>151800</v>
+        <v>73600</v>
       </c>
       <c r="G42" s="3">
-        <v>49800</v>
+        <v>59800</v>
       </c>
       <c r="H42" s="3">
-        <v>86200</v>
+        <v>150500</v>
       </c>
       <c r="I42" s="3">
+        <v>49300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>85500</v>
+      </c>
+      <c r="K42" s="3">
         <v>155400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>245400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>242400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>222800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>16200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>38000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2518,50 +2698,56 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>37500</v>
+        <v>51500</v>
       </c>
       <c r="E43" s="3">
-        <v>36600</v>
+        <v>43900</v>
       </c>
       <c r="F43" s="3">
-        <v>45900</v>
+        <v>37200</v>
       </c>
       <c r="G43" s="3">
-        <v>37100</v>
+        <v>36300</v>
       </c>
       <c r="H43" s="3">
-        <v>40200</v>
+        <v>45500</v>
       </c>
       <c r="I43" s="3">
+        <v>36800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K43" s="3">
         <v>50100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>34900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>36800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>33200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>27800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>31100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,50 +2763,56 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>37600</v>
+        <v>31000</v>
       </c>
       <c r="E44" s="3">
-        <v>39400</v>
+        <v>31200</v>
       </c>
       <c r="F44" s="3">
-        <v>40000</v>
+        <v>37300</v>
       </c>
       <c r="G44" s="3">
-        <v>39600</v>
+        <v>39100</v>
       </c>
       <c r="H44" s="3">
-        <v>21900</v>
+        <v>39700</v>
       </c>
       <c r="I44" s="3">
+        <v>39200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K44" s="3">
         <v>13500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>13700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>10300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>11300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>8100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>5000</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2636,50 +2828,56 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>137500</v>
+        <v>109500</v>
       </c>
       <c r="E45" s="3">
-        <v>88500</v>
+        <v>136600</v>
       </c>
       <c r="F45" s="3">
-        <v>34300</v>
+        <v>136200</v>
       </c>
       <c r="G45" s="3">
-        <v>29200</v>
+        <v>87700</v>
       </c>
       <c r="H45" s="3">
-        <v>34700</v>
+        <v>34000</v>
       </c>
       <c r="I45" s="3">
+        <v>28900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K45" s="3">
         <v>29600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>17500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>18600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>18600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>16200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>11300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,50 +2893,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>334500</v>
+        <v>295400</v>
       </c>
       <c r="E46" s="3">
-        <v>297700</v>
+        <v>273200</v>
       </c>
       <c r="F46" s="3">
-        <v>394300</v>
+        <v>331400</v>
       </c>
       <c r="G46" s="3">
-        <v>428100</v>
+        <v>295000</v>
       </c>
       <c r="H46" s="3">
-        <v>272800</v>
+        <v>390800</v>
       </c>
       <c r="I46" s="3">
+        <v>424200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>270400</v>
+      </c>
+      <c r="K46" s="3">
         <v>260200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>330000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>328200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>312600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>76800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>93400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,31 +2958,37 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4800</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>10300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4700</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
-        <v>6300</v>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>6200</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2789,11 +2999,11 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2813,50 +3023,56 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29200</v>
+        <v>28800</v>
       </c>
       <c r="E48" s="3">
-        <v>32600</v>
+        <v>30000</v>
       </c>
       <c r="F48" s="3">
-        <v>29600</v>
+        <v>29000</v>
       </c>
       <c r="G48" s="3">
-        <v>22200</v>
+        <v>32300</v>
       </c>
       <c r="H48" s="3">
-        <v>22300</v>
+        <v>29300</v>
       </c>
       <c r="I48" s="3">
+        <v>22000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K48" s="3">
         <v>18100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>11900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3500</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,19 +3088,25 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16200</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>16100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>16100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2898,11 +3120,11 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2931,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,50 +3283,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3500</v>
+        <v>5400</v>
       </c>
       <c r="E52" s="3">
-        <v>31100</v>
+        <v>5200</v>
       </c>
       <c r="F52" s="3">
-        <v>15200</v>
+        <v>3400</v>
       </c>
       <c r="G52" s="3">
-        <v>11600</v>
+        <v>30800</v>
       </c>
       <c r="H52" s="3">
+        <v>15100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,50 +3413,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>388200</v>
+        <v>356000</v>
       </c>
       <c r="E54" s="3">
-        <v>361400</v>
+        <v>328500</v>
       </c>
       <c r="F54" s="3">
-        <v>439100</v>
+        <v>384700</v>
       </c>
       <c r="G54" s="3">
-        <v>461900</v>
+        <v>358100</v>
       </c>
       <c r="H54" s="3">
-        <v>305100</v>
+        <v>435200</v>
       </c>
       <c r="I54" s="3">
+        <v>457800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>302300</v>
+      </c>
+      <c r="K54" s="3">
         <v>282200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>345100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>337900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>321300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>83700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>97700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3478,14 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,50 +3532,52 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23700</v>
+        <v>22200</v>
       </c>
       <c r="E57" s="3">
-        <v>17200</v>
+        <v>19400</v>
       </c>
       <c r="F57" s="3">
-        <v>11000</v>
+        <v>23500</v>
       </c>
       <c r="G57" s="3">
-        <v>18500</v>
+        <v>17100</v>
       </c>
       <c r="H57" s="3">
-        <v>20800</v>
+        <v>10900</v>
       </c>
       <c r="I57" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K57" s="3">
         <v>17600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>15200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>14900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>9700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>7200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>5300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,50 +3593,56 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>128200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>128200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>128200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>128200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>128200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>128200</v>
+      </c>
+      <c r="K58" s="3">
         <v>129400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="L58" s="3">
         <v>129400</v>
       </c>
-      <c r="F58" s="3">
-        <v>129400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>129400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>129400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>129400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>129400</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>137500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>135200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>135200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>134100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3390,50 +3658,56 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>294000</v>
+        <v>313600</v>
       </c>
       <c r="E59" s="3">
-        <v>304300</v>
+        <v>239700</v>
       </c>
       <c r="F59" s="3">
-        <v>389500</v>
+        <v>291300</v>
       </c>
       <c r="G59" s="3">
-        <v>330800</v>
+        <v>301600</v>
       </c>
       <c r="H59" s="3">
-        <v>349900</v>
+        <v>386000</v>
       </c>
       <c r="I59" s="3">
+        <v>327900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>346700</v>
+      </c>
+      <c r="K59" s="3">
         <v>268200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>204700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>157000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>126000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>93900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>76900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,50 +3723,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>447100</v>
+        <v>464000</v>
       </c>
       <c r="E60" s="3">
-        <v>451000</v>
+        <v>387400</v>
       </c>
       <c r="F60" s="3">
-        <v>529900</v>
+        <v>443000</v>
       </c>
       <c r="G60" s="3">
-        <v>478700</v>
+        <v>446900</v>
       </c>
       <c r="H60" s="3">
-        <v>500100</v>
+        <v>525100</v>
       </c>
       <c r="I60" s="3">
+        <v>474400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>495600</v>
+      </c>
+      <c r="K60" s="3">
         <v>415100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>349200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>309300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>270800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>236300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>216400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,19 +3788,25 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37600</v>
+        <v>68600</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>51000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>37200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3567,47 +3853,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11100</v>
+        <v>9100</v>
       </c>
       <c r="E62" s="3">
-        <v>15700</v>
+        <v>8200</v>
       </c>
       <c r="F62" s="3">
-        <v>14300</v>
+        <v>11000</v>
       </c>
       <c r="G62" s="3">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="H62" s="3">
-        <v>12300</v>
+        <v>14100</v>
       </c>
       <c r="I62" s="3">
+        <v>11400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K62" s="3">
         <v>10300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>6400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>4100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3617,17 +3909,23 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,50 +4113,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>507100</v>
+        <v>551800</v>
       </c>
       <c r="E66" s="3">
-        <v>481600</v>
+        <v>457600</v>
       </c>
       <c r="F66" s="3">
-        <v>544100</v>
+        <v>502500</v>
       </c>
       <c r="G66" s="3">
-        <v>490200</v>
+        <v>477300</v>
       </c>
       <c r="H66" s="3">
-        <v>512600</v>
+        <v>539100</v>
       </c>
       <c r="I66" s="3">
+        <v>485800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>507900</v>
+      </c>
+      <c r="K66" s="3">
         <v>425500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>355800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>313400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>275100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>238600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>216600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4178,14 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4036,17 +4372,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>75900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>73600</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,8 +4463,14 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4138,33 +4486,33 @@
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H72" s="3">
-        <v>-541000</v>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>-536100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3">
         <v>-295400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3">
         <v>-224700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4528,14 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,50 +4723,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-118900</v>
+        <v>-195800</v>
       </c>
       <c r="E76" s="3">
-        <v>-120300</v>
+        <v>-129100</v>
       </c>
       <c r="F76" s="3">
-        <v>-104900</v>
+        <v>-117900</v>
       </c>
       <c r="G76" s="3">
-        <v>-28300</v>
+        <v>-119200</v>
       </c>
       <c r="H76" s="3">
-        <v>-207500</v>
+        <v>-104000</v>
       </c>
       <c r="I76" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-205600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-143300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-10700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>24500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>46200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-230800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-192500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4788,14 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-146700</v>
+        <v>-66300</v>
       </c>
       <c r="E81" s="3">
-        <v>-19000</v>
+        <v>-14800</v>
       </c>
       <c r="F81" s="3">
-        <v>-77300</v>
+        <v>-145400</v>
       </c>
       <c r="G81" s="3">
-        <v>-48000</v>
+        <v>-18800</v>
       </c>
       <c r="H81" s="3">
-        <v>-66000</v>
+        <v>-76600</v>
       </c>
       <c r="I81" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-129400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-38000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-26500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-31700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-37300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-13400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-15500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-11200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-8900</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,47 +5017,49 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F83" s="3">
         <v>4400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>500</v>
       </c>
       <c r="L83" s="3">
         <v>500</v>
       </c>
       <c r="M83" s="3">
+        <v>500</v>
+      </c>
+      <c r="N83" s="3">
+        <v>500</v>
+      </c>
+      <c r="O83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4671,17 +5069,23 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,47 +5403,53 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-198400</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>92600</v>
+        <v>62200</v>
       </c>
       <c r="F89" s="3">
-        <v>36700</v>
+        <v>-196600</v>
       </c>
       <c r="G89" s="3">
-        <v>76300</v>
+        <v>91800</v>
       </c>
       <c r="H89" s="3">
-        <v>-155900</v>
+        <v>36400</v>
       </c>
       <c r="I89" s="3">
+        <v>75600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-154500</v>
+      </c>
+      <c r="K89" s="3">
         <v>87400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>21000</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-48300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>21900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5025,17 +5459,23 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,46 +5497,48 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-9400</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-3300</v>
+        <v>-900</v>
       </c>
       <c r="F91" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-700</v>
       </c>
       <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-700</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -5107,17 +5549,23 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5688,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +6038,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +6103,14 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +6168,14 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +6231,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>139600</v>
+        <v>133100</v>
       </c>
       <c r="E8" s="3">
-        <v>175300</v>
+        <v>167100</v>
       </c>
       <c r="F8" s="3">
-        <v>586400</v>
+        <v>559000</v>
       </c>
       <c r="G8" s="3">
-        <v>202600</v>
+        <v>193100</v>
       </c>
       <c r="H8" s="3">
-        <v>143100</v>
+        <v>136400</v>
       </c>
       <c r="I8" s="3">
-        <v>138400</v>
+        <v>132000</v>
       </c>
       <c r="J8" s="3">
-        <v>68100</v>
+        <v>64900</v>
       </c>
       <c r="K8" s="3">
         <v>132000</v>
@@ -828,25 +828,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>79800</v>
+        <v>76100</v>
       </c>
       <c r="E9" s="3">
-        <v>81600</v>
+        <v>77800</v>
       </c>
       <c r="F9" s="3">
-        <v>296000</v>
+        <v>282200</v>
       </c>
       <c r="G9" s="3">
-        <v>87900</v>
+        <v>83800</v>
       </c>
       <c r="H9" s="3">
-        <v>70100</v>
+        <v>66800</v>
       </c>
       <c r="I9" s="3">
-        <v>65900</v>
+        <v>62900</v>
       </c>
       <c r="J9" s="3">
-        <v>126900</v>
+        <v>120900</v>
       </c>
       <c r="K9" s="3">
         <v>71400</v>
@@ -893,25 +893,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>59800</v>
+        <v>57000</v>
       </c>
       <c r="E10" s="3">
-        <v>93700</v>
+        <v>89300</v>
       </c>
       <c r="F10" s="3">
-        <v>290400</v>
+        <v>276800</v>
       </c>
       <c r="G10" s="3">
-        <v>114700</v>
+        <v>109300</v>
       </c>
       <c r="H10" s="3">
-        <v>73000</v>
+        <v>69600</v>
       </c>
       <c r="I10" s="3">
-        <v>72500</v>
+        <v>69100</v>
       </c>
       <c r="J10" s="3">
-        <v>-58800</v>
+        <v>-56100</v>
       </c>
       <c r="K10" s="3">
         <v>60600</v>
@@ -983,25 +983,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>30400</v>
+        <v>29000</v>
       </c>
       <c r="E12" s="3">
-        <v>29600</v>
+        <v>28300</v>
       </c>
       <c r="F12" s="3">
-        <v>88700</v>
+        <v>84500</v>
       </c>
       <c r="G12" s="3">
-        <v>28200</v>
+        <v>26900</v>
       </c>
       <c r="H12" s="3">
-        <v>21300</v>
+        <v>20300</v>
       </c>
       <c r="I12" s="3">
-        <v>18600</v>
+        <v>17800</v>
       </c>
       <c r="J12" s="3">
-        <v>11100</v>
+        <v>10500</v>
       </c>
       <c r="K12" s="3">
         <v>17800</v>
@@ -1119,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1265,25 +1265,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>206100</v>
+        <v>196500</v>
       </c>
       <c r="E17" s="3">
-        <v>193600</v>
+        <v>184500</v>
       </c>
       <c r="F17" s="3">
-        <v>724200</v>
+        <v>690300</v>
       </c>
       <c r="G17" s="3">
-        <v>221500</v>
+        <v>211100</v>
       </c>
       <c r="H17" s="3">
-        <v>180300</v>
+        <v>171900</v>
       </c>
       <c r="I17" s="3">
-        <v>169700</v>
+        <v>161800</v>
       </c>
       <c r="J17" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="K17" s="3">
         <v>263800</v>
@@ -1330,25 +1330,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-66500</v>
+        <v>-63400</v>
       </c>
       <c r="E18" s="3">
-        <v>-18300</v>
+        <v>-17400</v>
       </c>
       <c r="F18" s="3">
-        <v>-137700</v>
+        <v>-131300</v>
       </c>
       <c r="G18" s="3">
-        <v>-18900</v>
+        <v>-18000</v>
       </c>
       <c r="H18" s="3">
-        <v>-37200</v>
+        <v>-35500</v>
       </c>
       <c r="I18" s="3">
-        <v>-31300</v>
+        <v>-29800</v>
       </c>
       <c r="J18" s="3">
-        <v>73200</v>
+        <v>69800</v>
       </c>
       <c r="K18" s="3">
         <v>-131700</v>
@@ -1420,25 +1420,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E20" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="F20" s="3">
-        <v>8100</v>
+        <v>7700</v>
       </c>
       <c r="G20" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H20" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="I20" s="3">
         <v>500</v>
       </c>
       <c r="J20" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K20" s="3">
         <v>2400</v>
@@ -1485,25 +1485,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-64100</v>
+        <v>-61100</v>
       </c>
       <c r="E21" s="3">
-        <v>-11500</v>
+        <v>-11000</v>
       </c>
       <c r="F21" s="3">
-        <v>-125200</v>
+        <v>-119400</v>
       </c>
       <c r="G21" s="3">
-        <v>-16800</v>
+        <v>-16000</v>
       </c>
       <c r="H21" s="3">
-        <v>-32000</v>
+        <v>-30500</v>
       </c>
       <c r="I21" s="3">
-        <v>-30000</v>
+        <v>-28600</v>
       </c>
       <c r="J21" s="3">
-        <v>74700</v>
+        <v>71200</v>
       </c>
       <c r="K21" s="3">
         <v>-128700</v>
@@ -1550,13 +1550,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F22" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="G22" s="3">
         <v>1100</v>
@@ -1615,25 +1615,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-67200</v>
+        <v>-64000</v>
       </c>
       <c r="E23" s="3">
-        <v>-14000</v>
+        <v>-13300</v>
       </c>
       <c r="F23" s="3">
-        <v>-134300</v>
+        <v>-128000</v>
       </c>
       <c r="G23" s="3">
-        <v>-19100</v>
+        <v>-18200</v>
       </c>
       <c r="H23" s="3">
-        <v>-34000</v>
+        <v>-32400</v>
       </c>
       <c r="I23" s="3">
-        <v>-31900</v>
+        <v>-30400</v>
       </c>
       <c r="J23" s="3">
-        <v>74000</v>
+        <v>70600</v>
       </c>
       <c r="K23" s="3">
         <v>-129400</v>
@@ -1686,7 +1686,7 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G24" s="3">
         <v>400</v>
@@ -1810,25 +1810,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-67300</v>
+        <v>-64100</v>
       </c>
       <c r="E26" s="3">
-        <v>-14000</v>
+        <v>-13400</v>
       </c>
       <c r="F26" s="3">
-        <v>-135200</v>
+        <v>-128900</v>
       </c>
       <c r="G26" s="3">
-        <v>-19400</v>
+        <v>-18500</v>
       </c>
       <c r="H26" s="3">
-        <v>-34400</v>
+        <v>-32800</v>
       </c>
       <c r="I26" s="3">
-        <v>-32100</v>
+        <v>-30600</v>
       </c>
       <c r="J26" s="3">
-        <v>73900</v>
+        <v>70500</v>
       </c>
       <c r="K26" s="3">
         <v>-129400</v>
@@ -1875,25 +1875,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-66300</v>
+        <v>-63200</v>
       </c>
       <c r="E27" s="3">
-        <v>-13900</v>
+        <v>-13300</v>
       </c>
       <c r="F27" s="3">
-        <v>-130800</v>
+        <v>-124600</v>
       </c>
       <c r="G27" s="3">
-        <v>-18800</v>
+        <v>-17900</v>
       </c>
       <c r="H27" s="3">
-        <v>-34300</v>
+        <v>-32700</v>
       </c>
       <c r="I27" s="3">
-        <v>-32000</v>
+        <v>-30500</v>
       </c>
       <c r="J27" s="3">
-        <v>74000</v>
+        <v>70500</v>
       </c>
       <c r="K27" s="3">
         <v>-129400</v>
@@ -2008,22 +2008,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F29" s="3">
-        <v>-14600</v>
+        <v>-14000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>-42300</v>
+        <v>-40300</v>
       </c>
       <c r="I29" s="3">
-        <v>-15600</v>
+        <v>-14800</v>
       </c>
       <c r="J29" s="3">
-        <v>-139400</v>
+        <v>-132800</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
@@ -2200,25 +2200,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="E32" s="3">
-        <v>-5600</v>
+        <v>-5300</v>
       </c>
       <c r="F32" s="3">
-        <v>-8100</v>
+        <v>-7700</v>
       </c>
       <c r="G32" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="H32" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="I32" s="3">
         <v>-500</v>
       </c>
       <c r="J32" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="K32" s="3">
         <v>-2400</v>
@@ -2265,25 +2265,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-66300</v>
+        <v>-63200</v>
       </c>
       <c r="E33" s="3">
-        <v>-14800</v>
+        <v>-14100</v>
       </c>
       <c r="F33" s="3">
-        <v>-145400</v>
+        <v>-138600</v>
       </c>
       <c r="G33" s="3">
-        <v>-18800</v>
+        <v>-17900</v>
       </c>
       <c r="H33" s="3">
-        <v>-76600</v>
+        <v>-73000</v>
       </c>
       <c r="I33" s="3">
-        <v>-47600</v>
+        <v>-45400</v>
       </c>
       <c r="J33" s="3">
-        <v>-65400</v>
+        <v>-62300</v>
       </c>
       <c r="K33" s="3">
         <v>-129400</v>
@@ -2395,25 +2395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-66300</v>
+        <v>-63200</v>
       </c>
       <c r="E35" s="3">
-        <v>-14800</v>
+        <v>-14100</v>
       </c>
       <c r="F35" s="3">
-        <v>-145400</v>
+        <v>-138600</v>
       </c>
       <c r="G35" s="3">
-        <v>-18800</v>
+        <v>-17900</v>
       </c>
       <c r="H35" s="3">
-        <v>-76600</v>
+        <v>-73000</v>
       </c>
       <c r="I35" s="3">
-        <v>-47600</v>
+        <v>-45400</v>
       </c>
       <c r="J35" s="3">
-        <v>-65400</v>
+        <v>-62300</v>
       </c>
       <c r="K35" s="3">
         <v>-129400</v>
@@ -2580,25 +2580,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100400</v>
+        <v>95700</v>
       </c>
       <c r="E41" s="3">
-        <v>60600</v>
+        <v>57800</v>
       </c>
       <c r="F41" s="3">
-        <v>47100</v>
+        <v>44900</v>
       </c>
       <c r="G41" s="3">
-        <v>72100</v>
+        <v>68700</v>
       </c>
       <c r="H41" s="3">
-        <v>121200</v>
+        <v>115500</v>
       </c>
       <c r="I41" s="3">
-        <v>270000</v>
+        <v>257300</v>
       </c>
       <c r="J41" s="3">
-        <v>89000</v>
+        <v>84800</v>
       </c>
       <c r="K41" s="3">
         <v>11500</v>
@@ -2645,25 +2645,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E42" s="3">
         <v>900</v>
       </c>
       <c r="F42" s="3">
-        <v>73600</v>
+        <v>70200</v>
       </c>
       <c r="G42" s="3">
-        <v>59800</v>
+        <v>57000</v>
       </c>
       <c r="H42" s="3">
-        <v>150500</v>
+        <v>143400</v>
       </c>
       <c r="I42" s="3">
-        <v>49300</v>
+        <v>47000</v>
       </c>
       <c r="J42" s="3">
-        <v>85500</v>
+        <v>81500</v>
       </c>
       <c r="K42" s="3">
         <v>155400</v>
@@ -2710,25 +2710,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>51500</v>
+        <v>49100</v>
       </c>
       <c r="E43" s="3">
-        <v>43900</v>
+        <v>41800</v>
       </c>
       <c r="F43" s="3">
-        <v>37200</v>
+        <v>35400</v>
       </c>
       <c r="G43" s="3">
-        <v>36300</v>
+        <v>34600</v>
       </c>
       <c r="H43" s="3">
-        <v>45500</v>
+        <v>43300</v>
       </c>
       <c r="I43" s="3">
-        <v>36800</v>
+        <v>35100</v>
       </c>
       <c r="J43" s="3">
-        <v>39900</v>
+        <v>38000</v>
       </c>
       <c r="K43" s="3">
         <v>50100</v>
@@ -2775,25 +2775,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="E44" s="3">
-        <v>31200</v>
+        <v>29800</v>
       </c>
       <c r="F44" s="3">
-        <v>37300</v>
+        <v>35600</v>
       </c>
       <c r="G44" s="3">
-        <v>39100</v>
+        <v>37200</v>
       </c>
       <c r="H44" s="3">
-        <v>39700</v>
+        <v>37800</v>
       </c>
       <c r="I44" s="3">
-        <v>39200</v>
+        <v>37400</v>
       </c>
       <c r="J44" s="3">
-        <v>21700</v>
+        <v>20700</v>
       </c>
       <c r="K44" s="3">
         <v>13500</v>
@@ -2840,25 +2840,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>109500</v>
+        <v>104400</v>
       </c>
       <c r="E45" s="3">
-        <v>136600</v>
+        <v>130200</v>
       </c>
       <c r="F45" s="3">
-        <v>136200</v>
+        <v>129900</v>
       </c>
       <c r="G45" s="3">
-        <v>87700</v>
+        <v>83600</v>
       </c>
       <c r="H45" s="3">
-        <v>34000</v>
+        <v>32400</v>
       </c>
       <c r="I45" s="3">
-        <v>28900</v>
+        <v>27600</v>
       </c>
       <c r="J45" s="3">
-        <v>34400</v>
+        <v>32800</v>
       </c>
       <c r="K45" s="3">
         <v>29600</v>
@@ -2905,25 +2905,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>295400</v>
+        <v>281600</v>
       </c>
       <c r="E46" s="3">
-        <v>273200</v>
+        <v>260400</v>
       </c>
       <c r="F46" s="3">
-        <v>331400</v>
+        <v>315900</v>
       </c>
       <c r="G46" s="3">
-        <v>295000</v>
+        <v>281200</v>
       </c>
       <c r="H46" s="3">
-        <v>390800</v>
+        <v>372500</v>
       </c>
       <c r="I46" s="3">
-        <v>424200</v>
+        <v>404400</v>
       </c>
       <c r="J46" s="3">
-        <v>270400</v>
+        <v>257700</v>
       </c>
       <c r="K46" s="3">
         <v>260200</v>
@@ -2970,13 +2970,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="E47" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="F47" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2988,7 +2988,7 @@
         <v>3</v>
       </c>
       <c r="J47" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -3035,25 +3035,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28800</v>
+        <v>27500</v>
       </c>
       <c r="E48" s="3">
-        <v>30000</v>
+        <v>28600</v>
       </c>
       <c r="F48" s="3">
-        <v>29000</v>
+        <v>27600</v>
       </c>
       <c r="G48" s="3">
-        <v>32300</v>
+        <v>30800</v>
       </c>
       <c r="H48" s="3">
-        <v>29300</v>
+        <v>28000</v>
       </c>
       <c r="I48" s="3">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="J48" s="3">
-        <v>22100</v>
+        <v>21100</v>
       </c>
       <c r="K48" s="3">
         <v>18100</v>
@@ -3100,13 +3100,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16100</v>
+        <v>15300</v>
       </c>
       <c r="E49" s="3">
-        <v>16100</v>
+        <v>15300</v>
       </c>
       <c r="F49" s="3">
-        <v>16100</v>
+        <v>15300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -3295,25 +3295,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="E52" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="F52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>29400</v>
+      </c>
+      <c r="H52" s="3">
+        <v>14400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J52" s="3">
         <v>3400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>30800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>15100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>11500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3600</v>
       </c>
       <c r="K52" s="3">
         <v>3900</v>
@@ -3425,25 +3425,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>356000</v>
+        <v>339400</v>
       </c>
       <c r="E54" s="3">
-        <v>328500</v>
+        <v>313100</v>
       </c>
       <c r="F54" s="3">
-        <v>384700</v>
+        <v>366700</v>
       </c>
       <c r="G54" s="3">
-        <v>358100</v>
+        <v>341300</v>
       </c>
       <c r="H54" s="3">
-        <v>435200</v>
+        <v>414800</v>
       </c>
       <c r="I54" s="3">
-        <v>457800</v>
+        <v>436300</v>
       </c>
       <c r="J54" s="3">
-        <v>302300</v>
+        <v>288200</v>
       </c>
       <c r="K54" s="3">
         <v>282200</v>
@@ -3540,25 +3540,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22200</v>
+        <v>21100</v>
       </c>
       <c r="E57" s="3">
-        <v>19400</v>
+        <v>18500</v>
       </c>
       <c r="F57" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="G57" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="H57" s="3">
-        <v>10900</v>
+        <v>10400</v>
       </c>
       <c r="I57" s="3">
-        <v>18300</v>
+        <v>17500</v>
       </c>
       <c r="J57" s="3">
-        <v>20600</v>
+        <v>19700</v>
       </c>
       <c r="K57" s="3">
         <v>17600</v>
@@ -3605,25 +3605,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>128200</v>
+        <v>122200</v>
       </c>
       <c r="E58" s="3">
-        <v>128200</v>
+        <v>122200</v>
       </c>
       <c r="F58" s="3">
-        <v>128200</v>
+        <v>122200</v>
       </c>
       <c r="G58" s="3">
-        <v>128200</v>
+        <v>122200</v>
       </c>
       <c r="H58" s="3">
-        <v>128200</v>
+        <v>122200</v>
       </c>
       <c r="I58" s="3">
-        <v>128200</v>
+        <v>122200</v>
       </c>
       <c r="J58" s="3">
-        <v>128200</v>
+        <v>122200</v>
       </c>
       <c r="K58" s="3">
         <v>129400</v>
@@ -3670,25 +3670,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>313600</v>
+        <v>298900</v>
       </c>
       <c r="E59" s="3">
-        <v>239700</v>
+        <v>228500</v>
       </c>
       <c r="F59" s="3">
-        <v>291300</v>
+        <v>277700</v>
       </c>
       <c r="G59" s="3">
-        <v>301600</v>
+        <v>287500</v>
       </c>
       <c r="H59" s="3">
-        <v>386000</v>
+        <v>367900</v>
       </c>
       <c r="I59" s="3">
-        <v>327900</v>
+        <v>312500</v>
       </c>
       <c r="J59" s="3">
-        <v>346700</v>
+        <v>330500</v>
       </c>
       <c r="K59" s="3">
         <v>268200</v>
@@ -3735,25 +3735,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>464000</v>
+        <v>442300</v>
       </c>
       <c r="E60" s="3">
-        <v>387400</v>
+        <v>369200</v>
       </c>
       <c r="F60" s="3">
-        <v>443000</v>
+        <v>422300</v>
       </c>
       <c r="G60" s="3">
-        <v>446900</v>
+        <v>426000</v>
       </c>
       <c r="H60" s="3">
-        <v>525100</v>
+        <v>500500</v>
       </c>
       <c r="I60" s="3">
-        <v>474400</v>
+        <v>452200</v>
       </c>
       <c r="J60" s="3">
-        <v>495600</v>
+        <v>472400</v>
       </c>
       <c r="K60" s="3">
         <v>415100</v>
@@ -3800,13 +3800,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>68600</v>
+        <v>65400</v>
       </c>
       <c r="E61" s="3">
-        <v>51000</v>
+        <v>48600</v>
       </c>
       <c r="F61" s="3">
-        <v>37200</v>
+        <v>35500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3865,25 +3865,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="E62" s="3">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="F62" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="G62" s="3">
-        <v>15500</v>
+        <v>14800</v>
       </c>
       <c r="H62" s="3">
-        <v>14100</v>
+        <v>13500</v>
       </c>
       <c r="I62" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="J62" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="K62" s="3">
         <v>10300</v>
@@ -4125,25 +4125,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>551800</v>
+        <v>526000</v>
       </c>
       <c r="E66" s="3">
-        <v>457600</v>
+        <v>436200</v>
       </c>
       <c r="F66" s="3">
-        <v>502500</v>
+        <v>479000</v>
       </c>
       <c r="G66" s="3">
-        <v>477300</v>
+        <v>454900</v>
       </c>
       <c r="H66" s="3">
-        <v>539100</v>
+        <v>513900</v>
       </c>
       <c r="I66" s="3">
-        <v>485800</v>
+        <v>463100</v>
       </c>
       <c r="J66" s="3">
-        <v>507900</v>
+        <v>484200</v>
       </c>
       <c r="K66" s="3">
         <v>425500</v>
@@ -4493,7 +4493,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="3">
-        <v>-536100</v>
+        <v>-511000</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -4735,25 +4735,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-195800</v>
+        <v>-186600</v>
       </c>
       <c r="E76" s="3">
-        <v>-129100</v>
+        <v>-123100</v>
       </c>
       <c r="F76" s="3">
-        <v>-117900</v>
+        <v>-112300</v>
       </c>
       <c r="G76" s="3">
-        <v>-119200</v>
+        <v>-113600</v>
       </c>
       <c r="H76" s="3">
-        <v>-104000</v>
+        <v>-99100</v>
       </c>
       <c r="I76" s="3">
-        <v>-28100</v>
+        <v>-26700</v>
       </c>
       <c r="J76" s="3">
-        <v>-205600</v>
+        <v>-196000</v>
       </c>
       <c r="K76" s="3">
         <v>-143300</v>
@@ -4935,25 +4935,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-66300</v>
+        <v>-63200</v>
       </c>
       <c r="E81" s="3">
-        <v>-14800</v>
+        <v>-14100</v>
       </c>
       <c r="F81" s="3">
-        <v>-145400</v>
+        <v>-138600</v>
       </c>
       <c r="G81" s="3">
-        <v>-18800</v>
+        <v>-17900</v>
       </c>
       <c r="H81" s="3">
-        <v>-76600</v>
+        <v>-73000</v>
       </c>
       <c r="I81" s="3">
-        <v>-47600</v>
+        <v>-45400</v>
       </c>
       <c r="J81" s="3">
-        <v>-65400</v>
+        <v>-62300</v>
       </c>
       <c r="K81" s="3">
         <v>-129400</v>
@@ -5025,13 +5025,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E83" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F83" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="G83" s="3">
         <v>1100</v>
@@ -5418,22 +5418,22 @@
         <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>62200</v>
+        <v>59200</v>
       </c>
       <c r="F89" s="3">
-        <v>-196600</v>
+        <v>-187400</v>
       </c>
       <c r="G89" s="3">
-        <v>91800</v>
+        <v>87500</v>
       </c>
       <c r="H89" s="3">
-        <v>36400</v>
+        <v>34700</v>
       </c>
       <c r="I89" s="3">
-        <v>75600</v>
+        <v>72100</v>
       </c>
       <c r="J89" s="3">
-        <v>-154500</v>
+        <v>-147200</v>
       </c>
       <c r="K89" s="3">
         <v>87400</v>
@@ -5511,19 +5511,19 @@
         <v>-900</v>
       </c>
       <c r="F91" s="3">
-        <v>-9300</v>
+        <v>-8800</v>
       </c>
       <c r="G91" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K91" s="3">
         <v>-1800</v>

--- a/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,320 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>133100</v>
+        <v>208800</v>
       </c>
       <c r="E8" s="3">
-        <v>167100</v>
+        <v>201400</v>
       </c>
       <c r="F8" s="3">
-        <v>559000</v>
+        <v>137300</v>
       </c>
       <c r="G8" s="3">
-        <v>193100</v>
+        <v>172400</v>
       </c>
       <c r="H8" s="3">
-        <v>136400</v>
+        <v>576700</v>
       </c>
       <c r="I8" s="3">
-        <v>132000</v>
+        <v>199200</v>
       </c>
       <c r="J8" s="3">
-        <v>64900</v>
+        <v>140700</v>
       </c>
       <c r="K8" s="3">
         <v>132000</v>
       </c>
       <c r="L8" s="3">
+        <v>64900</v>
+      </c>
+      <c r="M8" s="3">
+        <v>132000</v>
+      </c>
+      <c r="N8" s="3">
         <v>91800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>84800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>63200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>53300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>49300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>34300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>33400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>25300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>27000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>19300</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>76100</v>
+        <v>97600</v>
       </c>
       <c r="E9" s="3">
-        <v>77800</v>
+        <v>92200</v>
       </c>
       <c r="F9" s="3">
-        <v>282200</v>
+        <v>78500</v>
       </c>
       <c r="G9" s="3">
-        <v>83800</v>
+        <v>80200</v>
       </c>
       <c r="H9" s="3">
-        <v>66800</v>
+        <v>291100</v>
       </c>
       <c r="I9" s="3">
+        <v>86400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K9" s="3">
         <v>62900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>120900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>71400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>50400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>47900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>44300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>39500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>33100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>26300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>23500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>19400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>17200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>13900</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>57000</v>
+        <v>111300</v>
       </c>
       <c r="E10" s="3">
-        <v>89300</v>
+        <v>109200</v>
       </c>
       <c r="F10" s="3">
-        <v>276800</v>
+        <v>58800</v>
       </c>
       <c r="G10" s="3">
-        <v>109300</v>
+        <v>92200</v>
       </c>
       <c r="H10" s="3">
-        <v>69600</v>
+        <v>285600</v>
       </c>
       <c r="I10" s="3">
+        <v>112800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K10" s="3">
         <v>69100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-56100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>60600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>41500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>36900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>18800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>13700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>16200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>8000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>9900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>5900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>9800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>5400</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +1002,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>29000</v>
+        <v>25800</v>
       </c>
       <c r="E12" s="3">
-        <v>28300</v>
+        <v>30600</v>
       </c>
       <c r="F12" s="3">
-        <v>84500</v>
+        <v>29900</v>
       </c>
       <c r="G12" s="3">
-        <v>26900</v>
+        <v>29200</v>
       </c>
       <c r="H12" s="3">
-        <v>20300</v>
+        <v>87200</v>
       </c>
       <c r="I12" s="3">
-        <v>17800</v>
+        <v>27800</v>
       </c>
       <c r="J12" s="3">
-        <v>10500</v>
+        <v>20900</v>
       </c>
       <c r="K12" s="3">
         <v>17800</v>
       </c>
       <c r="L12" s="3">
+        <v>10500</v>
+      </c>
+      <c r="M12" s="3">
+        <v>17800</v>
+      </c>
+      <c r="N12" s="3">
         <v>13500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>13200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>13700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>11500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>8600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>8300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>7300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>7700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>5400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>6100</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,25 +1140,31 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>7900</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>8200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1139,11 +1178,11 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1172,8 +1211,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1282,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1310,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>196500</v>
+        <v>205300</v>
       </c>
       <c r="E17" s="3">
-        <v>184500</v>
+        <v>232900</v>
       </c>
       <c r="F17" s="3">
-        <v>690300</v>
+        <v>202700</v>
       </c>
       <c r="G17" s="3">
-        <v>211100</v>
+        <v>190400</v>
       </c>
       <c r="H17" s="3">
-        <v>171900</v>
+        <v>712200</v>
       </c>
       <c r="I17" s="3">
+        <v>217800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>177300</v>
+      </c>
+      <c r="K17" s="3">
         <v>161800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-4900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>263800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>133600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>112300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>94600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>89400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>62000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>46400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>40700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>37800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>31300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>26700</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-63400</v>
+        <v>3500</v>
       </c>
       <c r="E18" s="3">
-        <v>-17400</v>
+        <v>-31500</v>
       </c>
       <c r="F18" s="3">
-        <v>-131300</v>
+        <v>-65400</v>
       </c>
       <c r="G18" s="3">
         <v>-18000</v>
       </c>
       <c r="H18" s="3">
-        <v>-35500</v>
+        <v>-135500</v>
       </c>
       <c r="I18" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-29800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>69800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-131700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-41700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-27600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-31400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-36100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-12000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-7300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-12400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-4400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-7500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,164 +1479,178 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>500</v>
+      </c>
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
-        <v>5300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>7700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>700</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>3200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1100</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-61100</v>
+        <v>6200</v>
       </c>
       <c r="E21" s="3">
-        <v>-11000</v>
+        <v>-23400</v>
       </c>
       <c r="F21" s="3">
-        <v>-119400</v>
+        <v>-63100</v>
       </c>
       <c r="G21" s="3">
-        <v>-16000</v>
+        <v>-11300</v>
       </c>
       <c r="H21" s="3">
-        <v>-30500</v>
+        <v>-123200</v>
       </c>
       <c r="I21" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-28600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>71200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-128700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-37500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-25600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-30700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-35000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>-2300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="E22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
-        <v>4400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1100</v>
-      </c>
       <c r="H22" s="3">
-        <v>1100</v>
+        <v>4500</v>
       </c>
       <c r="I22" s="3">
         <v>1100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1100</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1585,11 +1664,11 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1609,138 +1688,156 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-64000</v>
+        <v>2400</v>
       </c>
       <c r="E23" s="3">
-        <v>-13300</v>
+        <v>-26900</v>
       </c>
       <c r="F23" s="3">
-        <v>-128000</v>
+        <v>-66100</v>
       </c>
       <c r="G23" s="3">
-        <v>-18200</v>
+        <v>-13700</v>
       </c>
       <c r="H23" s="3">
-        <v>-32400</v>
+        <v>-132000</v>
       </c>
       <c r="I23" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-30400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>70600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-129400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-38000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-26200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-31200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-35400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-13900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-8100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-9300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-8500</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>900</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
-      </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
       </c>
       <c r="R24" s="3">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
         <v>500</v>
-      </c>
-      <c r="S24" s="3">
-        <v>500</v>
-      </c>
-      <c r="T24" s="3">
-        <v>200</v>
       </c>
       <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>200</v>
+      </c>
+      <c r="W24" s="3">
+        <v>500</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1901,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-64100</v>
+        <v>400</v>
       </c>
       <c r="E26" s="3">
-        <v>-13400</v>
+        <v>-26700</v>
       </c>
       <c r="F26" s="3">
-        <v>-128900</v>
+        <v>-66100</v>
       </c>
       <c r="G26" s="3">
-        <v>-18500</v>
+        <v>-13800</v>
       </c>
       <c r="H26" s="3">
-        <v>-32800</v>
+        <v>-133000</v>
       </c>
       <c r="I26" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-30600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>70500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-129400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-38000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-26500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-31200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-35500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-14000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-8600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-9800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-9000</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-63200</v>
+        <v>1800</v>
       </c>
       <c r="E27" s="3">
-        <v>-13300</v>
+        <v>-26400</v>
       </c>
       <c r="F27" s="3">
-        <v>-124600</v>
+        <v>-65200</v>
       </c>
       <c r="G27" s="3">
-        <v>-17900</v>
+        <v>-13700</v>
       </c>
       <c r="H27" s="3">
-        <v>-32700</v>
+        <v>-128600</v>
       </c>
       <c r="I27" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-30500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>70500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-129400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-38000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-26500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-31700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-37300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-15500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-10200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-11200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-8900</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2008,34 +2129,34 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-900</v>
       </c>
       <c r="H29" s="3">
-        <v>-40300</v>
-      </c>
-      <c r="I29" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-14800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-132800</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2064,8 +2185,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2327,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-3200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1100</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-63200</v>
+        <v>1800</v>
       </c>
       <c r="E33" s="3">
-        <v>-14100</v>
+        <v>-26400</v>
       </c>
       <c r="F33" s="3">
-        <v>-138600</v>
+        <v>-65200</v>
       </c>
       <c r="G33" s="3">
-        <v>-17900</v>
+        <v>-14600</v>
       </c>
       <c r="H33" s="3">
-        <v>-73000</v>
+        <v>-143000</v>
       </c>
       <c r="I33" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-45400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-62300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-129400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-38000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-26500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-31700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-37300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-15500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-10200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-11200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-8900</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2540,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-63200</v>
+        <v>1800</v>
       </c>
       <c r="E35" s="3">
-        <v>-14100</v>
+        <v>-26400</v>
       </c>
       <c r="F35" s="3">
-        <v>-138600</v>
+        <v>-65200</v>
       </c>
       <c r="G35" s="3">
-        <v>-17900</v>
+        <v>-14600</v>
       </c>
       <c r="H35" s="3">
-        <v>-73000</v>
+        <v>-143000</v>
       </c>
       <c r="I35" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-45400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-62300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-129400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-38000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-26500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-31700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-37300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-15500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-10200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-11200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-8900</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,56 +2745,58 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>95700</v>
+        <v>112500</v>
       </c>
       <c r="E41" s="3">
-        <v>57800</v>
+        <v>102300</v>
       </c>
       <c r="F41" s="3">
-        <v>44900</v>
+        <v>98700</v>
       </c>
       <c r="G41" s="3">
-        <v>68700</v>
+        <v>59600</v>
       </c>
       <c r="H41" s="3">
-        <v>115500</v>
+        <v>46400</v>
       </c>
       <c r="I41" s="3">
+        <v>70900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>119200</v>
+      </c>
+      <c r="K41" s="3">
         <v>257300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>84800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>11500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>18500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>20100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>26700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>8500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>8000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2639,56 +2812,62 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3000</v>
+        <v>33400</v>
       </c>
       <c r="E42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G42" s="3">
         <v>900</v>
       </c>
-      <c r="F42" s="3">
-        <v>70200</v>
-      </c>
-      <c r="G42" s="3">
-        <v>57000</v>
-      </c>
       <c r="H42" s="3">
-        <v>143400</v>
+        <v>72400</v>
       </c>
       <c r="I42" s="3">
+        <v>58900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>148000</v>
+      </c>
+      <c r="K42" s="3">
         <v>47000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>81500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>155400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>245400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>242400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>222800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>16200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>38000</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,56 +2883,62 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>49100</v>
+        <v>59300</v>
       </c>
       <c r="E43" s="3">
-        <v>41800</v>
+        <v>48800</v>
       </c>
       <c r="F43" s="3">
-        <v>35400</v>
+        <v>50600</v>
       </c>
       <c r="G43" s="3">
-        <v>34600</v>
+        <v>43100</v>
       </c>
       <c r="H43" s="3">
-        <v>43300</v>
+        <v>36600</v>
       </c>
       <c r="I43" s="3">
+        <v>35700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K43" s="3">
         <v>35100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>38000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>50100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>34900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>36800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>33200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>27800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>31100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2769,56 +2954,62 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29600</v>
+        <v>33400</v>
       </c>
       <c r="E44" s="3">
-        <v>29800</v>
+        <v>24500</v>
       </c>
       <c r="F44" s="3">
-        <v>35600</v>
+        <v>30500</v>
       </c>
       <c r="G44" s="3">
-        <v>37200</v>
+        <v>30700</v>
       </c>
       <c r="H44" s="3">
-        <v>37800</v>
+        <v>36700</v>
       </c>
       <c r="I44" s="3">
+        <v>38400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K44" s="3">
         <v>37400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>20700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>13500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>13700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>10300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>11300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>8100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>5000</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2834,56 +3025,62 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>104400</v>
+        <v>30000</v>
       </c>
       <c r="E45" s="3">
-        <v>130200</v>
+        <v>62100</v>
       </c>
       <c r="F45" s="3">
-        <v>129900</v>
+        <v>107700</v>
       </c>
       <c r="G45" s="3">
-        <v>83600</v>
+        <v>134300</v>
       </c>
       <c r="H45" s="3">
-        <v>32400</v>
+        <v>134000</v>
       </c>
       <c r="I45" s="3">
+        <v>86300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>33400</v>
+      </c>
+      <c r="K45" s="3">
         <v>27600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>32800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>29600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>17500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>18600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>18600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>16200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>11300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,56 +3096,62 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>281600</v>
+        <v>268600</v>
       </c>
       <c r="E46" s="3">
-        <v>260400</v>
+        <v>240700</v>
       </c>
       <c r="F46" s="3">
-        <v>315900</v>
+        <v>290600</v>
       </c>
       <c r="G46" s="3">
-        <v>281200</v>
+        <v>268700</v>
       </c>
       <c r="H46" s="3">
-        <v>372500</v>
+        <v>326000</v>
       </c>
       <c r="I46" s="3">
+        <v>290100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>384300</v>
+      </c>
+      <c r="K46" s="3">
         <v>404400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>257700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>260200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>330000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>328200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>312600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>76800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>93400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,38 +3167,44 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9800</v>
+        <v>13000</v>
       </c>
       <c r="E47" s="3">
-        <v>3800</v>
+        <v>9600</v>
       </c>
       <c r="F47" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>10100</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4700</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>5900</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3005,11 +3214,11 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3029,56 +3238,62 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>27500</v>
+        <v>24500</v>
       </c>
       <c r="E48" s="3">
-        <v>28600</v>
+        <v>26700</v>
       </c>
       <c r="F48" s="3">
-        <v>27600</v>
+        <v>28300</v>
       </c>
       <c r="G48" s="3">
-        <v>30800</v>
+        <v>29500</v>
       </c>
       <c r="H48" s="3">
-        <v>28000</v>
+        <v>28500</v>
       </c>
       <c r="I48" s="3">
+        <v>31700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K48" s="3">
         <v>21000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>21100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>18100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>11900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>7600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3500</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,25 +3309,31 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15300</v>
+        <v>15800</v>
       </c>
       <c r="E49" s="3">
-        <v>15300</v>
+        <v>15800</v>
       </c>
       <c r="F49" s="3">
-        <v>15300</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>15800</v>
+      </c>
+      <c r="G49" s="3">
+        <v>15800</v>
+      </c>
+      <c r="H49" s="3">
+        <v>15800</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -3126,11 +3347,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3159,8 +3380,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,56 +3522,62 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G52" s="3">
         <v>5200</v>
       </c>
-      <c r="E52" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>29400</v>
-      </c>
       <c r="H52" s="3">
-        <v>14400</v>
+        <v>3400</v>
       </c>
       <c r="I52" s="3">
+        <v>30300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K52" s="3">
         <v>11000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>800</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3593,14 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,56 +3664,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>339400</v>
+        <v>326900</v>
       </c>
       <c r="E54" s="3">
-        <v>313100</v>
+        <v>298300</v>
       </c>
       <c r="F54" s="3">
-        <v>366700</v>
+        <v>350200</v>
       </c>
       <c r="G54" s="3">
-        <v>341300</v>
+        <v>323100</v>
       </c>
       <c r="H54" s="3">
-        <v>414800</v>
+        <v>378300</v>
       </c>
       <c r="I54" s="3">
+        <v>352200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>428000</v>
+      </c>
+      <c r="K54" s="3">
         <v>436300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>288200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>282200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>345100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>337900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>321300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>83700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>97700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3484,8 +3735,14 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,56 +3793,58 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21100</v>
+        <v>40600</v>
       </c>
       <c r="E57" s="3">
-        <v>18500</v>
+        <v>25800</v>
       </c>
       <c r="F57" s="3">
-        <v>22400</v>
+        <v>21800</v>
       </c>
       <c r="G57" s="3">
-        <v>16300</v>
+        <v>19100</v>
       </c>
       <c r="H57" s="3">
-        <v>10400</v>
+        <v>23100</v>
       </c>
       <c r="I57" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K57" s="3">
         <v>17500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>19700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>17600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>15200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>14900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>9700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>5300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,56 +3860,62 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>126100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>126100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>126100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>126100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>126100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>126100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>126100</v>
+      </c>
+      <c r="K58" s="3">
         <v>122200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="L58" s="3">
         <v>122200</v>
       </c>
-      <c r="F58" s="3">
-        <v>122200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>122200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>122200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>122200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>122200</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>129400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>129400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>137500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>135200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>135200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>134100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3664,56 +3931,62 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>298900</v>
+        <v>289900</v>
       </c>
       <c r="E59" s="3">
-        <v>228500</v>
+        <v>276600</v>
       </c>
       <c r="F59" s="3">
-        <v>277700</v>
+        <v>308400</v>
       </c>
       <c r="G59" s="3">
-        <v>287500</v>
+        <v>235800</v>
       </c>
       <c r="H59" s="3">
-        <v>367900</v>
+        <v>286500</v>
       </c>
       <c r="I59" s="3">
+        <v>296600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>379600</v>
+      </c>
+      <c r="K59" s="3">
         <v>312500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>330500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>268200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>204700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>157000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>126000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>93900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>76900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,56 +4002,62 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>442300</v>
+        <v>456500</v>
       </c>
       <c r="E60" s="3">
-        <v>369200</v>
+        <v>428500</v>
       </c>
       <c r="F60" s="3">
-        <v>422300</v>
+        <v>456300</v>
       </c>
       <c r="G60" s="3">
-        <v>426000</v>
+        <v>381000</v>
       </c>
       <c r="H60" s="3">
-        <v>500500</v>
+        <v>435700</v>
       </c>
       <c r="I60" s="3">
+        <v>439500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>516400</v>
+      </c>
+      <c r="K60" s="3">
         <v>452200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>472400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>415100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>349200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>309300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>270800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>236300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>216400</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3794,25 +4073,31 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>65400</v>
+        <v>75000</v>
       </c>
       <c r="E61" s="3">
-        <v>48600</v>
+        <v>71400</v>
       </c>
       <c r="F61" s="3">
-        <v>35500</v>
+        <v>67500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>50100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>36600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3859,53 +4144,59 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8700</v>
+        <v>7500</v>
       </c>
       <c r="E62" s="3">
-        <v>7800</v>
+        <v>8800</v>
       </c>
       <c r="F62" s="3">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="G62" s="3">
-        <v>14800</v>
+        <v>8000</v>
       </c>
       <c r="H62" s="3">
-        <v>13500</v>
+        <v>10800</v>
       </c>
       <c r="I62" s="3">
+        <v>15300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K62" s="3">
         <v>10900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>11700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>10300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3915,17 +4206,23 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,56 +4428,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>526000</v>
+        <v>547400</v>
       </c>
       <c r="E66" s="3">
-        <v>436200</v>
+        <v>518300</v>
       </c>
       <c r="F66" s="3">
-        <v>479000</v>
+        <v>542700</v>
       </c>
       <c r="G66" s="3">
-        <v>454900</v>
+        <v>450000</v>
       </c>
       <c r="H66" s="3">
-        <v>513900</v>
+        <v>494200</v>
       </c>
       <c r="I66" s="3">
+        <v>469400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>530200</v>
+      </c>
+      <c r="K66" s="3">
         <v>463100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>484200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>425500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>355800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>313400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>275100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>238600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>216600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4184,8 +4499,14 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4378,17 +4713,17 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>75900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>73600</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,56 +4810,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
         <v>-511000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3">
         <v>-295400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3">
         <v>-224700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,8 +4881,14 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,56 +5094,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-186600</v>
+        <v>-220500</v>
       </c>
       <c r="E76" s="3">
-        <v>-123100</v>
+        <v>-220100</v>
       </c>
       <c r="F76" s="3">
-        <v>-112300</v>
+        <v>-192600</v>
       </c>
       <c r="G76" s="3">
-        <v>-113600</v>
+        <v>-127000</v>
       </c>
       <c r="H76" s="3">
-        <v>-99100</v>
+        <v>-115900</v>
       </c>
       <c r="I76" s="3">
+        <v>-117200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-102300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-26700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-196000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-143300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-10700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>24500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>46200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-230800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-192500</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +5165,14 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5236,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-63200</v>
+        <v>1800</v>
       </c>
       <c r="E81" s="3">
-        <v>-14100</v>
+        <v>-26400</v>
       </c>
       <c r="F81" s="3">
-        <v>-138600</v>
+        <v>-65200</v>
       </c>
       <c r="G81" s="3">
-        <v>-17900</v>
+        <v>-14600</v>
       </c>
       <c r="H81" s="3">
-        <v>-73000</v>
+        <v>-143000</v>
       </c>
       <c r="I81" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-45400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-62300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-129400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-38000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-26500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-31700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-37300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-15500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-10200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-11200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-8900</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,53 +5414,55 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>500</v>
       </c>
       <c r="N83" s="3">
         <v>500</v>
       </c>
       <c r="O83" s="3">
+        <v>500</v>
+      </c>
+      <c r="P83" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5075,17 +5472,23 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,53 +5836,59 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3">
-        <v>59200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-187400</v>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>87500</v>
+        <v>61100</v>
       </c>
       <c r="H89" s="3">
-        <v>34700</v>
+        <v>-193400</v>
       </c>
       <c r="I89" s="3">
+        <v>90300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K89" s="3">
         <v>72100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-147200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>87400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>21000</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-48300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>21900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5465,17 +5898,23 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,52 +5938,54 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-700</v>
       </c>
       <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-700</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -5555,17 +5996,23 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6147,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +6218,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6529,14 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6600,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6671,14 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6740,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>208800</v>
+        <v>206700</v>
       </c>
       <c r="E8" s="3">
-        <v>201400</v>
+        <v>199400</v>
       </c>
       <c r="F8" s="3">
-        <v>137300</v>
+        <v>135900</v>
       </c>
       <c r="G8" s="3">
-        <v>172400</v>
+        <v>170700</v>
       </c>
       <c r="H8" s="3">
-        <v>576700</v>
+        <v>570800</v>
       </c>
       <c r="I8" s="3">
-        <v>199200</v>
+        <v>197200</v>
       </c>
       <c r="J8" s="3">
-        <v>140700</v>
+        <v>139300</v>
       </c>
       <c r="K8" s="3">
         <v>132000</v>
@@ -841,25 +841,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>97600</v>
+        <v>96600</v>
       </c>
       <c r="E9" s="3">
-        <v>92200</v>
+        <v>91300</v>
       </c>
       <c r="F9" s="3">
-        <v>78500</v>
+        <v>77700</v>
       </c>
       <c r="G9" s="3">
-        <v>80200</v>
+        <v>79400</v>
       </c>
       <c r="H9" s="3">
-        <v>291100</v>
+        <v>288100</v>
       </c>
       <c r="I9" s="3">
-        <v>86400</v>
+        <v>85500</v>
       </c>
       <c r="J9" s="3">
-        <v>68900</v>
+        <v>68200</v>
       </c>
       <c r="K9" s="3">
         <v>62900</v>
@@ -912,25 +912,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>111300</v>
+        <v>110100</v>
       </c>
       <c r="E10" s="3">
-        <v>109200</v>
+        <v>108100</v>
       </c>
       <c r="F10" s="3">
-        <v>58800</v>
+        <v>58200</v>
       </c>
       <c r="G10" s="3">
-        <v>92200</v>
+        <v>91200</v>
       </c>
       <c r="H10" s="3">
-        <v>285600</v>
+        <v>282700</v>
       </c>
       <c r="I10" s="3">
-        <v>112800</v>
+        <v>111700</v>
       </c>
       <c r="J10" s="3">
-        <v>71800</v>
+        <v>71100</v>
       </c>
       <c r="K10" s="3">
         <v>69100</v>
@@ -1010,25 +1010,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>25800</v>
+        <v>25500</v>
       </c>
       <c r="E12" s="3">
-        <v>30600</v>
+        <v>30300</v>
       </c>
       <c r="F12" s="3">
-        <v>29900</v>
+        <v>29600</v>
       </c>
       <c r="G12" s="3">
-        <v>29200</v>
+        <v>28900</v>
       </c>
       <c r="H12" s="3">
-        <v>87200</v>
+        <v>86300</v>
       </c>
       <c r="I12" s="3">
-        <v>27800</v>
+        <v>27500</v>
       </c>
       <c r="J12" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="K12" s="3">
         <v>17800</v>
@@ -1151,8 +1151,8 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1164,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1318,25 +1318,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>205300</v>
+        <v>203200</v>
       </c>
       <c r="E17" s="3">
-        <v>232900</v>
+        <v>230500</v>
       </c>
       <c r="F17" s="3">
-        <v>202700</v>
+        <v>200600</v>
       </c>
       <c r="G17" s="3">
-        <v>190400</v>
+        <v>188400</v>
       </c>
       <c r="H17" s="3">
-        <v>712200</v>
+        <v>704900</v>
       </c>
       <c r="I17" s="3">
-        <v>217800</v>
+        <v>215600</v>
       </c>
       <c r="J17" s="3">
-        <v>177300</v>
+        <v>175500</v>
       </c>
       <c r="K17" s="3">
         <v>161800</v>
@@ -1392,22 +1392,22 @@
         <v>3500</v>
       </c>
       <c r="E18" s="3">
-        <v>-31500</v>
+        <v>-31100</v>
       </c>
       <c r="F18" s="3">
-        <v>-65400</v>
+        <v>-64700</v>
       </c>
       <c r="G18" s="3">
-        <v>-18000</v>
+        <v>-17800</v>
       </c>
       <c r="H18" s="3">
-        <v>-135500</v>
+        <v>-134100</v>
       </c>
       <c r="I18" s="3">
-        <v>-18600</v>
+        <v>-18400</v>
       </c>
       <c r="J18" s="3">
-        <v>-36600</v>
+        <v>-36200</v>
       </c>
       <c r="K18" s="3">
         <v>-29800</v>
@@ -1496,10 +1496,10 @@
         <v>800</v>
       </c>
       <c r="G20" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="H20" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="I20" s="3">
         <v>900</v>
@@ -1558,25 +1558,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="E21" s="3">
-        <v>-23400</v>
+        <v>-23200</v>
       </c>
       <c r="F21" s="3">
-        <v>-63100</v>
+        <v>-62400</v>
       </c>
       <c r="G21" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="H21" s="3">
-        <v>-123200</v>
+        <v>-121900</v>
       </c>
       <c r="I21" s="3">
-        <v>-16500</v>
+        <v>-16400</v>
       </c>
       <c r="J21" s="3">
-        <v>-31500</v>
+        <v>-31100</v>
       </c>
       <c r="K21" s="3">
         <v>-28600</v>
@@ -1632,10 +1632,10 @@
         <v>2100</v>
       </c>
       <c r="E22" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F22" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G22" s="3">
         <v>1200</v>
@@ -1703,22 +1703,22 @@
         <v>2400</v>
       </c>
       <c r="E23" s="3">
-        <v>-26900</v>
+        <v>-26600</v>
       </c>
       <c r="F23" s="3">
-        <v>-66100</v>
+        <v>-65400</v>
       </c>
       <c r="G23" s="3">
-        <v>-13700</v>
+        <v>-13600</v>
       </c>
       <c r="H23" s="3">
-        <v>-132000</v>
+        <v>-130700</v>
       </c>
       <c r="I23" s="3">
-        <v>-18800</v>
+        <v>-18600</v>
       </c>
       <c r="J23" s="3">
-        <v>-33400</v>
+        <v>-33100</v>
       </c>
       <c r="K23" s="3">
         <v>-30400</v>
@@ -1783,7 +1783,7 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I24" s="3">
         <v>400</v>
@@ -1916,22 +1916,22 @@
         <v>400</v>
       </c>
       <c r="E26" s="3">
-        <v>-26700</v>
+        <v>-26500</v>
       </c>
       <c r="F26" s="3">
-        <v>-66100</v>
+        <v>-65500</v>
       </c>
       <c r="G26" s="3">
-        <v>-13800</v>
+        <v>-13700</v>
       </c>
       <c r="H26" s="3">
-        <v>-133000</v>
+        <v>-131600</v>
       </c>
       <c r="I26" s="3">
-        <v>-19100</v>
+        <v>-18900</v>
       </c>
       <c r="J26" s="3">
-        <v>-33800</v>
+        <v>-33500</v>
       </c>
       <c r="K26" s="3">
         <v>-30600</v>
@@ -1984,25 +1984,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E27" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="F27" s="3">
-        <v>-65200</v>
+        <v>-64500</v>
       </c>
       <c r="G27" s="3">
-        <v>-13700</v>
+        <v>-13600</v>
       </c>
       <c r="H27" s="3">
-        <v>-128600</v>
+        <v>-127300</v>
       </c>
       <c r="I27" s="3">
-        <v>-18500</v>
+        <v>-18300</v>
       </c>
       <c r="J27" s="3">
-        <v>-33700</v>
+        <v>-33400</v>
       </c>
       <c r="K27" s="3">
         <v>-30500</v>
@@ -2138,13 +2138,13 @@
         <v>-900</v>
       </c>
       <c r="H29" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J29" s="3">
-        <v>-41600</v>
+        <v>-41200</v>
       </c>
       <c r="K29" s="3">
         <v>-14800</v>
@@ -2348,10 +2348,10 @@
         <v>-800</v>
       </c>
       <c r="G32" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="H32" s="3">
-        <v>-8000</v>
+        <v>-7900</v>
       </c>
       <c r="I32" s="3">
         <v>-900</v>
@@ -2410,25 +2410,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E33" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="F33" s="3">
-        <v>-65200</v>
+        <v>-64500</v>
       </c>
       <c r="G33" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="H33" s="3">
-        <v>-143000</v>
+        <v>-141500</v>
       </c>
       <c r="I33" s="3">
-        <v>-18500</v>
+        <v>-18300</v>
       </c>
       <c r="J33" s="3">
-        <v>-75300</v>
+        <v>-74500</v>
       </c>
       <c r="K33" s="3">
         <v>-45400</v>
@@ -2552,25 +2552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E35" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="F35" s="3">
-        <v>-65200</v>
+        <v>-64500</v>
       </c>
       <c r="G35" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="H35" s="3">
-        <v>-143000</v>
+        <v>-141500</v>
       </c>
       <c r="I35" s="3">
-        <v>-18500</v>
+        <v>-18300</v>
       </c>
       <c r="J35" s="3">
-        <v>-75300</v>
+        <v>-74500</v>
       </c>
       <c r="K35" s="3">
         <v>-45400</v>
@@ -2753,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>112500</v>
+        <v>111400</v>
       </c>
       <c r="E41" s="3">
-        <v>102300</v>
+        <v>101200</v>
       </c>
       <c r="F41" s="3">
-        <v>98700</v>
+        <v>97700</v>
       </c>
       <c r="G41" s="3">
-        <v>59600</v>
+        <v>59000</v>
       </c>
       <c r="H41" s="3">
-        <v>46400</v>
+        <v>45900</v>
       </c>
       <c r="I41" s="3">
-        <v>70900</v>
+        <v>70200</v>
       </c>
       <c r="J41" s="3">
-        <v>119200</v>
+        <v>117900</v>
       </c>
       <c r="K41" s="3">
         <v>257300</v>
@@ -2824,25 +2824,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33400</v>
+        <v>33000</v>
       </c>
       <c r="E42" s="3">
         <v>3100</v>
       </c>
       <c r="F42" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G42" s="3">
         <v>900</v>
       </c>
       <c r="H42" s="3">
-        <v>72400</v>
+        <v>71700</v>
       </c>
       <c r="I42" s="3">
-        <v>58900</v>
+        <v>58300</v>
       </c>
       <c r="J42" s="3">
-        <v>148000</v>
+        <v>146500</v>
       </c>
       <c r="K42" s="3">
         <v>47000</v>
@@ -2895,25 +2895,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>59300</v>
+        <v>58700</v>
       </c>
       <c r="E43" s="3">
-        <v>48800</v>
+        <v>48300</v>
       </c>
       <c r="F43" s="3">
-        <v>50600</v>
+        <v>50100</v>
       </c>
       <c r="G43" s="3">
-        <v>43100</v>
+        <v>42700</v>
       </c>
       <c r="H43" s="3">
-        <v>36600</v>
+        <v>36200</v>
       </c>
       <c r="I43" s="3">
-        <v>35700</v>
+        <v>35300</v>
       </c>
       <c r="J43" s="3">
-        <v>44700</v>
+        <v>44300</v>
       </c>
       <c r="K43" s="3">
         <v>35100</v>
@@ -2966,25 +2966,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33400</v>
+        <v>33000</v>
       </c>
       <c r="E44" s="3">
-        <v>24500</v>
+        <v>24200</v>
       </c>
       <c r="F44" s="3">
-        <v>30500</v>
+        <v>30200</v>
       </c>
       <c r="G44" s="3">
-        <v>30700</v>
+        <v>30400</v>
       </c>
       <c r="H44" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="I44" s="3">
-        <v>38400</v>
+        <v>38000</v>
       </c>
       <c r="J44" s="3">
-        <v>39000</v>
+        <v>38600</v>
       </c>
       <c r="K44" s="3">
         <v>37400</v>
@@ -3037,25 +3037,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30000</v>
+        <v>29700</v>
       </c>
       <c r="E45" s="3">
-        <v>62100</v>
+        <v>61400</v>
       </c>
       <c r="F45" s="3">
-        <v>107700</v>
+        <v>106600</v>
       </c>
       <c r="G45" s="3">
-        <v>134300</v>
+        <v>132900</v>
       </c>
       <c r="H45" s="3">
-        <v>134000</v>
+        <v>132600</v>
       </c>
       <c r="I45" s="3">
-        <v>86300</v>
+        <v>85400</v>
       </c>
       <c r="J45" s="3">
-        <v>33400</v>
+        <v>33100</v>
       </c>
       <c r="K45" s="3">
         <v>27600</v>
@@ -3108,25 +3108,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>268600</v>
+        <v>265800</v>
       </c>
       <c r="E46" s="3">
-        <v>240700</v>
+        <v>238200</v>
       </c>
       <c r="F46" s="3">
-        <v>290600</v>
+        <v>287600</v>
       </c>
       <c r="G46" s="3">
-        <v>268700</v>
+        <v>265900</v>
       </c>
       <c r="H46" s="3">
-        <v>326000</v>
+        <v>322600</v>
       </c>
       <c r="I46" s="3">
-        <v>290100</v>
+        <v>287200</v>
       </c>
       <c r="J46" s="3">
-        <v>384300</v>
+        <v>380400</v>
       </c>
       <c r="K46" s="3">
         <v>404400</v>
@@ -3179,19 +3179,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="E47" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="F47" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="G47" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H47" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -3250,25 +3250,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24500</v>
+        <v>24200</v>
       </c>
       <c r="E48" s="3">
-        <v>26700</v>
+        <v>26400</v>
       </c>
       <c r="F48" s="3">
-        <v>28300</v>
+        <v>28100</v>
       </c>
       <c r="G48" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="H48" s="3">
-        <v>28500</v>
+        <v>28200</v>
       </c>
       <c r="I48" s="3">
-        <v>31700</v>
+        <v>31400</v>
       </c>
       <c r="J48" s="3">
-        <v>28900</v>
+        <v>28600</v>
       </c>
       <c r="K48" s="3">
         <v>21000</v>
@@ -3321,19 +3321,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="E49" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="F49" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="G49" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="H49" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -3537,22 +3537,22 @@
         <v>5000</v>
       </c>
       <c r="E52" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="F52" s="3">
         <v>5300</v>
       </c>
       <c r="G52" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="H52" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I52" s="3">
-        <v>30300</v>
+        <v>30000</v>
       </c>
       <c r="J52" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="K52" s="3">
         <v>11000</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>326900</v>
+        <v>323600</v>
       </c>
       <c r="E54" s="3">
-        <v>298300</v>
+        <v>295200</v>
       </c>
       <c r="F54" s="3">
-        <v>350200</v>
+        <v>346600</v>
       </c>
       <c r="G54" s="3">
-        <v>323100</v>
+        <v>319800</v>
       </c>
       <c r="H54" s="3">
-        <v>378300</v>
+        <v>374400</v>
       </c>
       <c r="I54" s="3">
-        <v>352200</v>
+        <v>348600</v>
       </c>
       <c r="J54" s="3">
-        <v>428000</v>
+        <v>423600</v>
       </c>
       <c r="K54" s="3">
         <v>436300</v>
@@ -3801,25 +3801,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>40600</v>
+        <v>40100</v>
       </c>
       <c r="E57" s="3">
-        <v>25800</v>
+        <v>25600</v>
       </c>
       <c r="F57" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="G57" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="H57" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="I57" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="J57" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="K57" s="3">
         <v>17500</v>
@@ -3872,25 +3872,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>126100</v>
+        <v>124800</v>
       </c>
       <c r="E58" s="3">
-        <v>126100</v>
+        <v>124800</v>
       </c>
       <c r="F58" s="3">
-        <v>126100</v>
+        <v>124800</v>
       </c>
       <c r="G58" s="3">
-        <v>126100</v>
+        <v>124800</v>
       </c>
       <c r="H58" s="3">
-        <v>126100</v>
+        <v>124800</v>
       </c>
       <c r="I58" s="3">
-        <v>126100</v>
+        <v>124800</v>
       </c>
       <c r="J58" s="3">
-        <v>126100</v>
+        <v>124800</v>
       </c>
       <c r="K58" s="3">
         <v>122200</v>
@@ -3943,25 +3943,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>289900</v>
+        <v>286900</v>
       </c>
       <c r="E59" s="3">
-        <v>276600</v>
+        <v>273800</v>
       </c>
       <c r="F59" s="3">
-        <v>308400</v>
+        <v>305200</v>
       </c>
       <c r="G59" s="3">
-        <v>235800</v>
+        <v>233400</v>
       </c>
       <c r="H59" s="3">
-        <v>286500</v>
+        <v>283600</v>
       </c>
       <c r="I59" s="3">
-        <v>296600</v>
+        <v>293600</v>
       </c>
       <c r="J59" s="3">
-        <v>379600</v>
+        <v>375700</v>
       </c>
       <c r="K59" s="3">
         <v>312500</v>
@@ -4014,25 +4014,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>456500</v>
+        <v>451800</v>
       </c>
       <c r="E60" s="3">
-        <v>428500</v>
+        <v>424200</v>
       </c>
       <c r="F60" s="3">
-        <v>456300</v>
+        <v>451600</v>
       </c>
       <c r="G60" s="3">
-        <v>381000</v>
+        <v>377100</v>
       </c>
       <c r="H60" s="3">
-        <v>435700</v>
+        <v>431300</v>
       </c>
       <c r="I60" s="3">
-        <v>439500</v>
+        <v>435000</v>
       </c>
       <c r="J60" s="3">
-        <v>516400</v>
+        <v>511100</v>
       </c>
       <c r="K60" s="3">
         <v>452200</v>
@@ -4085,19 +4085,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>75000</v>
+        <v>74300</v>
       </c>
       <c r="E61" s="3">
-        <v>71400</v>
+        <v>70600</v>
       </c>
       <c r="F61" s="3">
-        <v>67500</v>
+        <v>66800</v>
       </c>
       <c r="G61" s="3">
-        <v>50100</v>
+        <v>49600</v>
       </c>
       <c r="H61" s="3">
-        <v>36600</v>
+        <v>36300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4159,22 +4159,22 @@
         <v>7500</v>
       </c>
       <c r="E62" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="F62" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="G62" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="H62" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="I62" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="J62" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="K62" s="3">
         <v>10900</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>547400</v>
+        <v>541800</v>
       </c>
       <c r="E66" s="3">
-        <v>518300</v>
+        <v>513000</v>
       </c>
       <c r="F66" s="3">
-        <v>542700</v>
+        <v>537200</v>
       </c>
       <c r="G66" s="3">
-        <v>450000</v>
+        <v>445400</v>
       </c>
       <c r="H66" s="3">
-        <v>494200</v>
+        <v>489200</v>
       </c>
       <c r="I66" s="3">
-        <v>469400</v>
+        <v>464600</v>
       </c>
       <c r="J66" s="3">
-        <v>530200</v>
+        <v>524800</v>
       </c>
       <c r="K66" s="3">
         <v>463100</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>-766700</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -5106,25 +5106,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-220500</v>
+        <v>-218200</v>
       </c>
       <c r="E76" s="3">
-        <v>-220100</v>
+        <v>-217800</v>
       </c>
       <c r="F76" s="3">
-        <v>-192600</v>
+        <v>-190600</v>
       </c>
       <c r="G76" s="3">
-        <v>-127000</v>
+        <v>-125700</v>
       </c>
       <c r="H76" s="3">
-        <v>-115900</v>
+        <v>-114700</v>
       </c>
       <c r="I76" s="3">
-        <v>-117200</v>
+        <v>-116000</v>
       </c>
       <c r="J76" s="3">
-        <v>-102300</v>
+        <v>-101200</v>
       </c>
       <c r="K76" s="3">
         <v>-26700</v>
@@ -5324,25 +5324,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E81" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="F81" s="3">
-        <v>-65200</v>
+        <v>-64500</v>
       </c>
       <c r="G81" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="H81" s="3">
-        <v>-143000</v>
+        <v>-141500</v>
       </c>
       <c r="I81" s="3">
-        <v>-18500</v>
+        <v>-18300</v>
       </c>
       <c r="J81" s="3">
-        <v>-75300</v>
+        <v>-74500</v>
       </c>
       <c r="K81" s="3">
         <v>-45400</v>
@@ -5857,16 +5857,16 @@
         <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>61100</v>
+        <v>60500</v>
       </c>
       <c r="H89" s="3">
-        <v>-193400</v>
+        <v>-191400</v>
       </c>
       <c r="I89" s="3">
-        <v>90300</v>
+        <v>89400</v>
       </c>
       <c r="J89" s="3">
-        <v>35800</v>
+        <v>35400</v>
       </c>
       <c r="K89" s="3">
         <v>72100</v>
@@ -5945,26 +5945,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-17900</v>
       </c>
       <c r="G91" s="3">
-        <v>-900</v>
+        <v>-22100</v>
       </c>
       <c r="H91" s="3">
-        <v>-9100</v>
+        <v>-12100</v>
       </c>
       <c r="I91" s="3">
-        <v>-3200</v>
+        <v>-11400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1700</v>
+        <v>-15900</v>
       </c>
       <c r="K91" s="3">
         <v>-1600</v>

--- a/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>206700</v>
+        <v>166200</v>
       </c>
       <c r="E8" s="3">
-        <v>199400</v>
+        <v>160300</v>
       </c>
       <c r="F8" s="3">
-        <v>135900</v>
+        <v>200300</v>
       </c>
       <c r="G8" s="3">
-        <v>170700</v>
+        <v>193200</v>
       </c>
       <c r="H8" s="3">
-        <v>570800</v>
+        <v>131700</v>
       </c>
       <c r="I8" s="3">
+        <v>165400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>553300</v>
+      </c>
+      <c r="K8" s="3">
         <v>197200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>139300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>132000</v>
-      </c>
-      <c r="L8" s="3">
-        <v>64900</v>
       </c>
       <c r="M8" s="3">
         <v>132000</v>
       </c>
       <c r="N8" s="3">
+        <v>64900</v>
+      </c>
+      <c r="O8" s="3">
+        <v>132000</v>
+      </c>
+      <c r="P8" s="3">
         <v>91800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>84800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>63200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>53300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>49300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>34300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>33400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>25300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>27000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>19300</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>96600</v>
+        <v>88100</v>
       </c>
       <c r="E9" s="3">
-        <v>91300</v>
+        <v>77400</v>
       </c>
       <c r="F9" s="3">
-        <v>77700</v>
+        <v>93600</v>
       </c>
       <c r="G9" s="3">
-        <v>79400</v>
+        <v>88500</v>
       </c>
       <c r="H9" s="3">
-        <v>288100</v>
+        <v>75300</v>
       </c>
       <c r="I9" s="3">
+        <v>77000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>279300</v>
+      </c>
+      <c r="K9" s="3">
         <v>85500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>68200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>62900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>120900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>71400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>50400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>47900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>44300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>39500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>33100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>26300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>23500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>19400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>17200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>13900</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>110100</v>
+        <v>78100</v>
       </c>
       <c r="E10" s="3">
-        <v>108100</v>
+        <v>82900</v>
       </c>
       <c r="F10" s="3">
-        <v>58200</v>
+        <v>106700</v>
       </c>
       <c r="G10" s="3">
-        <v>91200</v>
+        <v>104700</v>
       </c>
       <c r="H10" s="3">
-        <v>282700</v>
+        <v>56400</v>
       </c>
       <c r="I10" s="3">
+        <v>88400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>274000</v>
+      </c>
+      <c r="K10" s="3">
         <v>111700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>71100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>69100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-56100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>60600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>41500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>36900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>18800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>13700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>16200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>8000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>9900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>5900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>9800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>5400</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>25500</v>
+        <v>28300</v>
       </c>
       <c r="E12" s="3">
-        <v>30300</v>
+        <v>25200</v>
       </c>
       <c r="F12" s="3">
-        <v>29600</v>
+        <v>24700</v>
       </c>
       <c r="G12" s="3">
-        <v>28900</v>
+        <v>29300</v>
       </c>
       <c r="H12" s="3">
-        <v>86300</v>
+        <v>28700</v>
       </c>
       <c r="I12" s="3">
+        <v>28000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>83700</v>
+      </c>
+      <c r="K12" s="3">
         <v>27500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>20700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>17800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>10500</v>
       </c>
       <c r="M12" s="3">
         <v>17800</v>
       </c>
       <c r="N12" s="3">
+        <v>10500</v>
+      </c>
+      <c r="O12" s="3">
+        <v>17800</v>
+      </c>
+      <c r="P12" s="3">
         <v>13500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>13200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>13700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>11500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>8600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>8300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>7300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>7700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>5400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>6100</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1163,14 +1203,14 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>8100</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>7800</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1184,11 +1224,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>203200</v>
+        <v>206100</v>
       </c>
       <c r="E17" s="3">
-        <v>230500</v>
+        <v>187300</v>
       </c>
       <c r="F17" s="3">
-        <v>200600</v>
+        <v>196900</v>
       </c>
       <c r="G17" s="3">
-        <v>188400</v>
+        <v>223400</v>
       </c>
       <c r="H17" s="3">
-        <v>704900</v>
+        <v>194500</v>
       </c>
       <c r="I17" s="3">
+        <v>182600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>683300</v>
+      </c>
+      <c r="K17" s="3">
         <v>215600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>175500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>161800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>-4900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>263800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>133600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>112300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>94600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>89400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>62000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>46400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>40700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>37800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>31300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>26700</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3500</v>
+        <v>-39800</v>
       </c>
       <c r="E18" s="3">
-        <v>-31100</v>
+        <v>-27000</v>
       </c>
       <c r="F18" s="3">
-        <v>-64700</v>
+        <v>3400</v>
       </c>
       <c r="G18" s="3">
-        <v>-17800</v>
+        <v>-30200</v>
       </c>
       <c r="H18" s="3">
-        <v>-134100</v>
+        <v>-62700</v>
       </c>
       <c r="I18" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-18400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-36200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-29800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>69800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-131700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-41700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-27600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-36100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-12700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-12000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-7300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-12400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-4400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-7500</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,182 +1547,196 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="3">
-        <v>6300</v>
+        <v>1200</v>
       </c>
       <c r="F20" s="3">
+        <v>900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>900</v>
+      </c>
+      <c r="L20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>500</v>
+      </c>
+      <c r="N20" s="3">
+        <v>700</v>
+      </c>
+      <c r="O20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R20" s="3">
+        <v>200</v>
+      </c>
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>2400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>3700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>800</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>3200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1100</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>6100</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-23200</v>
+        <v>-24700</v>
       </c>
       <c r="F21" s="3">
-        <v>-62400</v>
+        <v>5900</v>
       </c>
       <c r="G21" s="3">
-        <v>-11200</v>
+        <v>-22500</v>
       </c>
       <c r="H21" s="3">
-        <v>-121900</v>
+        <v>-60500</v>
       </c>
       <c r="I21" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-118200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-16400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-31100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-28600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>71200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-128700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-37500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-25600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-30700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-35000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3">
         <v>-2300</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="E22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1100</v>
-      </c>
       <c r="J22" s="3">
-        <v>1100</v>
+        <v>4400</v>
       </c>
       <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1100</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1670,11 +1750,11 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1694,150 +1774,168 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2400</v>
+        <v>-41100</v>
       </c>
       <c r="E23" s="3">
-        <v>-26600</v>
+        <v>-28000</v>
       </c>
       <c r="F23" s="3">
-        <v>-65400</v>
+        <v>2300</v>
       </c>
       <c r="G23" s="3">
-        <v>-13600</v>
+        <v>-25800</v>
       </c>
       <c r="H23" s="3">
-        <v>-130700</v>
+        <v>-63400</v>
       </c>
       <c r="I23" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-126700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-18600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-33100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-30400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>70600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-129400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-38000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-26200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-31200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-35400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-11500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-13900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-8100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-9300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-8500</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>100</v>
-      </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
       </c>
       <c r="T24" s="3">
+        <v>100</v>
+      </c>
+      <c r="U24" s="3">
+        <v>100</v>
+      </c>
+      <c r="V24" s="3">
         <v>500</v>
-      </c>
-      <c r="U24" s="3">
-        <v>500</v>
-      </c>
-      <c r="V24" s="3">
-        <v>200</v>
       </c>
       <c r="W24" s="3">
         <v>500</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-127600</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="N26" s="3">
+        <v>70500</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-129400</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-26500</v>
       </c>
-      <c r="F26" s="3">
-        <v>-65500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-13700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-131600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-33500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-30600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>70500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-129400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-38000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-26500</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-31200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-35500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-11600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-14000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-8600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-9800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-9000</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F27" s="3">
         <v>1700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-26100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-64500</v>
-      </c>
       <c r="G27" s="3">
-        <v>-13600</v>
+        <v>-25300</v>
       </c>
       <c r="H27" s="3">
-        <v>-127300</v>
+        <v>-62500</v>
       </c>
       <c r="I27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-123400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-18300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-33400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-30500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>70500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-129400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-38000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-26500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-37300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-13400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-15500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-10200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-11200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-4200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-8900</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2135,34 +2257,34 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-800</v>
       </c>
       <c r="J29" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
         <v>-41200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-14800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-132800</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E32" s="3">
-        <v>-6300</v>
+        <v>-1200</v>
       </c>
       <c r="F32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-3200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1100</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
-        <v>-26100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-64500</v>
-      </c>
       <c r="G33" s="3">
-        <v>-14400</v>
+        <v>-25300</v>
       </c>
       <c r="H33" s="3">
-        <v>-141500</v>
+        <v>-62500</v>
       </c>
       <c r="I33" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-137200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-18300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-74500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-45400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-62300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-129400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-38000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-26500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-37300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-13400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-15500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-10200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-11200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-4200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-8900</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
-        <v>-26100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-64500</v>
-      </c>
       <c r="G35" s="3">
-        <v>-14400</v>
+        <v>-25300</v>
       </c>
       <c r="H35" s="3">
-        <v>-141500</v>
+        <v>-62500</v>
       </c>
       <c r="I35" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-137200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-18300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-74500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-45400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-62300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-129400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-38000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-26500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-37300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-13400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-15500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-10200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-11200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-4200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-8900</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,62 +2919,64 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>111400</v>
+        <v>90600</v>
       </c>
       <c r="E41" s="3">
-        <v>101200</v>
+        <v>79800</v>
       </c>
       <c r="F41" s="3">
-        <v>97700</v>
+        <v>108000</v>
       </c>
       <c r="G41" s="3">
-        <v>59000</v>
+        <v>98100</v>
       </c>
       <c r="H41" s="3">
-        <v>45900</v>
+        <v>94700</v>
       </c>
       <c r="I41" s="3">
+        <v>57200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K41" s="3">
         <v>70200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>117900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>257300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>84800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>11500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>18500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>20100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>26700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>8500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>8000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,62 +2992,68 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33000</v>
+        <v>3000</v>
       </c>
       <c r="E42" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="F42" s="3">
+        <v>32000</v>
+      </c>
+      <c r="G42" s="3">
         <v>3000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I42" s="3">
         <v>900</v>
       </c>
-      <c r="H42" s="3">
-        <v>71700</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
+        <v>69500</v>
+      </c>
+      <c r="K42" s="3">
         <v>58300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>146500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>47000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>81500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>155400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>245400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>242400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>222800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>16200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>38000</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,62 +3069,68 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>58700</v>
+        <v>53300</v>
       </c>
       <c r="E43" s="3">
-        <v>48300</v>
+        <v>36900</v>
       </c>
       <c r="F43" s="3">
+        <v>56900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>46800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>48600</v>
+      </c>
+      <c r="I43" s="3">
+        <v>41400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>35300</v>
+      </c>
+      <c r="L43" s="3">
+        <v>44300</v>
+      </c>
+      <c r="M43" s="3">
+        <v>35100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>38000</v>
+      </c>
+      <c r="O43" s="3">
         <v>50100</v>
       </c>
-      <c r="G43" s="3">
-        <v>42700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>36200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>35300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>44300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>35100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>38000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>50100</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>34900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>36800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>33200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>27800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>31100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2960,62 +3146,68 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33000</v>
+        <v>25200</v>
       </c>
       <c r="E44" s="3">
-        <v>24200</v>
+        <v>30200</v>
       </c>
       <c r="F44" s="3">
-        <v>30200</v>
+        <v>32000</v>
       </c>
       <c r="G44" s="3">
-        <v>30400</v>
+        <v>23500</v>
       </c>
       <c r="H44" s="3">
-        <v>36300</v>
+        <v>29300</v>
       </c>
       <c r="I44" s="3">
+        <v>29400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K44" s="3">
         <v>38000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>38600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>37400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>20700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>13500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>13700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>10300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>11300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>8100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>5000</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,62 +3223,68 @@
       <c r="Y44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29700</v>
+        <v>26700</v>
       </c>
       <c r="E45" s="3">
-        <v>61400</v>
+        <v>24300</v>
       </c>
       <c r="F45" s="3">
-        <v>106600</v>
+        <v>28700</v>
       </c>
       <c r="G45" s="3">
-        <v>132900</v>
+        <v>59500</v>
       </c>
       <c r="H45" s="3">
-        <v>132600</v>
+        <v>103300</v>
       </c>
       <c r="I45" s="3">
+        <v>128800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>128500</v>
+      </c>
+      <c r="K45" s="3">
         <v>85400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>33100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>27600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>32800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>29600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>17500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>18600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>18600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>16200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>11300</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3102,62 +3300,68 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>265800</v>
+        <v>198800</v>
       </c>
       <c r="E46" s="3">
-        <v>238200</v>
+        <v>174200</v>
       </c>
       <c r="F46" s="3">
-        <v>287600</v>
+        <v>257600</v>
       </c>
       <c r="G46" s="3">
-        <v>265900</v>
+        <v>230900</v>
       </c>
       <c r="H46" s="3">
-        <v>322600</v>
+        <v>278700</v>
       </c>
       <c r="I46" s="3">
+        <v>257800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>312700</v>
+      </c>
+      <c r="K46" s="3">
         <v>287200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>380400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>404400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>257700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>260200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>330000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>328200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>312600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>76800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>93400</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3173,44 +3377,50 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12900</v>
+        <v>12000</v>
       </c>
       <c r="E47" s="3">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="F47" s="3">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G47" s="3">
-        <v>3900</v>
+        <v>9200</v>
       </c>
       <c r="H47" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>9700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4500</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>5900</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,11 +3430,11 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3244,62 +3454,68 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24200</v>
+        <v>23100</v>
       </c>
       <c r="E48" s="3">
-        <v>26400</v>
+        <v>22000</v>
       </c>
       <c r="F48" s="3">
-        <v>28100</v>
+        <v>23500</v>
       </c>
       <c r="G48" s="3">
-        <v>29200</v>
+        <v>25600</v>
       </c>
       <c r="H48" s="3">
-        <v>28200</v>
+        <v>27200</v>
       </c>
       <c r="I48" s="3">
+        <v>28300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K48" s="3">
         <v>31400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>28600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>21000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>21100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>18100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>11900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>7600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>7500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>6100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3315,31 +3531,37 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="E49" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="F49" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="G49" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="H49" s="3">
-        <v>15600</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>15100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>15100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>15100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -3353,11 +3575,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,62 +3762,68 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="E52" s="3">
-        <v>5400</v>
+        <v>4700</v>
       </c>
       <c r="F52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G52" s="3">
         <v>5300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5100</v>
       </c>
-      <c r="H52" s="3">
-        <v>3300</v>
-      </c>
       <c r="I52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K52" s="3">
         <v>30000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>14700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>11000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,62 +3916,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>323600</v>
+        <v>254400</v>
       </c>
       <c r="E54" s="3">
-        <v>295200</v>
+        <v>228500</v>
       </c>
       <c r="F54" s="3">
-        <v>346600</v>
+        <v>313600</v>
       </c>
       <c r="G54" s="3">
-        <v>319800</v>
+        <v>286100</v>
       </c>
       <c r="H54" s="3">
-        <v>374400</v>
+        <v>335900</v>
       </c>
       <c r="I54" s="3">
+        <v>309900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>362900</v>
+      </c>
+      <c r="K54" s="3">
         <v>348600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>423600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>436300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>288200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>282200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>345100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>337900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>321300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>83700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>97700</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,8 +3993,14 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,62 +4055,64 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>40100</v>
+        <v>17800</v>
       </c>
       <c r="E57" s="3">
-        <v>25600</v>
+        <v>16900</v>
       </c>
       <c r="F57" s="3">
-        <v>21600</v>
+        <v>38900</v>
       </c>
       <c r="G57" s="3">
-        <v>18900</v>
+        <v>24800</v>
       </c>
       <c r="H57" s="3">
-        <v>22900</v>
+        <v>20900</v>
       </c>
       <c r="I57" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K57" s="3">
         <v>16600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>10600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>17500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>19700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>17600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>15200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>14900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>9700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>7200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>5300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,62 +4128,68 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>196700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>121000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>121000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>121000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>121000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>121000</v>
+      </c>
+      <c r="K58" s="3">
         <v>124800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="L58" s="3">
         <v>124800</v>
       </c>
-      <c r="F58" s="3">
-        <v>124800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>124800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>124800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>124800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>124800</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>122200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>122200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>129400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>129400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>137500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>135200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>135200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>134100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,62 +4205,68 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>286900</v>
+        <v>308300</v>
       </c>
       <c r="E59" s="3">
-        <v>273800</v>
+        <v>240900</v>
       </c>
       <c r="F59" s="3">
-        <v>305200</v>
+        <v>278100</v>
       </c>
       <c r="G59" s="3">
-        <v>233400</v>
+        <v>265400</v>
       </c>
       <c r="H59" s="3">
-        <v>283600</v>
+        <v>295900</v>
       </c>
       <c r="I59" s="3">
+        <v>226200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>274900</v>
+      </c>
+      <c r="K59" s="3">
         <v>293600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>375700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>312500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>330500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>268200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>204700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>157000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>126000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>93900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>76900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4008,62 +4282,68 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>451800</v>
+        <v>526800</v>
       </c>
       <c r="E60" s="3">
-        <v>424200</v>
+        <v>454500</v>
       </c>
       <c r="F60" s="3">
-        <v>451600</v>
+        <v>437900</v>
       </c>
       <c r="G60" s="3">
-        <v>377100</v>
+        <v>411100</v>
       </c>
       <c r="H60" s="3">
-        <v>431300</v>
+        <v>437700</v>
       </c>
       <c r="I60" s="3">
+        <v>365500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>418000</v>
+      </c>
+      <c r="K60" s="3">
         <v>435000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>511100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>452200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>472400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>415100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>349200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>309300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>270800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>236300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>216400</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4079,31 +4359,37 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>74300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>70600</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>66800</v>
+        <v>72000</v>
       </c>
       <c r="G61" s="3">
-        <v>49600</v>
+        <v>68500</v>
       </c>
       <c r="H61" s="3">
-        <v>36300</v>
+        <v>64700</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>48100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>35100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4150,59 +4436,65 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="E62" s="3">
-        <v>8700</v>
+        <v>7100</v>
       </c>
       <c r="F62" s="3">
-        <v>8900</v>
+        <v>7200</v>
       </c>
       <c r="G62" s="3">
-        <v>7900</v>
+        <v>8400</v>
       </c>
       <c r="H62" s="3">
-        <v>10700</v>
+        <v>8600</v>
       </c>
       <c r="I62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K62" s="3">
         <v>15100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>13800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>10900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>11700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>10300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>6400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>4100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4212,17 +4504,23 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,62 +4744,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>541800</v>
+        <v>542000</v>
       </c>
       <c r="E66" s="3">
-        <v>513000</v>
+        <v>469400</v>
       </c>
       <c r="F66" s="3">
-        <v>537200</v>
+        <v>525100</v>
       </c>
       <c r="G66" s="3">
-        <v>445400</v>
+        <v>497300</v>
       </c>
       <c r="H66" s="3">
-        <v>489200</v>
+        <v>520600</v>
       </c>
       <c r="I66" s="3">
+        <v>431700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>474100</v>
+      </c>
+      <c r="K66" s="3">
         <v>464600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>524800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>463100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>484200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>425500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>355800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>313400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>275100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>238600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>216600</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4505,8 +4821,14 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4719,17 +5055,17 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>75900</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>73600</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,19 +5158,25 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-766700</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+      <c r="F72" s="3">
+        <v>-743200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -4845,33 +5193,33 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3">
         <v>-511000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3">
         <v>-295400</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3">
         <v>-224700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4887,8 +5235,14 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,62 +5466,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-218200</v>
+        <v>-287600</v>
       </c>
       <c r="E76" s="3">
-        <v>-217800</v>
+        <v>-240900</v>
       </c>
       <c r="F76" s="3">
-        <v>-190600</v>
+        <v>-211500</v>
       </c>
       <c r="G76" s="3">
-        <v>-125700</v>
+        <v>-211100</v>
       </c>
       <c r="H76" s="3">
-        <v>-114700</v>
+        <v>-184700</v>
       </c>
       <c r="I76" s="3">
+        <v>-121800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-111200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-116000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-101200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-26700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-196000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-143300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-10700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>24500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>46200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-230800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-192500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5171,8 +5543,14 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
-        <v>-26100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-64500</v>
-      </c>
       <c r="G81" s="3">
-        <v>-14400</v>
+        <v>-25300</v>
       </c>
       <c r="H81" s="3">
-        <v>-141500</v>
+        <v>-62500</v>
       </c>
       <c r="I81" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-137200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-18300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-74500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-45400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-62300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-129400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-38000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-26500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-37300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-13400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-15500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-10200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-11200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-4200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-8900</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,59 +5812,61 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1700</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="F83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H83" s="3">
         <v>1500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>4300</v>
       </c>
       <c r="I83" s="3">
         <v>1100</v>
       </c>
       <c r="J83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L83" s="3">
         <v>800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>500</v>
       </c>
       <c r="P83" s="3">
         <v>500</v>
       </c>
       <c r="Q83" s="3">
+        <v>500</v>
+      </c>
+      <c r="R83" s="3">
+        <v>500</v>
+      </c>
+      <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5478,17 +5876,23 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,59 +6270,65 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>60200</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3">
-        <v>60500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-191400</v>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I89" s="3">
+        <v>58600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-185500</v>
+      </c>
+      <c r="K89" s="3">
         <v>89400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>35400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>72100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-147200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>87400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>21000</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-48300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>21900</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5904,17 +6338,23 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,58 +6380,60 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-62200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-6500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-17900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-22100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-12100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-11400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-15900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-700</v>
       </c>
       <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-700</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
@@ -6002,17 +6444,23 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6606,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6746,6 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAO_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>166200</v>
+        <v>166600</v>
       </c>
       <c r="E8" s="3">
-        <v>160300</v>
+        <v>160600</v>
       </c>
       <c r="F8" s="3">
-        <v>200300</v>
+        <v>200800</v>
       </c>
       <c r="G8" s="3">
-        <v>193200</v>
+        <v>193600</v>
       </c>
       <c r="H8" s="3">
-        <v>131700</v>
+        <v>132000</v>
       </c>
       <c r="I8" s="3">
-        <v>165400</v>
+        <v>165800</v>
       </c>
       <c r="J8" s="3">
-        <v>553300</v>
+        <v>554500</v>
       </c>
       <c r="K8" s="3">
         <v>197200</v>
@@ -855,25 +855,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>88100</v>
+        <v>88300</v>
       </c>
       <c r="E9" s="3">
-        <v>77400</v>
+        <v>77500</v>
       </c>
       <c r="F9" s="3">
-        <v>93600</v>
+        <v>93800</v>
       </c>
       <c r="G9" s="3">
-        <v>88500</v>
+        <v>88700</v>
       </c>
       <c r="H9" s="3">
-        <v>75300</v>
+        <v>75500</v>
       </c>
       <c r="I9" s="3">
-        <v>77000</v>
+        <v>77100</v>
       </c>
       <c r="J9" s="3">
-        <v>279300</v>
+        <v>279900</v>
       </c>
       <c r="K9" s="3">
         <v>85500</v>
@@ -932,25 +932,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>78100</v>
+        <v>78300</v>
       </c>
       <c r="E10" s="3">
-        <v>82900</v>
+        <v>83100</v>
       </c>
       <c r="F10" s="3">
-        <v>106700</v>
+        <v>107000</v>
       </c>
       <c r="G10" s="3">
-        <v>104700</v>
+        <v>105000</v>
       </c>
       <c r="H10" s="3">
-        <v>56400</v>
+        <v>56600</v>
       </c>
       <c r="I10" s="3">
-        <v>88400</v>
+        <v>88600</v>
       </c>
       <c r="J10" s="3">
-        <v>274000</v>
+        <v>274600</v>
       </c>
       <c r="K10" s="3">
         <v>111700</v>
@@ -1044,19 +1044,19 @@
         <v>25200</v>
       </c>
       <c r="F12" s="3">
-        <v>24700</v>
+        <v>24800</v>
       </c>
       <c r="G12" s="3">
-        <v>29300</v>
+        <v>29400</v>
       </c>
       <c r="H12" s="3">
-        <v>28700</v>
+        <v>28800</v>
       </c>
       <c r="I12" s="3">
         <v>28000</v>
       </c>
       <c r="J12" s="3">
-        <v>83700</v>
+        <v>83900</v>
       </c>
       <c r="K12" s="3">
         <v>27500</v>
@@ -1372,25 +1372,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>206100</v>
+        <v>206500</v>
       </c>
       <c r="E17" s="3">
-        <v>187300</v>
+        <v>187700</v>
       </c>
       <c r="F17" s="3">
-        <v>196900</v>
+        <v>197400</v>
       </c>
       <c r="G17" s="3">
-        <v>223400</v>
+        <v>223900</v>
       </c>
       <c r="H17" s="3">
-        <v>194500</v>
+        <v>194900</v>
       </c>
       <c r="I17" s="3">
-        <v>182600</v>
+        <v>183000</v>
       </c>
       <c r="J17" s="3">
-        <v>683300</v>
+        <v>684700</v>
       </c>
       <c r="K17" s="3">
         <v>215600</v>
@@ -1449,7 +1449,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-39800</v>
+        <v>-39900</v>
       </c>
       <c r="E18" s="3">
         <v>-27000</v>
@@ -1461,13 +1461,13 @@
         <v>-30200</v>
       </c>
       <c r="H18" s="3">
-        <v>-62700</v>
+        <v>-62900</v>
       </c>
       <c r="I18" s="3">
-        <v>-17200</v>
+        <v>-17300</v>
       </c>
       <c r="J18" s="3">
-        <v>-130000</v>
+        <v>-130200</v>
       </c>
       <c r="K18" s="3">
         <v>-18400</v>
@@ -1573,7 +1573,7 @@
         <v>5300</v>
       </c>
       <c r="J20" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="K20" s="3">
         <v>900</v>
@@ -1635,22 +1635,22 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-24700</v>
+        <v>-24800</v>
       </c>
       <c r="F21" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G21" s="3">
         <v>-22500</v>
       </c>
       <c r="H21" s="3">
-        <v>-60500</v>
+        <v>-60600</v>
       </c>
       <c r="I21" s="3">
         <v>-10900</v>
       </c>
       <c r="J21" s="3">
-        <v>-118200</v>
+        <v>-118400</v>
       </c>
       <c r="K21" s="3">
         <v>-16400</v>
@@ -1786,7 +1786,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-41100</v>
+        <v>-41200</v>
       </c>
       <c r="E23" s="3">
         <v>-28000</v>
@@ -1795,16 +1795,16 @@
         <v>2300</v>
       </c>
       <c r="G23" s="3">
-        <v>-25800</v>
+        <v>-25900</v>
       </c>
       <c r="H23" s="3">
-        <v>-63400</v>
+        <v>-63500</v>
       </c>
       <c r="I23" s="3">
         <v>-13200</v>
       </c>
       <c r="J23" s="3">
-        <v>-126700</v>
+        <v>-127000</v>
       </c>
       <c r="K23" s="3">
         <v>-18600</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-41800</v>
+        <v>-41900</v>
       </c>
       <c r="E26" s="3">
-        <v>-28400</v>
+        <v>-28500</v>
       </c>
       <c r="F26" s="3">
         <v>400</v>
       </c>
       <c r="G26" s="3">
-        <v>-25600</v>
+        <v>-25700</v>
       </c>
       <c r="H26" s="3">
-        <v>-63500</v>
+        <v>-63600</v>
       </c>
       <c r="I26" s="3">
         <v>-13300</v>
       </c>
       <c r="J26" s="3">
-        <v>-127600</v>
+        <v>-127900</v>
       </c>
       <c r="K26" s="3">
         <v>-18900</v>
@@ -2094,7 +2094,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-41200</v>
+        <v>-41300</v>
       </c>
       <c r="E27" s="3">
         <v>-28200</v>
@@ -2103,16 +2103,16 @@
         <v>1700</v>
       </c>
       <c r="G27" s="3">
-        <v>-25300</v>
+        <v>-25400</v>
       </c>
       <c r="H27" s="3">
-        <v>-62500</v>
+        <v>-62700</v>
       </c>
       <c r="I27" s="3">
-        <v>-13100</v>
+        <v>-13200</v>
       </c>
       <c r="J27" s="3">
-        <v>-123400</v>
+        <v>-123600</v>
       </c>
       <c r="K27" s="3">
         <v>-18300</v>
@@ -2497,7 +2497,7 @@
         <v>-5300</v>
       </c>
       <c r="J32" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="K32" s="3">
         <v>-900</v>
@@ -2556,7 +2556,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-41200</v>
+        <v>-41300</v>
       </c>
       <c r="E33" s="3">
         <v>-28200</v>
@@ -2565,16 +2565,16 @@
         <v>1700</v>
       </c>
       <c r="G33" s="3">
-        <v>-25300</v>
+        <v>-25400</v>
       </c>
       <c r="H33" s="3">
-        <v>-62500</v>
+        <v>-62700</v>
       </c>
       <c r="I33" s="3">
         <v>-14000</v>
       </c>
       <c r="J33" s="3">
-        <v>-137200</v>
+        <v>-137500</v>
       </c>
       <c r="K33" s="3">
         <v>-18300</v>
@@ -2710,7 +2710,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-41200</v>
+        <v>-41300</v>
       </c>
       <c r="E35" s="3">
         <v>-28200</v>
@@ -2719,16 +2719,16 @@
         <v>1700</v>
       </c>
       <c r="G35" s="3">
-        <v>-25300</v>
+        <v>-25400</v>
       </c>
       <c r="H35" s="3">
-        <v>-62500</v>
+        <v>-62700</v>
       </c>
       <c r="I35" s="3">
         <v>-14000</v>
       </c>
       <c r="J35" s="3">
-        <v>-137200</v>
+        <v>-137500</v>
       </c>
       <c r="K35" s="3">
         <v>-18300</v>
@@ -2927,25 +2927,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>90600</v>
+        <v>90800</v>
       </c>
       <c r="E41" s="3">
-        <v>79800</v>
+        <v>80000</v>
       </c>
       <c r="F41" s="3">
-        <v>108000</v>
+        <v>108200</v>
       </c>
       <c r="G41" s="3">
-        <v>98100</v>
+        <v>98300</v>
       </c>
       <c r="H41" s="3">
-        <v>94700</v>
+        <v>94900</v>
       </c>
       <c r="I41" s="3">
-        <v>57200</v>
+        <v>57300</v>
       </c>
       <c r="J41" s="3">
-        <v>44500</v>
+        <v>44600</v>
       </c>
       <c r="K41" s="3">
         <v>70200</v>
@@ -3010,7 +3010,7 @@
         <v>3000</v>
       </c>
       <c r="F42" s="3">
-        <v>32000</v>
+        <v>32100</v>
       </c>
       <c r="G42" s="3">
         <v>3000</v>
@@ -3022,7 +3022,7 @@
         <v>900</v>
       </c>
       <c r="J42" s="3">
-        <v>69500</v>
+        <v>69600</v>
       </c>
       <c r="K42" s="3">
         <v>58300</v>
@@ -3081,22 +3081,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>53300</v>
+        <v>53400</v>
       </c>
       <c r="E43" s="3">
-        <v>36900</v>
+        <v>37000</v>
       </c>
       <c r="F43" s="3">
-        <v>56900</v>
+        <v>57000</v>
       </c>
       <c r="G43" s="3">
-        <v>46800</v>
+        <v>46900</v>
       </c>
       <c r="H43" s="3">
-        <v>48600</v>
+        <v>48700</v>
       </c>
       <c r="I43" s="3">
-        <v>41400</v>
+        <v>41500</v>
       </c>
       <c r="J43" s="3">
         <v>35100</v>
@@ -3161,10 +3161,10 @@
         <v>25200</v>
       </c>
       <c r="E44" s="3">
-        <v>30200</v>
+        <v>30300</v>
       </c>
       <c r="F44" s="3">
-        <v>32000</v>
+        <v>32100</v>
       </c>
       <c r="G44" s="3">
         <v>23500</v>
@@ -3173,10 +3173,10 @@
         <v>29300</v>
       </c>
       <c r="I44" s="3">
-        <v>29400</v>
+        <v>29500</v>
       </c>
       <c r="J44" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="K44" s="3">
         <v>38000</v>
@@ -3238,22 +3238,22 @@
         <v>26700</v>
       </c>
       <c r="E45" s="3">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="F45" s="3">
-        <v>28700</v>
+        <v>28800</v>
       </c>
       <c r="G45" s="3">
-        <v>59500</v>
+        <v>59700</v>
       </c>
       <c r="H45" s="3">
-        <v>103300</v>
+        <v>103500</v>
       </c>
       <c r="I45" s="3">
+        <v>129100</v>
+      </c>
+      <c r="J45" s="3">
         <v>128800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>128500</v>
       </c>
       <c r="K45" s="3">
         <v>85400</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>198800</v>
+        <v>199200</v>
       </c>
       <c r="E46" s="3">
-        <v>174200</v>
+        <v>174600</v>
       </c>
       <c r="F46" s="3">
-        <v>257600</v>
+        <v>258200</v>
       </c>
       <c r="G46" s="3">
-        <v>230900</v>
+        <v>231400</v>
       </c>
       <c r="H46" s="3">
-        <v>278700</v>
+        <v>279300</v>
       </c>
       <c r="I46" s="3">
-        <v>257800</v>
+        <v>258300</v>
       </c>
       <c r="J46" s="3">
-        <v>312700</v>
+        <v>313400</v>
       </c>
       <c r="K46" s="3">
         <v>287200</v>
@@ -3389,7 +3389,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="E47" s="3">
         <v>12500</v>
@@ -3398,7 +3398,7 @@
         <v>12500</v>
       </c>
       <c r="G47" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="H47" s="3">
         <v>9700</v>
@@ -3478,13 +3478,13 @@
         <v>25600</v>
       </c>
       <c r="H48" s="3">
-        <v>27200</v>
+        <v>27300</v>
       </c>
       <c r="I48" s="3">
         <v>28300</v>
       </c>
       <c r="J48" s="3">
-        <v>27300</v>
+        <v>27400</v>
       </c>
       <c r="K48" s="3">
         <v>31400</v>
@@ -3543,25 +3543,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="E49" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="F49" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="G49" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="H49" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="I49" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="J49" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -3789,7 +3789,7 @@
         <v>5100</v>
       </c>
       <c r="I52" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J52" s="3">
         <v>3200</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>254400</v>
+        <v>254900</v>
       </c>
       <c r="E54" s="3">
-        <v>228500</v>
+        <v>229000</v>
       </c>
       <c r="F54" s="3">
-        <v>313600</v>
+        <v>314300</v>
       </c>
       <c r="G54" s="3">
-        <v>286100</v>
+        <v>286800</v>
       </c>
       <c r="H54" s="3">
-        <v>335900</v>
+        <v>336700</v>
       </c>
       <c r="I54" s="3">
-        <v>309900</v>
+        <v>310600</v>
       </c>
       <c r="J54" s="3">
-        <v>362900</v>
+        <v>363700</v>
       </c>
       <c r="K54" s="3">
         <v>348600</v>
@@ -4063,22 +4063,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="E57" s="3">
         <v>16900</v>
       </c>
       <c r="F57" s="3">
-        <v>38900</v>
+        <v>39000</v>
       </c>
       <c r="G57" s="3">
         <v>24800</v>
       </c>
       <c r="H57" s="3">
-        <v>20900</v>
+        <v>21000</v>
       </c>
       <c r="I57" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="J57" s="3">
         <v>22200</v>
@@ -4140,25 +4140,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200600</v>
+        <v>201100</v>
       </c>
       <c r="E58" s="3">
-        <v>196700</v>
+        <v>197100</v>
       </c>
       <c r="F58" s="3">
-        <v>121000</v>
+        <v>121200</v>
       </c>
       <c r="G58" s="3">
-        <v>121000</v>
+        <v>121200</v>
       </c>
       <c r="H58" s="3">
-        <v>121000</v>
+        <v>121200</v>
       </c>
       <c r="I58" s="3">
-        <v>121000</v>
+        <v>121200</v>
       </c>
       <c r="J58" s="3">
-        <v>121000</v>
+        <v>121200</v>
       </c>
       <c r="K58" s="3">
         <v>124800</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>308300</v>
+        <v>309000</v>
       </c>
       <c r="E59" s="3">
-        <v>240900</v>
+        <v>241400</v>
       </c>
       <c r="F59" s="3">
-        <v>278100</v>
+        <v>278700</v>
       </c>
       <c r="G59" s="3">
-        <v>265400</v>
+        <v>266000</v>
       </c>
       <c r="H59" s="3">
-        <v>295900</v>
+        <v>296500</v>
       </c>
       <c r="I59" s="3">
-        <v>226200</v>
+        <v>226700</v>
       </c>
       <c r="J59" s="3">
-        <v>274900</v>
+        <v>275500</v>
       </c>
       <c r="K59" s="3">
         <v>293600</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>526800</v>
+        <v>527900</v>
       </c>
       <c r="E60" s="3">
-        <v>454500</v>
+        <v>455500</v>
       </c>
       <c r="F60" s="3">
-        <v>437900</v>
+        <v>438900</v>
       </c>
       <c r="G60" s="3">
-        <v>411100</v>
+        <v>412000</v>
       </c>
       <c r="H60" s="3">
-        <v>437700</v>
+        <v>438700</v>
       </c>
       <c r="I60" s="3">
-        <v>365500</v>
+        <v>366300</v>
       </c>
       <c r="J60" s="3">
-        <v>418000</v>
+        <v>418900</v>
       </c>
       <c r="K60" s="3">
         <v>435000</v>
@@ -4377,19 +4377,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>72000</v>
+        <v>72100</v>
       </c>
       <c r="G61" s="3">
-        <v>68500</v>
+        <v>68600</v>
       </c>
       <c r="H61" s="3">
-        <v>64700</v>
+        <v>64900</v>
       </c>
       <c r="I61" s="3">
-        <v>48100</v>
+        <v>48200</v>
       </c>
       <c r="J61" s="3">
-        <v>35100</v>
+        <v>35200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>542000</v>
+        <v>543200</v>
       </c>
       <c r="E66" s="3">
-        <v>469400</v>
+        <v>470400</v>
       </c>
       <c r="F66" s="3">
-        <v>525100</v>
+        <v>526300</v>
       </c>
       <c r="G66" s="3">
-        <v>497300</v>
+        <v>498300</v>
       </c>
       <c r="H66" s="3">
-        <v>520600</v>
+        <v>521800</v>
       </c>
       <c r="I66" s="3">
-        <v>431700</v>
+        <v>432700</v>
       </c>
       <c r="J66" s="3">
-        <v>474100</v>
+        <v>475200</v>
       </c>
       <c r="K66" s="3">
         <v>464600</v>
@@ -5176,7 +5176,7 @@
         <v>3</v>
       </c>
       <c r="F72" s="3">
-        <v>-743200</v>
+        <v>-744800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-287600</v>
+        <v>-288300</v>
       </c>
       <c r="E76" s="3">
-        <v>-240900</v>
+        <v>-241400</v>
       </c>
       <c r="F76" s="3">
-        <v>-211500</v>
+        <v>-212000</v>
       </c>
       <c r="G76" s="3">
-        <v>-211100</v>
+        <v>-211600</v>
       </c>
       <c r="H76" s="3">
-        <v>-184700</v>
+        <v>-185100</v>
       </c>
       <c r="I76" s="3">
-        <v>-121800</v>
+        <v>-122100</v>
       </c>
       <c r="J76" s="3">
-        <v>-111200</v>
+        <v>-111400</v>
       </c>
       <c r="K76" s="3">
         <v>-116000</v>
@@ -5714,7 +5714,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-41200</v>
+        <v>-41300</v>
       </c>
       <c r="E81" s="3">
         <v>-28200</v>
@@ -5723,16 +5723,16 @@
         <v>1700</v>
       </c>
       <c r="G81" s="3">
-        <v>-25300</v>
+        <v>-25400</v>
       </c>
       <c r="H81" s="3">
-        <v>-62500</v>
+        <v>-62700</v>
       </c>
       <c r="I81" s="3">
         <v>-14000</v>
       </c>
       <c r="J81" s="3">
-        <v>-137200</v>
+        <v>-137500</v>
       </c>
       <c r="K81" s="3">
         <v>-18300</v>
@@ -5838,7 +5838,7 @@
         <v>1100</v>
       </c>
       <c r="J83" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K83" s="3">
         <v>1100</v>
@@ -6282,10 +6282,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-41900</v>
+        <v>-42000</v>
       </c>
       <c r="E89" s="3">
-        <v>60200</v>
+        <v>60300</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -6297,10 +6297,10 @@
         <v>3</v>
       </c>
       <c r="I89" s="3">
-        <v>58600</v>
+        <v>58800</v>
       </c>
       <c r="J89" s="3">
-        <v>-185500</v>
+        <v>-185900</v>
       </c>
       <c r="K89" s="3">
         <v>89400</v>
@@ -6388,25 +6388,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6100</v>
+        <v>-900</v>
       </c>
       <c r="E91" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-62200</v>
+        <v>-9200</v>
       </c>
       <c r="G91" s="3">
-        <v>-6500</v>
+        <v>-1000</v>
       </c>
       <c r="H91" s="3">
-        <v>-17900</v>
+        <v>-2800</v>
       </c>
       <c r="I91" s="3">
-        <v>-22100</v>
+        <v>-3400</v>
       </c>
       <c r="J91" s="3">
-        <v>-12100</v>
+        <v>-1900</v>
       </c>
       <c r="K91" s="3">
         <v>-11400</v>
